--- a/source/databricks/calculation_engine/tests/features/given_an_energy_calculation/when_minimal_standard_scenario/Oracle - minimal standard calculation.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_an_energy_calculation/when_minimal_standard_scenario/Oracle - minimal standard calculation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://endkdk-my.sharepoint.com/personal/xclpe_endk_dk/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://endkdk-my.sharepoint.com/personal/xclpe_endk_dk/Documents/Desktop/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{59681D7C-2D11-4F86-BE61-3913A669191C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A418B14C-CC13-4D37-BC14-A34FBA8B1825}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A964E703-856F-4C13-9E75-B037FEF3E0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ECBE4B4-3267-40FC-BB4F-D949972F2E05}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="38400" windowHeight="15290" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour1" sheetId="11" r:id="rId1"/>
@@ -452,9 +452,6 @@
     <t>TotalHour</t>
   </si>
   <si>
-    <t>200000001500000001</t>
-  </si>
-  <si>
     <t>170000001500000101</t>
   </si>
   <si>
@@ -468,9 +465,6 @@
   </si>
   <si>
     <t>200000000000000002</t>
-  </si>
-  <si>
-    <t>200000001500000003</t>
   </si>
   <si>
     <t>200000000000000004</t>
@@ -494,13 +488,7 @@
     <t>180000000000000003</t>
   </si>
   <si>
-    <t>801</t>
-  </si>
-  <si>
     <t>802</t>
-  </si>
-  <si>
-    <t>803</t>
   </si>
   <si>
     <t>804</t>
@@ -508,14 +496,27 @@
   <si>
     <t>2000000000000</t>
   </si>
+  <si>
+    <t>200000001500000001</t>
+  </si>
+  <si>
+    <t>200000001500000003</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -776,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -837,6 +838,9 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1451,8 +1455,8 @@
   </sheetPr>
   <dimension ref="A1:CN400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:Q16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1470,7 +1474,7 @@
     <col min="14" max="14" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.1796875" style="1" customWidth="1"/>
     <col min="16" max="17" width="11.7265625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="32.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="33.453125" style="1" bestFit="1" customWidth="1"/>
@@ -1478,7 +1482,7 @@
     <col min="23" max="24" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="1.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
@@ -1579,10 +1583,10 @@
         <v>25</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>99</v>
@@ -1595,7 +1599,7 @@
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
       <c r="J2" s="43">
-        <f>IF(C2="","",SUM(F2:I2))</f>
+        <f t="shared" ref="J2:J19" si="0">IF(C2="","",SUM(F2:I2))</f>
         <v>10</v>
       </c>
       <c r="K2" s="10" t="s">
@@ -1605,10 +1609,10 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q2" s="29" t="s">
         <v>95</v>
@@ -1666,7 +1670,7 @@
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C3" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>99</v>
@@ -1679,7 +1683,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
       <c r="J3" s="43">
-        <f t="shared" ref="J3:J19" si="0">IF(C3="","",SUM(F3:I3))</f>
+        <f t="shared" si="0"/>
         <v>20.003</v>
       </c>
       <c r="K3" s="10" t="s">
@@ -1689,10 +1693,10 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q3" s="29" t="s">
         <v>95</v>
@@ -1743,7 +1747,7 @@
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>99</v>
@@ -1772,7 +1776,7 @@
         <v>95</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="R4" s="24"/>
       <c r="S4" s="7" t="s">
@@ -1818,7 +1822,7 @@
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C5" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>99</v>
@@ -1847,7 +1851,7 @@
         <v>95</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="7" t="s">
@@ -1889,7 +1893,7 @@
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>90</v>
@@ -1962,7 +1966,7 @@
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C7" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>90</v>
@@ -1984,7 +1988,7 @@
         <v>92</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>94</v>
@@ -2033,7 +2037,7 @@
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C8" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>90</v>
@@ -2087,7 +2091,7 @@
     </row>
     <row r="9" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C9" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>90</v>
@@ -2153,7 +2157,7 @@
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C10" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>90</v>
@@ -2175,7 +2179,7 @@
         <v>92</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>94</v>
@@ -2227,7 +2231,7 @@
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C11" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>90</v>
@@ -2241,7 +2245,10 @@
       <c r="G11" s="12"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
-      <c r="J11" s="43"/>
+      <c r="J11" s="43">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
       <c r="K11" s="10" t="s">
         <v>92</v>
       </c>
@@ -2301,7 +2308,7 @@
     </row>
     <row r="12" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C12" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>98</v>
@@ -2380,7 +2387,7 @@
     </row>
     <row r="13" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C13" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>98</v>
@@ -2400,7 +2407,7 @@
         <v>92</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>94</v>
@@ -2459,7 +2466,7 @@
     </row>
     <row r="14" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>98</v>
@@ -3014,16 +3021,16 @@
       </c>
       <c r="V18" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[es_id],U18,IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT1H")/4</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="W18" s="19">
         <f>V18</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="X18" s="19"/>
       <c r="Y18" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.3E-2</v>
       </c>
       <c r="Z18" s="27"/>
       <c r="AA18" s="27"/>
@@ -3129,19 +3136,19 @@
       </c>
       <c r="V19" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="W19" s="19">
         <f>X19+W18</f>
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="X19" s="19">
         <f>V19-Y18</f>
-        <v>0</v>
+        <v>-5.0000000000000044E-4</v>
       </c>
       <c r="Y19" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="Z19" s="27"/>
       <c r="AA19" s="27"/>
@@ -3212,18 +3219,18 @@
       <c r="CN19" s="2"/>
     </row>
     <row r="20" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" s="44" t="str">
+      <c r="E20" s="47" t="str">
         <f>CONCATENATE(B2,"_per_",B1)</f>
         <v>flex_consumption_per_ga_brp_es</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45" t="s">
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="50"/>
       <c r="R20" s="15" t="s">
         <v>76</v>
       </c>
@@ -3241,19 +3248,19 @@
       </c>
       <c r="V20" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="W20" s="19">
         <f>X20+W19</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="X20" s="19">
         <f>V20-Y19</f>
-        <v>0</v>
+        <v>5.0000000000000044E-4</v>
       </c>
       <c r="Y20" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.3E-2</v>
       </c>
       <c r="Z20" s="27"/>
       <c r="AA20" s="27"/>
@@ -3377,19 +3384,19 @@
       </c>
       <c r="V21" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="W21" s="19">
         <f>X21+W20</f>
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="X21" s="19">
         <f>V21-Y20</f>
-        <v>0</v>
+        <v>-5.0000000000000044E-4</v>
       </c>
       <c r="Y21" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="Z21" s="27"/>
       <c r="AA21" s="27"/>
@@ -3628,7 +3635,7 @@
       </c>
       <c r="H23" s="33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1.52</v>
+        <v>1.458</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" ref="I23:I45" si="8">SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),R$10:R$33,D23)</f>
@@ -3640,7 +3647,7 @@
       </c>
       <c r="K23" s="9">
         <f t="shared" si="6"/>
-        <v>1.5199999999999996</v>
+        <v>1.4579999999999997</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3773,7 +3780,7 @@
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1.52</v>
+        <v>1.457</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="8"/>
@@ -3785,7 +3792,7 @@
       </c>
       <c r="K24" s="9">
         <f t="shared" si="6"/>
-        <v>1.52</v>
+        <v>1.4569999999999999</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3921,7 +3928,7 @@
       </c>
       <c r="H25" s="33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1.521</v>
+        <v>1.459</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="8"/>
@@ -3933,7 +3940,7 @@
       </c>
       <c r="K25" s="9">
         <f t="shared" si="6"/>
-        <v>1.5210000000000008</v>
+        <v>1.459000000000001</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="2"/>
@@ -4659,11 +4666,11 @@
       </c>
       <c r="H30" s="33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.3E-2</v>
       </c>
       <c r="J30" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D30,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D30,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F30,IF(B$1="ga_brp",G30,E30)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -4802,11 +4809,11 @@
       </c>
       <c r="H31" s="33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="J31" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D31,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D31,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F31,IF(B$1="ga_brp",G31,E31)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -4948,11 +4955,11 @@
       </c>
       <c r="H32" s="33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.3E-2</v>
       </c>
       <c r="J32" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D32,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D32,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F32,IF(B$1="ga_brp",G32,E32)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -5094,11 +5101,11 @@
       </c>
       <c r="H33" s="33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="I33" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="J33" s="9">
         <f ca="1">SUMIFS(INDIRECT(ADDRESS(2,MATCH(D33,$1:$1,0),4,1)&amp;":"&amp;ADDRESS(19,MATCH(D33,$1:$1,0),4,1)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),TableDay1[es_id],IF(B$1="ga_brp",TableDay1[brp_id],TableDay1[ga_id])),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F33,IF(B$1="ga_brp",G33,E33)),IF(B$2="production",TableDay1[type],TableDay1[settlement_method]),AG$2,TableDay1[resolution],"PT15M")</f>
@@ -5384,7 +5391,7 @@
       <c r="U35" s="24"/>
       <c r="V35" s="28">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT1H")</f>
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W35" s="16" t="s">
         <v>49</v>
@@ -5392,11 +5399,11 @@
       <c r="X35" s="16"/>
       <c r="Y35" s="28">
         <f>SUM(Y37:Y40)</f>
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z35" s="21">
         <f>SUM(Z37:Z40)</f>
-        <v>10</v>
+        <v>10.252000000000001</v>
       </c>
       <c r="AA35" s="27"/>
       <c r="AB35" s="2"/>
@@ -5520,7 +5527,7 @@
       </c>
       <c r="V36" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT1H")/4</f>
-        <v>2.5</v>
+        <v>2.5625</v>
       </c>
       <c r="W36" s="7" t="s">
         <v>45</v>
@@ -5656,20 +5663,20 @@
       </c>
       <c r="V37" s="19">
         <f>V$36</f>
-        <v>2.5</v>
+        <v>2.5625</v>
       </c>
       <c r="W37" s="19">
         <f>V37</f>
-        <v>2.5</v>
+        <v>2.5625</v>
       </c>
       <c r="X37" s="19"/>
       <c r="Y37" s="23">
         <f>ROUND(W37, 3)</f>
-        <v>2.5</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="Z37" s="23">
         <f>ROUND(V37,3)</f>
-        <v>2.5</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="AA37" s="27"/>
       <c r="AB37" s="2"/>
@@ -5793,23 +5800,23 @@
       </c>
       <c r="V38" s="19">
         <f>V$36</f>
-        <v>2.5</v>
+        <v>2.5625</v>
       </c>
       <c r="W38" s="19">
         <f>X38+W37</f>
-        <v>2.5</v>
+        <v>2.5619999999999998</v>
       </c>
       <c r="X38" s="19">
         <f>V38-Y37</f>
-        <v>0</v>
+        <v>-5.0000000000016698E-4</v>
       </c>
       <c r="Y38" s="23">
         <f>ROUND(W38, 3)</f>
-        <v>2.5</v>
+        <v>2.5619999999999998</v>
       </c>
       <c r="Z38" s="23">
         <f>ROUND(V38,3)</f>
-        <v>2.5</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="AA38" s="27"/>
       <c r="AB38" s="2"/>
@@ -5933,23 +5940,23 @@
       </c>
       <c r="V39" s="19">
         <f>V$36</f>
-        <v>2.5</v>
+        <v>2.5625</v>
       </c>
       <c r="W39" s="19">
         <f>X39+W38</f>
-        <v>2.5</v>
+        <v>2.5625</v>
       </c>
       <c r="X39" s="19">
         <f>V39-Y38</f>
-        <v>0</v>
+        <v>5.0000000000016698E-4</v>
       </c>
       <c r="Y39" s="23">
         <f>ROUND(W39, 3)</f>
-        <v>2.5</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="Z39" s="23">
         <f>ROUND(V39,3)</f>
-        <v>2.5</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="AA39" s="27"/>
       <c r="AB39" s="2"/>
@@ -6073,23 +6080,23 @@
       </c>
       <c r="V40" s="19">
         <f>V$36</f>
-        <v>2.5</v>
+        <v>2.5625</v>
       </c>
       <c r="W40" s="19">
         <f>X40+W39</f>
-        <v>2.5</v>
+        <v>2.5619999999999998</v>
       </c>
       <c r="X40" s="19">
         <f>V40-Y39</f>
-        <v>0</v>
+        <v>-5.0000000000016698E-4</v>
       </c>
       <c r="Y40" s="23">
         <f>ROUND(W40, 3)</f>
-        <v>2.5</v>
+        <v>2.5619999999999998</v>
       </c>
       <c r="Z40" s="23">
         <f>ROUND(V40,3)</f>
-        <v>2.5</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="AA40" s="27"/>
       <c r="AB40" s="2"/>
@@ -6835,12 +6842,12 @@
     </row>
     <row r="46" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="2"/>
-      <c r="E46" s="44" t="s">
+      <c r="E46" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
       <c r="R46" s="24"/>
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
@@ -7059,7 +7066,10 @@
         <f>powerIn1H_quarter1+powerIn15M_quarter1-powerOut1H_quarter1-powerOut15M_quarter1</f>
         <v>9.7220000000000013</v>
       </c>
-      <c r="I48" s="2"/>
+      <c r="I48" s="27" t="str">
+        <f>SUBSTITUTE(ROUND(H48,3),",",".")</f>
+        <v>9.722</v>
+      </c>
       <c r="R48" s="24"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
@@ -7170,7 +7180,10 @@
         <f>powerIn1H_quarter2+powerIn15M_quarter2-powerOut1H_quarter2-powerOut15M_quarter2</f>
         <v>4.7210000000000001</v>
       </c>
-      <c r="I49" s="2"/>
+      <c r="I49" s="27" t="str">
+        <f t="shared" ref="I49:I51" si="13">SUBSTITUTE(ROUND(H49,3),",",".")</f>
+        <v>4.721</v>
+      </c>
       <c r="R49" s="24"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
@@ -7282,7 +7295,10 @@
         <f>powerIn1H_quarter3+powerIn15M_quarter3-powerOut1H_quarter3-powerOut15M_quarter3</f>
         <v>4.7210000000000001</v>
       </c>
-      <c r="I50" s="2"/>
+      <c r="I50" s="27" t="str">
+        <f t="shared" si="13"/>
+        <v>4.721</v>
+      </c>
       <c r="R50" s="24"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
@@ -7397,7 +7413,10 @@
         <f>powerIn1H_quarter4+powerIn15M_quarter4-powerOut1H_quarter4-powerOut15M_quarter4</f>
         <v>4.7220000000000004</v>
       </c>
-      <c r="I51" s="2"/>
+      <c r="I51" s="27" t="str">
+        <f t="shared" si="13"/>
+        <v>4.722</v>
+      </c>
       <c r="R51" s="24"/>
       <c r="S51" s="24"/>
       <c r="T51" s="24"/>
@@ -7495,12 +7514,12 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="50"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="53"/>
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
@@ -7719,9 +7738,14 @@
       </c>
       <c r="H54" s="32">
         <f>totalFlex1H_quarter1+totalFlex15M_quarter1</f>
-        <v>12.5</v>
-      </c>
-      <c r="R54" s="24"/>
+        <v>12.563000000000001</v>
+      </c>
+      <c r="I54" s="27" t="str">
+        <f>SUBSTITUTE(ROUND(H54,3),",",".")</f>
+        <v>12.563</v>
+      </c>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
       <c r="S54" s="24"/>
       <c r="T54" s="24"/>
       <c r="U54" s="6" t="s">
@@ -7818,7 +7842,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="31" t="str">
-        <f t="shared" ref="E55:E57" si="13">$AD$2</f>
+        <f t="shared" ref="E55:E57" si="14">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F55" s="31" t="s">
@@ -7829,9 +7853,13 @@
       </c>
       <c r="H55" s="32">
         <f>totalFlex1H_quarter2+totalFlex15M_quarter2</f>
-        <v>2.5</v>
-      </c>
-      <c r="R55" s="24"/>
+        <v>2.5619999999999998</v>
+      </c>
+      <c r="I55" s="27" t="str">
+        <f t="shared" ref="I55:I57" si="15">SUBSTITUTE(ROUND(H55,3),",",".")</f>
+        <v>2.562</v>
+      </c>
+      <c r="R55" s="44"/>
       <c r="S55" s="24"/>
       <c r="T55" s="24"/>
       <c r="U55" s="15" t="s">
@@ -7847,14 +7875,14 @@
       </c>
       <c r="X55" s="19"/>
       <c r="Y55" s="23">
-        <f>ROUND(W55, 3)</f>
+        <f>ROUND(W55,3)</f>
         <v>5.0010000000000003</v>
       </c>
       <c r="Z55" s="23">
         <f>ROUND(V55,3)</f>
         <v>5.0010000000000003</v>
       </c>
-      <c r="AA55" s="24"/>
+      <c r="AA55" s="45"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
@@ -7929,7 +7957,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="31" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>800</v>
       </c>
       <c r="F56" s="31" t="s">
@@ -7940,7 +7968,11 @@
       </c>
       <c r="H56" s="32">
         <f>totalFlex1H_quarter3+totalFlex15M_quarter3</f>
-        <v>2.5</v>
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="I56" s="27" t="str">
+        <f t="shared" si="15"/>
+        <v>2.563</v>
       </c>
       <c r="R56" s="24"/>
       <c r="S56" s="24"/>
@@ -7961,14 +7993,14 @@
         <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Y56" s="23">
-        <f>ROUND(W56, 3)</f>
+        <f t="shared" ref="Y56:Y58" si="16">ROUND(W56,3)</f>
         <v>5.0010000000000003</v>
       </c>
       <c r="Z56" s="23">
         <f>ROUND(V56,3)</f>
         <v>5.0010000000000003</v>
       </c>
-      <c r="AA56" s="24"/>
+      <c r="AA56" s="45"/>
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
@@ -8043,7 +8075,7 @@
         <v>6</v>
       </c>
       <c r="E57" s="31" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>800</v>
       </c>
       <c r="F57" s="31" t="s">
@@ -8054,7 +8086,11 @@
       </c>
       <c r="H57" s="32">
         <f>totalFlex1H_quarter4+totalFlex15M_quarter4</f>
-        <v>2.5</v>
+        <v>2.5619999999999998</v>
+      </c>
+      <c r="I57" s="27" t="str">
+        <f t="shared" si="15"/>
+        <v>2.562</v>
       </c>
       <c r="R57" s="24"/>
       <c r="S57" s="24"/>
@@ -8075,14 +8111,14 @@
         <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Y57" s="23">
-        <f>ROUND(W57, 3)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="Z57" s="23">
         <f>ROUND(V57,3)</f>
         <v>5.0010000000000003</v>
       </c>
-      <c r="AA57" s="27"/>
+      <c r="AA57" s="45"/>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
@@ -8153,12 +8189,12 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="E58" s="48" t="s">
+      <c r="E58" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="50"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="53"/>
       <c r="R58" s="24"/>
       <c r="S58" s="24"/>
       <c r="T58" s="24"/>
@@ -8178,14 +8214,14 @@
         <v>7.5000000000002842E-4</v>
       </c>
       <c r="Y58" s="23">
-        <f>ROUND(W58, 3)</f>
+        <f t="shared" si="16"/>
         <v>5.0010000000000003</v>
       </c>
       <c r="Z58" s="23">
         <f>ROUND(V58,3)</f>
         <v>5.0010000000000003</v>
       </c>
-      <c r="AA58" s="27"/>
+      <c r="AA58" s="45"/>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
@@ -8377,7 +8413,11 @@
         <f>totalProduction1H_quarter1+totalProduction15M_quarter1</f>
         <v>7.5009999999999994</v>
       </c>
-      <c r="R60" s="24"/>
+      <c r="I60" s="27" t="str">
+        <f>SUBSTITUTE(ROUND(H60,3),",",".")</f>
+        <v>7.501</v>
+      </c>
+      <c r="R60" s="44"/>
       <c r="S60" s="24"/>
       <c r="T60" s="24"/>
       <c r="U60" s="6" t="s">
@@ -8472,7 +8512,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="31" t="str">
-        <f t="shared" ref="E61:E63" si="14">$AD$2</f>
+        <f t="shared" ref="E61:E63" si="17">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F61" s="31" t="s">
@@ -8484,6 +8524,10 @@
       <c r="H61" s="32">
         <f>totalProduction1H_quarter2+totalProduction15M_quarter2</f>
         <v>1.5009999999999999</v>
+      </c>
+      <c r="I61" s="27" t="str">
+        <f t="shared" ref="I61:I63" si="18">SUBSTITUTE(ROUND(H61,3),",",".")</f>
+        <v>1.501</v>
       </c>
       <c r="R61" s="24"/>
       <c r="S61" s="24"/>
@@ -8501,14 +8545,14 @@
       </c>
       <c r="X61" s="19"/>
       <c r="Y61" s="23">
-        <f>ROUND(W61, 3)</f>
+        <f>ROUND(W61,3)</f>
         <v>0.27900000000000003</v>
       </c>
       <c r="Z61" s="23">
         <f>ROUND(V61,3)</f>
         <v>0.27900000000000003</v>
       </c>
-      <c r="AA61" s="27"/>
+      <c r="AA61" s="45"/>
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
@@ -8581,7 +8625,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="31" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>800</v>
       </c>
       <c r="F62" s="31" t="s">
@@ -8592,6 +8636,10 @@
       </c>
       <c r="H62" s="32">
         <f>totalProduction1H_quarter3+totalProduction15M_quarter3</f>
+        <v>1.5</v>
+      </c>
+      <c r="I62" s="27" t="str">
+        <f t="shared" si="18"/>
         <v>1.5</v>
       </c>
       <c r="R62" s="24"/>
@@ -8613,14 +8661,14 @@
         <v>2.4999999999997247E-4</v>
       </c>
       <c r="Y62" s="23">
-        <f>ROUND(W62, 3)</f>
+        <f t="shared" ref="Y62:Y64" si="19">ROUND(W62,3)</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="Z62" s="23">
         <f>ROUND(V62,3)</f>
         <v>0.27900000000000003</v>
       </c>
-      <c r="AA62" s="27"/>
+      <c r="AA62" s="45"/>
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
@@ -8693,7 +8741,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="31" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>800</v>
       </c>
       <c r="F63" s="31" t="s">
@@ -8705,6 +8753,10 @@
       <c r="H63" s="32">
         <f>totalProduction1H_quarter4+totalProduction15M_quarter4</f>
         <v>1.5009999999999999</v>
+      </c>
+      <c r="I63" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v>1.501</v>
       </c>
       <c r="R63" s="24"/>
       <c r="S63" s="24"/>
@@ -8725,14 +8777,14 @@
         <v>-7.5000000000002842E-4</v>
       </c>
       <c r="Y63" s="23">
-        <f>ROUND(W63, 3)</f>
+        <f t="shared" si="19"/>
         <v>0.27900000000000003</v>
       </c>
       <c r="Z63" s="23">
         <f>ROUND(V63,3)</f>
         <v>0.27900000000000003</v>
       </c>
-      <c r="AA63" s="27"/>
+      <c r="AA63" s="45"/>
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
@@ -8801,12 +8853,12 @@
     </row>
     <row r="64" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="2"/>
-      <c r="E64" s="48" t="s">
+      <c r="E64" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="50"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="53"/>
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
       <c r="T64" s="24"/>
@@ -8826,14 +8878,14 @@
         <v>2.4999999999997247E-4</v>
       </c>
       <c r="Y64" s="23">
-        <f>ROUND(W64, 3)</f>
+        <f t="shared" si="19"/>
         <v>0.27900000000000003</v>
       </c>
       <c r="Z64" s="23">
         <f>ROUND(V64,3)</f>
         <v>0.27900000000000003</v>
       </c>
-      <c r="AA64" s="27"/>
+      <c r="AA64" s="45"/>
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
@@ -8923,19 +8975,19 @@
       <c r="U65" s="24"/>
       <c r="V65" s="28">
         <f>ROUND(SUMIFS(TableDay1[TotalHour],TableDay1[type],"E17",TableDay1[resolution],"PT1H"),3)</f>
-        <v>18.806999999999999</v>
-      </c>
-      <c r="W65" s="52" t="s">
+        <v>19.056999999999999</v>
+      </c>
+      <c r="W65" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="X65" s="53"/>
+      <c r="X65" s="56"/>
       <c r="Y65" s="28">
         <f>ROUND(SUM(Y67:Y70),3)</f>
-        <v>18.806999999999999</v>
+        <v>19.056999999999999</v>
       </c>
       <c r="Z65" s="21">
         <f>SUM(Z67:Z70)</f>
-        <v>18.808</v>
+        <v>19.056000000000001</v>
       </c>
       <c r="AA65" s="27"/>
       <c r="AB65" s="2"/>
@@ -9021,7 +9073,11 @@
       </c>
       <c r="H66" s="32">
         <f>totalProduction1H_quarter1+totalProduction15M_quarter1+netEx_quarter1-totalFlex1H_quarter1-totalFlex15M_quarter1-totalNonprofiled1H_quarter1-totalNonprofiled15M_quarter1</f>
-        <v>-2.479000000000001</v>
+        <v>-2.5420000000000016</v>
+      </c>
+      <c r="I66" s="27" t="str">
+        <f>SUBSTITUTE(ROUND(H66,3),",",".")</f>
+        <v>-2.542</v>
       </c>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
@@ -9031,7 +9087,7 @@
       </c>
       <c r="V66" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E17",TableDay1[resolution],"PT1H")/4</f>
-        <v>4.7017500000000005</v>
+        <v>4.7642500000000005</v>
       </c>
       <c r="W66" s="7" t="s">
         <v>45</v>
@@ -9118,7 +9174,7 @@
         <v>4</v>
       </c>
       <c r="E67" s="31" t="str">
-        <f t="shared" ref="E67:E69" si="15">$AD$2</f>
+        <f t="shared" ref="E67:E69" si="20">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F67" s="31" t="s">
@@ -9129,7 +9185,11 @@
       </c>
       <c r="H67" s="32">
         <f>totalProduction1H_quarter2+totalProduction15M_quarter2+netEx_quarter2-totalFlex1H_quarter2-totalFlex15M_quarter2-totalNonprofiled1H_quarter2-totalNonprofiled15M_quarter2</f>
-        <v>1.5199999999999996</v>
+        <v>1.4579999999999997</v>
+      </c>
+      <c r="I67" s="27" t="str">
+        <f t="shared" ref="I67:I69" si="21">SUBSTITUTE(ROUND(H67,3),",",".")</f>
+        <v>1.458</v>
       </c>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
@@ -9139,20 +9199,20 @@
       </c>
       <c r="V67" s="19">
         <f>V$66</f>
-        <v>4.7017500000000005</v>
+        <v>4.7642500000000005</v>
       </c>
       <c r="W67" s="19">
         <f>V67</f>
-        <v>4.7017500000000005</v>
+        <v>4.7642500000000005</v>
       </c>
       <c r="X67" s="19"/>
       <c r="Y67" s="23">
         <f>ROUND(W67, 3)</f>
-        <v>4.702</v>
+        <v>4.7640000000000002</v>
       </c>
       <c r="Z67" s="23">
         <f>ROUND(V67,3)</f>
-        <v>4.702</v>
+        <v>4.7640000000000002</v>
       </c>
       <c r="AA67" s="27"/>
       <c r="AB67" s="2"/>
@@ -9227,7 +9287,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>800</v>
       </c>
       <c r="F68" s="31" t="s">
@@ -9238,7 +9298,11 @@
       </c>
       <c r="H68" s="32">
         <f>totalProduction1H_quarter3+totalProduction15M_quarter3+netEx_quarter3-totalFlex1H_quarter3-totalFlex15M_quarter3-totalNonprofiled1H_quarter3-totalNonprofiled15M_quarter3</f>
-        <v>1.52</v>
+        <v>1.4569999999999999</v>
+      </c>
+      <c r="I68" s="27" t="str">
+        <f t="shared" si="21"/>
+        <v>1.457</v>
       </c>
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
@@ -9248,23 +9312,23 @@
       </c>
       <c r="V68" s="19">
         <f>V$66</f>
-        <v>4.7017500000000005</v>
+        <v>4.7642500000000005</v>
       </c>
       <c r="W68" s="19">
         <f>X68+W67</f>
-        <v>4.7015000000000011</v>
+        <v>4.7645000000000008</v>
       </c>
       <c r="X68" s="19">
         <f>V68-Y67</f>
-        <v>-2.4999999999941735E-4</v>
+        <v>2.5000000000030553E-4</v>
       </c>
       <c r="Y68" s="23">
         <f>ROUND(W68, 3)</f>
-        <v>4.702</v>
+        <v>4.7649999999999997</v>
       </c>
       <c r="Z68" s="23">
         <f>ROUND(V68,3)</f>
-        <v>4.702</v>
+        <v>4.7640000000000002</v>
       </c>
       <c r="AA68" s="27"/>
       <c r="AB68" s="2"/>
@@ -9339,7 +9403,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>800</v>
       </c>
       <c r="F69" s="31" t="s">
@@ -9350,7 +9414,11 @@
       </c>
       <c r="H69" s="32">
         <f>totalProduction1H_quarter4+totalProduction15M_quarter4+netEx_quarter4-totalFlex1H_quarter4-totalFlex15M_quarter4-totalNonprofiled1H_quarter4-totalNonprofiled15M_quarter4</f>
-        <v>1.5210000000000008</v>
+        <v>1.459000000000001</v>
+      </c>
+      <c r="I69" s="27" t="str">
+        <f t="shared" si="21"/>
+        <v>1.459</v>
       </c>
       <c r="J69" s="2"/>
       <c r="R69" s="24"/>
@@ -9361,23 +9429,23 @@
       </c>
       <c r="V69" s="19">
         <f>V$66</f>
-        <v>4.7017500000000005</v>
+        <v>4.7642500000000005</v>
       </c>
       <c r="W69" s="19">
         <f>X69+W68</f>
-        <v>4.7012500000000017</v>
+        <v>4.7637500000000017</v>
       </c>
       <c r="X69" s="19">
         <f>V69-Y68</f>
-        <v>-2.4999999999941735E-4</v>
+        <v>-7.4999999999914024E-4</v>
       </c>
       <c r="Y69" s="23">
         <f>ROUND(W69, 3)</f>
-        <v>4.7009999999999996</v>
+        <v>4.7640000000000002</v>
       </c>
       <c r="Z69" s="23">
         <f>ROUND(V69,3)</f>
-        <v>4.702</v>
+        <v>4.7640000000000002</v>
       </c>
       <c r="AA69" s="27"/>
       <c r="AB69" s="2"/>
@@ -9448,12 +9516,12 @@
     </row>
     <row r="70" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" s="2"/>
-      <c r="E70" s="48" t="s">
+      <c r="E70" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="50"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="53"/>
       <c r="R70" s="24"/>
       <c r="S70" s="24"/>
       <c r="T70" s="27"/>
@@ -9462,23 +9530,23 @@
       </c>
       <c r="V70" s="19">
         <f>V$66</f>
-        <v>4.7017500000000005</v>
+        <v>4.7642500000000005</v>
       </c>
       <c r="W70" s="19">
         <f>X70+W69</f>
-        <v>4.7020000000000026</v>
+        <v>4.764000000000002</v>
       </c>
       <c r="X70" s="19">
         <f>V70-Y69</f>
-        <v>7.500000000009166E-4</v>
+        <v>2.5000000000030553E-4</v>
       </c>
       <c r="Y70" s="23">
         <f>ROUND(W70, 3)</f>
-        <v>4.702</v>
+        <v>4.7640000000000002</v>
       </c>
       <c r="Z70" s="23">
         <f>ROUND(V70,3)</f>
-        <v>4.702</v>
+        <v>4.7640000000000002</v>
       </c>
       <c r="AA70" s="27"/>
       <c r="AB70" s="2"/>
@@ -9657,7 +9725,11 @@
       </c>
       <c r="H72" s="32">
         <f>IF(gridLoss1H_quarter4&gt;0,gridLoss1H_quarter4,0)</f>
-        <v>1.5210000000000008</v>
+        <v>1.459000000000001</v>
+      </c>
+      <c r="I72" s="27" t="str">
+        <f>SUBSTITUTE(ROUND(H72,3),",",".")</f>
+        <v>1.459</v>
       </c>
       <c r="R72" s="24"/>
       <c r="S72" s="27"/>
@@ -9741,7 +9813,7 @@
         <v>76</v>
       </c>
       <c r="E73" s="31" t="str">
-        <f t="shared" ref="E73:E75" si="16">$AD$2</f>
+        <f t="shared" ref="E73:E75" si="22">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F73" s="31" t="s">
@@ -9752,7 +9824,11 @@
       </c>
       <c r="H73" s="32">
         <f>IF(gridLoss1H_quarter3&gt;0,gridLoss1H_quarter3,0)</f>
-        <v>1.52</v>
+        <v>1.4569999999999999</v>
+      </c>
+      <c r="I73" s="27" t="str">
+        <f t="shared" ref="I73:I75" si="23">SUBSTITUTE(ROUND(H73,3),",",".")</f>
+        <v>1.457</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -9829,7 +9905,7 @@
         <v>75</v>
       </c>
       <c r="E74" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>800</v>
       </c>
       <c r="F74" s="31" t="s">
@@ -9840,9 +9916,12 @@
       </c>
       <c r="H74" s="32">
         <f>IF(gridLoss1H_quarter2&gt;0,gridLoss1H_quarter2,0)</f>
-        <v>1.5199999999999996</v>
-      </c>
-      <c r="I74" s="2"/>
+        <v>1.4579999999999997</v>
+      </c>
+      <c r="I74" s="27" t="str">
+        <f t="shared" si="23"/>
+        <v>1.458</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -9929,7 +10008,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>800</v>
       </c>
       <c r="F75" s="31" t="s">
@@ -9942,7 +10021,10 @@
         <f>IF(gridLoss1H_quarter1&gt;0,gridLoss1H_quarter1,0)</f>
         <v>0</v>
       </c>
-      <c r="I75" s="2"/>
+      <c r="I75" s="27" t="str">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
@@ -10023,12 +10105,12 @@
     </row>
     <row r="76" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" s="2"/>
-      <c r="E76" s="48" t="s">
+      <c r="E76" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="50"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="53"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -10235,6 +10317,10 @@
         <f>IF(gridLoss1H_quarter4&lt;0,gridLoss1H_quarter4*-1,0)</f>
         <v>0</v>
       </c>
+      <c r="I78" s="27" t="str">
+        <f>SUBSTITUTE(ROUND(H78,3),",",".")</f>
+        <v>0</v>
+      </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -10325,7 +10411,7 @@
         <v>76</v>
       </c>
       <c r="E79" s="31" t="str">
-        <f t="shared" ref="E79:E81" si="17">$AD$2</f>
+        <f t="shared" ref="E79:E81" si="24">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F79" s="31" t="s">
@@ -10338,7 +10424,10 @@
         <f>IF(gridLoss1H_quarter3&lt;0,gridLoss1H_quarter3*-1,0)</f>
         <v>0</v>
       </c>
-      <c r="I79" s="2"/>
+      <c r="I79" s="27" t="str">
+        <f t="shared" ref="I79:I81" si="25">SUBSTITUTE(ROUND(H79,3),",",".")</f>
+        <v>0</v>
+      </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -10429,7 +10518,7 @@
         <v>75</v>
       </c>
       <c r="E80" s="31" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>800</v>
       </c>
       <c r="F80" s="31" t="s">
@@ -10442,7 +10531,10 @@
         <f>IF(gridLoss1H_quarter2&lt;0,gridLoss1H_quarter2*-1,0)</f>
         <v>0</v>
       </c>
-      <c r="I80" s="2"/>
+      <c r="I80" s="27" t="str">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
@@ -10533,7 +10625,7 @@
         <v>74</v>
       </c>
       <c r="E81" s="31" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>800</v>
       </c>
       <c r="F81" s="31" t="s">
@@ -10544,9 +10636,12 @@
       </c>
       <c r="H81" s="32">
         <f>IF(gridLoss1H_quarter1&lt;0,(gridLoss1H_quarter1)*-1,0)</f>
-        <v>2.479000000000001</v>
-      </c>
-      <c r="I81" s="2"/>
+        <v>2.5420000000000016</v>
+      </c>
+      <c r="I81" s="27" t="str">
+        <f t="shared" si="25"/>
+        <v>2.542</v>
+      </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -10633,12 +10728,12 @@
     </row>
     <row r="82" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" s="2"/>
-      <c r="E82" s="48" t="s">
+      <c r="E82" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="50"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="53"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -10841,20 +10936,23 @@
       <c r="G84" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H84" s="32" t="str">
-        <f>SUBSTITUTE(netEx_quarter1+totalProduction1H_quarter1+totalProduction15M_quarter1+negGridLossQuarter1,",",".")</f>
-        <v>19.702</v>
-      </c>
-      <c r="I84" s="37"/>
+      <c r="H84" s="32">
+        <f>netEx_quarter1+totalProduction1H_quarter1+totalProduction15M_quarter1+negGridLossQuarter1</f>
+        <v>19.765000000000001</v>
+      </c>
+      <c r="I84" s="27" t="str">
+        <f>SUBSTITUTE(ROUND(H84,3),",",".")</f>
+        <v>19.765</v>
+      </c>
       <c r="J84" s="2"/>
       <c r="U84" s="2"/>
-      <c r="V84" s="51" t="s">
+      <c r="V84" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="W84" s="51"/>
-      <c r="X84" s="51"/>
-      <c r="Y84" s="51"/>
-      <c r="Z84" s="51"/>
+      <c r="W84" s="54"/>
+      <c r="X84" s="54"/>
+      <c r="Y84" s="54"/>
+      <c r="Z84" s="54"/>
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
@@ -10928,7 +11026,7 @@
         <v>75</v>
       </c>
       <c r="E85" s="31" t="str">
-        <f t="shared" ref="E85:E87" si="18">$AD$2</f>
+        <f t="shared" ref="E85:E87" si="26">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F85" s="31" t="s">
@@ -10937,11 +11035,14 @@
       <c r="G85" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H85" s="32" t="str">
-        <f>SUBSTITUTE(netEx_quarter2+totalProduction1H_quarter2+totalProduction15M_quarter2+negGridLossQuarter2,",",".")</f>
+      <c r="H85" s="32">
+        <f>netEx_quarter2+totalProduction1H_quarter2+totalProduction15M_quarter2+negGridLossQuarter2</f>
+        <v>6.2219999999999995</v>
+      </c>
+      <c r="I85" s="27" t="str">
+        <f t="shared" ref="I85:I87" si="27">SUBSTITUTE(ROUND(H85,3),",",".")</f>
         <v>6.222</v>
       </c>
-      <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="U85" s="2"/>
@@ -11033,7 +11134,7 @@
         <v>76</v>
       </c>
       <c r="E86" s="31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>800</v>
       </c>
       <c r="F86" s="31" t="s">
@@ -11042,11 +11143,14 @@
       <c r="G86" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H86" s="32" t="str">
-        <f>SUBSTITUTE(netEx_quarter3+totalProduction1H_quarter3+totalProduction15M_quarter3+negGridLossQuarter3,",",".")</f>
+      <c r="H86" s="32">
+        <f>netEx_quarter3+totalProduction1H_quarter3+totalProduction15M_quarter3+negGridLossQuarter3</f>
+        <v>6.2210000000000001</v>
+      </c>
+      <c r="I86" s="27" t="str">
+        <f t="shared" si="27"/>
         <v>6.221</v>
       </c>
-      <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="R86" s="37"/>
       <c r="S86" s="2"/>
@@ -11067,7 +11171,7 @@
       </c>
       <c r="Y86" s="16"/>
       <c r="Z86" s="16">
-        <f t="shared" ref="Z86:Z109" si="19">ROUND(X86, 3)</f>
+        <f t="shared" ref="Z86:Z109" si="28">ROUND(X86, 3)</f>
         <v>0</v>
       </c>
       <c r="AA86" s="2"/>
@@ -11143,7 +11247,7 @@
         <v>77</v>
       </c>
       <c r="E87" s="31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>800</v>
       </c>
       <c r="F87" s="34" t="s">
@@ -11152,11 +11256,14 @@
       <c r="G87" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H87" s="32" t="str">
-        <f>SUBSTITUTE(netEx_quarter4+totalProduction1H_quarter4+totalProduction15M_quarter4+negGridLossQuarter4,",",".")</f>
+      <c r="H87" s="32">
+        <f>netEx_quarter4+totalProduction1H_quarter4+totalProduction15M_quarter4+negGridLossQuarter4</f>
+        <v>6.2230000000000008</v>
+      </c>
+      <c r="I87" s="27" t="str">
+        <f t="shared" si="27"/>
         <v>6.223</v>
       </c>
-      <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
@@ -11180,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA87" s="2"/>
@@ -11252,13 +11359,13 @@
     </row>
     <row r="88" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" s="2"/>
-      <c r="E88" s="48" t="s">
+      <c r="E88" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="49"/>
-      <c r="I88" s="50"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="53"/>
       <c r="J88" s="2"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
@@ -11282,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA88" s="2"/>
@@ -11395,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA89" s="2"/>
@@ -11471,7 +11578,7 @@
         <v>74</v>
       </c>
       <c r="E90" s="31" t="str">
-        <f t="shared" ref="E90:E113" si="20">IF(AND(ROW()&lt;86+(COUNTA(AH$2:AH$21)*4),ROW()&gt;89),$AH$2,"")</f>
+        <f t="shared" ref="E90:E113" si="29">IF(AND(ROW()&lt;86+(COUNTA(AH$2:AH$21)*4),ROW()&gt;89),$AH$2,"")</f>
         <v>800</v>
       </c>
       <c r="F90" s="31" t="str">
@@ -11482,15 +11589,18 @@
         <f>IF(E90&lt;&gt;"","null","")</f>
         <v>null</v>
       </c>
-      <c r="H90" s="32" t="str">
-        <f t="shared" ref="H90:H112" ca="1" si="21">SUBSTITUTE(IF(E90="","",V86+Z86),",",".")</f>
+      <c r="H90" s="32">
+        <f ca="1">IF(E90="","",V86+Z86)</f>
         <v>10</v>
       </c>
       <c r="I90" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I90" ca="1">IF(E90="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>801</v>
       </c>
-      <c r="J90" s="2"/>
+      <c r="J90" s="27" t="str">
+        <f ca="1">IFERROR(SUBSTITUTE(ROUND(H90,3),",","."),"")</f>
+        <v>10</v>
+      </c>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="U90" s="15" t="s">
@@ -11510,7 +11620,7 @@
       </c>
       <c r="Y90" s="16"/>
       <c r="Z90" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>5.0010000000000003</v>
       </c>
       <c r="AA90" s="2"/>
@@ -11586,26 +11696,29 @@
         <v>75</v>
       </c>
       <c r="E91" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>800</v>
       </c>
       <c r="F91" s="31" t="str">
-        <f t="shared" ref="F91:F113" si="22">IF(E91&lt;&gt;"","null","")</f>
+        <f t="shared" ref="F91:F113" si="30">IF(E91&lt;&gt;"","null","")</f>
         <v>null</v>
       </c>
       <c r="G91" s="31" t="str">
-        <f t="shared" ref="G91:G113" si="23">IF(E91&lt;&gt;"","null","")</f>
+        <f t="shared" ref="G91:G113" si="31">IF(E91&lt;&gt;"","null","")</f>
         <v>null</v>
       </c>
-      <c r="H91" s="32" t="str">
-        <f t="shared" ca="1" si="21"/>
+      <c r="H91" s="32">
+        <f t="shared" ref="H91:H113" ca="1" si="32">IF(E91="","",V87+Z87)</f>
         <v>0</v>
       </c>
       <c r="I91" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I91" ca="1">IF(E91="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>801</v>
       </c>
-      <c r="J91" s="2"/>
+      <c r="J91" s="27" t="str">
+        <f t="shared" ref="J91:J113" ca="1" si="33">IFERROR(SUBSTITUTE(ROUND(H91,3),",","."),"")</f>
+        <v>0</v>
+      </c>
       <c r="R91" s="2"/>
       <c r="U91" s="15" t="s">
         <v>75</v>
@@ -11627,7 +11740,7 @@
         <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Z91" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>5.0010000000000003</v>
       </c>
       <c r="AA91" s="2"/>
@@ -11703,26 +11816,29 @@
         <v>76</v>
       </c>
       <c r="E92" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>800</v>
       </c>
       <c r="F92" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>null</v>
       </c>
       <c r="G92" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>null</v>
       </c>
-      <c r="H92" s="32" t="str">
-        <f t="shared" ca="1" si="21"/>
+      <c r="H92" s="32">
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="I92" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I92" ca="1">IF(E92="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>801</v>
       </c>
-      <c r="J92" s="2"/>
+      <c r="J92" s="27" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
+      </c>
       <c r="U92" s="15" t="s">
         <v>76</v>
       </c>
@@ -11743,7 +11859,7 @@
         <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Z92" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="AA92" s="2"/>
@@ -11819,26 +11935,29 @@
         <v>77</v>
       </c>
       <c r="E93" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>800</v>
       </c>
       <c r="F93" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>null</v>
       </c>
       <c r="G93" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>null</v>
       </c>
-      <c r="H93" s="32" t="str">
-        <f t="shared" ca="1" si="21"/>
+      <c r="H93" s="32">
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="I93" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I93" ca="1">IF(E93="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>801</v>
       </c>
-      <c r="J93" s="2"/>
+      <c r="J93" s="27" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
+      </c>
       <c r="U93" s="15" t="s">
         <v>77</v>
       </c>
@@ -11859,7 +11978,7 @@
         <v>7.5000000000002842E-4</v>
       </c>
       <c r="Z93" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>5.0010000000000003</v>
       </c>
       <c r="AA93" s="2"/>
@@ -11935,26 +12054,29 @@
         <v>74</v>
       </c>
       <c r="E94" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>800</v>
       </c>
       <c r="F94" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>null</v>
       </c>
       <c r="G94" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>null</v>
       </c>
-      <c r="H94" s="32" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>5.001</v>
+      <c r="H94" s="32">
+        <f t="shared" ca="1" si="32"/>
+        <v>5.0010000000000003</v>
       </c>
       <c r="I94" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I94" ca="1">IF(E94="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>802</v>
       </c>
-      <c r="J94" s="2"/>
+      <c r="J94" s="27" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>5.001</v>
+      </c>
       <c r="U94" s="15" t="s">
         <v>74</v>
       </c>
@@ -11972,7 +12094,7 @@
       </c>
       <c r="Y94" s="16"/>
       <c r="Z94" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA94" s="2"/>
@@ -12048,26 +12170,29 @@
         <v>75</v>
       </c>
       <c r="E95" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>800</v>
       </c>
       <c r="F95" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>null</v>
       </c>
       <c r="G95" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>null</v>
       </c>
-      <c r="H95" s="32" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>5.001</v>
+      <c r="H95" s="32">
+        <f t="shared" ca="1" si="32"/>
+        <v>5.0010000000000003</v>
       </c>
       <c r="I95" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I95" ca="1">IF(E95="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>802</v>
       </c>
-      <c r="J95" s="2"/>
+      <c r="J95" s="27" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>5.001</v>
+      </c>
       <c r="U95" s="15" t="s">
         <v>75</v>
       </c>
@@ -12088,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="Z95" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA95" s="2"/>
@@ -12164,26 +12289,29 @@
         <v>76</v>
       </c>
       <c r="E96" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>800</v>
       </c>
       <c r="F96" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>null</v>
       </c>
       <c r="G96" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>null</v>
       </c>
-      <c r="H96" s="32" t="str">
-        <f t="shared" ca="1" si="21"/>
+      <c r="H96" s="32">
+        <f t="shared" ca="1" si="32"/>
         <v>5</v>
       </c>
       <c r="I96" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I96" ca="1">IF(E96="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>802</v>
       </c>
-      <c r="J96" s="2"/>
+      <c r="J96" s="27" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>5</v>
+      </c>
       <c r="U96" s="15" t="s">
         <v>76</v>
       </c>
@@ -12204,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA96" s="2"/>
@@ -12280,26 +12408,29 @@
         <v>77</v>
       </c>
       <c r="E97" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>800</v>
       </c>
       <c r="F97" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>null</v>
       </c>
       <c r="G97" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>null</v>
       </c>
-      <c r="H97" s="32" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>5.001</v>
+      <c r="H97" s="32">
+        <f t="shared" ca="1" si="32"/>
+        <v>5.0010000000000003</v>
       </c>
       <c r="I97" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I97" ca="1">IF(E97="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>802</v>
       </c>
-      <c r="J97" s="2"/>
+      <c r="J97" s="27" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>5.001</v>
+      </c>
       <c r="U97" s="15" t="s">
         <v>77</v>
       </c>
@@ -12320,7 +12451,7 @@
         <v>0</v>
       </c>
       <c r="Z97" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA97" s="2"/>
@@ -12396,26 +12527,29 @@
         <v>74</v>
       </c>
       <c r="E98" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>800</v>
       </c>
       <c r="F98" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>null</v>
       </c>
       <c r="G98" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>null</v>
       </c>
-      <c r="H98" s="32" t="str">
-        <f t="shared" ca="1" si="21"/>
+      <c r="H98" s="32">
+        <f t="shared" ca="1" si="32"/>
         <v>-5</v>
       </c>
       <c r="I98" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I98" ca="1">IF(E98="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>803</v>
       </c>
-      <c r="J98" s="2"/>
+      <c r="J98" s="27" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>-5</v>
+      </c>
       <c r="U98" s="15" t="s">
         <v>74</v>
       </c>
@@ -12433,7 +12567,7 @@
       </c>
       <c r="Y98" s="16"/>
       <c r="Z98" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>-0.27900000000000003</v>
       </c>
       <c r="AA98" s="2"/>
@@ -12509,26 +12643,29 @@
         <v>75</v>
       </c>
       <c r="E99" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>800</v>
       </c>
       <c r="F99" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>null</v>
       </c>
       <c r="G99" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>null</v>
       </c>
-      <c r="H99" s="32" t="str">
-        <f t="shared" ca="1" si="21"/>
+      <c r="H99" s="32">
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="I99" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I99" ca="1">IF(E99="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>803</v>
       </c>
-      <c r="J99" s="2"/>
+      <c r="J99" s="27" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
+      </c>
       <c r="U99" s="15" t="s">
         <v>75</v>
       </c>
@@ -12549,7 +12686,7 @@
         <v>-2.4999999999997247E-4</v>
       </c>
       <c r="Z99" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>-0.28000000000000003</v>
       </c>
       <c r="AA99" s="2"/>
@@ -12625,26 +12762,29 @@
         <v>76</v>
       </c>
       <c r="E100" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>800</v>
       </c>
       <c r="F100" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>null</v>
       </c>
       <c r="G100" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>null</v>
       </c>
-      <c r="H100" s="32" t="str">
-        <f t="shared" ca="1" si="21"/>
+      <c r="H100" s="32">
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="I100" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I100" ca="1">IF(E100="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>803</v>
       </c>
-      <c r="J100" s="2"/>
+      <c r="J100" s="27" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
+      </c>
       <c r="U100" s="15" t="s">
         <v>76</v>
       </c>
@@ -12665,7 +12805,7 @@
         <v>7.5000000000002842E-4</v>
       </c>
       <c r="Z100" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>-0.27900000000000003</v>
       </c>
       <c r="AA100" s="2"/>
@@ -12741,26 +12881,29 @@
         <v>77</v>
       </c>
       <c r="E101" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>800</v>
       </c>
       <c r="F101" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>null</v>
       </c>
       <c r="G101" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>null</v>
       </c>
-      <c r="H101" s="32" t="str">
-        <f t="shared" ca="1" si="21"/>
+      <c r="H101" s="32">
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="I101" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I101" ca="1">IF(E101="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>803</v>
       </c>
-      <c r="J101" s="2"/>
+      <c r="J101" s="27" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
+      </c>
       <c r="U101" s="15" t="s">
         <v>77</v>
       </c>
@@ -12781,7 +12924,7 @@
         <v>-2.4999999999997247E-4</v>
       </c>
       <c r="Z101" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>-0.27900000000000003</v>
       </c>
       <c r="AA101" s="2"/>
@@ -12857,26 +13000,29 @@
         <v>74</v>
       </c>
       <c r="E102" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>800</v>
       </c>
       <c r="F102" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>null</v>
       </c>
       <c r="G102" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>null</v>
       </c>
-      <c r="H102" s="32" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>-0.279</v>
+      <c r="H102" s="32">
+        <f t="shared" ca="1" si="32"/>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="I102" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I102" ca="1">IF(E102="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>804</v>
       </c>
-      <c r="J102" s="2"/>
+      <c r="J102" s="27" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>-0.279</v>
+      </c>
       <c r="U102" s="15" t="s">
         <v>74</v>
       </c>
@@ -12894,7 +13040,7 @@
       </c>
       <c r="Y102" s="16"/>
       <c r="Z102" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA102" s="2"/>
@@ -12970,26 +13116,29 @@
         <v>75</v>
       </c>
       <c r="E103" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>800</v>
       </c>
       <c r="F103" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>null</v>
       </c>
       <c r="G103" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>null</v>
       </c>
-      <c r="H103" s="32" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>-0.28</v>
+      <c r="H103" s="32">
+        <f t="shared" ca="1" si="32"/>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I103" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I103" ca="1">IF(E103="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>804</v>
       </c>
-      <c r="J103" s="2"/>
+      <c r="J103" s="27" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>-0.28</v>
+      </c>
       <c r="U103" s="15" t="s">
         <v>75</v>
       </c>
@@ -13010,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="Z103" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA103" s="2"/>
@@ -13086,26 +13235,29 @@
         <v>76</v>
       </c>
       <c r="E104" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>800</v>
       </c>
       <c r="F104" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>null</v>
       </c>
       <c r="G104" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>null</v>
       </c>
-      <c r="H104" s="32" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>-0.279</v>
+      <c r="H104" s="32">
+        <f t="shared" ca="1" si="32"/>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="I104" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I104" ca="1">IF(E104="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>804</v>
       </c>
-      <c r="J104" s="2"/>
+      <c r="J104" s="27" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>-0.279</v>
+      </c>
       <c r="U104" s="15" t="s">
         <v>76</v>
       </c>
@@ -13126,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="Z104" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA104" s="2"/>
@@ -13202,26 +13354,29 @@
         <v>77</v>
       </c>
       <c r="E105" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>800</v>
       </c>
       <c r="F105" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>null</v>
       </c>
       <c r="G105" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>null</v>
       </c>
-      <c r="H105" s="32" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>-0.279</v>
+      <c r="H105" s="32">
+        <f t="shared" ca="1" si="32"/>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="I105" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I105" ca="1">IF(E105="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>804</v>
       </c>
-      <c r="J105" s="2"/>
+      <c r="J105" s="27" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>-0.279</v>
+      </c>
       <c r="U105" s="15" t="s">
         <v>77</v>
       </c>
@@ -13242,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="Z105" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA105" s="2"/>
@@ -13318,26 +13473,29 @@
         <v>74</v>
       </c>
       <c r="E106" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F106" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G106" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H106" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I106" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I106" ca="1">IF(E106="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
-      <c r="J106" s="2"/>
+      <c r="J106" s="27" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="U106" s="15" t="s">
         <v>74</v>
       </c>
@@ -13355,7 +13513,7 @@
       </c>
       <c r="Y106" s="16"/>
       <c r="Z106" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA106" s="2"/>
@@ -13431,26 +13589,29 @@
         <v>75</v>
       </c>
       <c r="E107" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F107" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G107" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H107" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I107" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I107" ca="1">IF(E107="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
-      <c r="J107" s="2"/>
+      <c r="J107" s="27" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="U107" s="15" t="s">
         <v>75</v>
       </c>
@@ -13471,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="Z107" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA107" s="2"/>
@@ -13547,26 +13708,29 @@
         <v>76</v>
       </c>
       <c r="E108" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F108" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G108" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H108" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I108" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I108" ca="1">IF(E108="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
-      <c r="J108" s="2"/>
+      <c r="J108" s="27" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="U108" s="15" t="s">
         <v>76</v>
       </c>
@@ -13587,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="Z108" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA108" s="2"/>
@@ -13663,26 +13827,29 @@
         <v>77</v>
       </c>
       <c r="E109" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F109" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G109" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H109" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I109" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I109" ca="1">IF(E109="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
-      <c r="J109" s="2"/>
+      <c r="J109" s="27" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="U109" s="15" t="s">
         <v>77</v>
       </c>
@@ -13703,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="Z109" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA109" s="2"/>
@@ -13779,26 +13946,29 @@
         <v>74</v>
       </c>
       <c r="E110" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F110" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G110" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H110" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I110" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I110" ca="1">IF(E110="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
-      <c r="J110" s="2"/>
+      <c r="J110" s="27" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
@@ -13888,26 +14058,29 @@
         <v>75</v>
       </c>
       <c r="E111" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F111" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G111" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H111" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I111" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I111" ca="1">IF(E111="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
-      <c r="J111" s="2"/>
+      <c r="J111" s="27" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
@@ -13997,26 +14170,29 @@
         <v>76</v>
       </c>
       <c r="E112" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F112" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G112" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H112" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I112" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I112" ca="1">IF(E112="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
-      <c r="J112" s="2"/>
+      <c r="J112" s="27" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -14106,26 +14282,29 @@
         <v>77</v>
       </c>
       <c r="E113" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F113" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G113" s="31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H113" s="32" t="str">
-        <f>SUBSTITUTE(IF(E113="","",V109+Z109),",",".")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I113" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I113" ca="1">IF(E113="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
-      <c r="J113" s="2"/>
+      <c r="J113" s="27" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -40679,30 +40858,14 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010083C51B3A6863BB4086AAB9D84DF721A3" ma:contentTypeVersion="9" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="9d92303bd8f83ad3ed572bd327ba273d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="17d0a144-7218-432a-80c1-1473a2ac0f84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e272e23039cec0e41a69c8e3deb1ff81" ns3:_="">
     <xsd:import namespace="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
@@ -40878,31 +41041,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEE2584E-1495-47FC-B560-4437F91C3A10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40918,4 +41074,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/source/databricks/calculation_engine/tests/features/given_an_energy_calculation/when_minimal_standard_scenario/Oracle - minimal standard calculation.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_an_energy_calculation/when_minimal_standard_scenario/Oracle - minimal standard calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://endkdk-my.sharepoint.com/personal/xclpe_endk_dk/Documents/Desktop/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energinet\Desktop\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A964E703-856F-4C13-9E75-B037FEF3E0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ECBE4B4-3267-40FC-BB4F-D949972F2E05}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781576C4-CB8E-48BE-881B-2D37F287B29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour1" sheetId="11" r:id="rId1"/>
@@ -29,24 +29,6 @@
     <definedName name="netEx_quarter2" localSheetId="0">Hour1!$H$49</definedName>
     <definedName name="netEx_quarter3" localSheetId="0">Hour1!$H$50</definedName>
     <definedName name="netEx_quarter4" localSheetId="0">Hour1!$H$51</definedName>
-    <definedName name="powerIn15M" localSheetId="0">Hour1!$T$6</definedName>
-    <definedName name="powerIn15M_quarter1" localSheetId="0">Hour1!$U$6</definedName>
-    <definedName name="powerIn15M_quarter2" localSheetId="0">Hour1!$V$6</definedName>
-    <definedName name="powerIn15M_quarter3" localSheetId="0">Hour1!$W$6</definedName>
-    <definedName name="powerIn15M_quarter4" localSheetId="0">Hour1!$X$6</definedName>
-    <definedName name="powerIn1H_quarter1" localSheetId="0">Hour1!$Y$55</definedName>
-    <definedName name="powerIn1H_quarter2" localSheetId="0">Hour1!$Y$56</definedName>
-    <definedName name="powerIn1H_quarter3" localSheetId="0">Hour1!$Y$57</definedName>
-    <definedName name="powerIn1H_quarter4" localSheetId="0">Hour1!$Y$58</definedName>
-    <definedName name="powerOut15M" localSheetId="0">Hour1!$T$7</definedName>
-    <definedName name="powerOut15M_quarter1" localSheetId="0">Hour1!$U$7</definedName>
-    <definedName name="powerOut15M_quarter2" localSheetId="0">Hour1!$V$7</definedName>
-    <definedName name="powerOut15M_quarter3" localSheetId="0">Hour1!$W$7</definedName>
-    <definedName name="powerOut15M_quarter4" localSheetId="0">Hour1!$X$7</definedName>
-    <definedName name="powerOut1H_quarter1" localSheetId="0">Hour1!$Y$61</definedName>
-    <definedName name="powerOut1H_quarter2" localSheetId="0">Hour1!$Y$62</definedName>
-    <definedName name="powerOut1H_quarter3" localSheetId="0">Hour1!$Y$63</definedName>
-    <definedName name="powerOut1H_quarter4" localSheetId="0">Hour1!$Y$64</definedName>
     <definedName name="totalConsumption_quarter1" localSheetId="0">Hour1!$Y$67</definedName>
     <definedName name="totalConsumption_quarter2" localSheetId="0">Hour1!$Y$68</definedName>
     <definedName name="totalConsumption_quarter3" localSheetId="0">Hour1!$Y$69</definedName>
@@ -101,7 +83,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -123,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="126">
   <si>
     <t>energy_supplier_id</t>
   </si>
@@ -218,9 +200,6 @@
     <t>el ind i ga (1H målepunkter)</t>
   </si>
   <si>
-    <t>el ind i ga (15M målepunkter)</t>
-  </si>
-  <si>
     <t>el ud af ga (1H målepunkter)</t>
   </si>
   <si>
@@ -249,9 +228,6 @@
   </si>
   <si>
     <t>negative_grid_loss</t>
-  </si>
-  <si>
-    <t>el ud af ga (15M målepunkter)</t>
   </si>
   <si>
     <t>Total flex consumtion 1H / 4</t>
@@ -392,9 +368,6 @@
     <t>ga_brp_es</t>
   </si>
   <si>
-    <t>170000000000001000</t>
-  </si>
-  <si>
     <t>E17</t>
   </si>
   <si>
@@ -414,9 +387,6 @@
   </si>
   <si>
     <t>glmp</t>
-  </si>
-  <si>
-    <t>180000000000001000</t>
   </si>
   <si>
     <t>E18</t>
@@ -497,16 +467,22 @@
     <t>2000000000000</t>
   </si>
   <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
     <t>200000001500000001</t>
   </si>
   <si>
     <t>200000001500000003</t>
   </si>
   <si>
-    <t>801</t>
+    <t>170000000000001000</t>
   </si>
   <si>
-    <t>803</t>
+    <t>180000000000001000</t>
   </si>
 </sst>
 </file>
@@ -875,7 +851,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1128,26 +1118,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11FA3D7A-CA3E-4B36-A043-675A39B6ADD4}" name="TableDay1" displayName="TableDay1" ref="C1:Q19" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11FA3D7A-CA3E-4B36-A043-675A39B6ADD4}" name="TableDay1" displayName="TableDay1" ref="C1:Q19" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="C1:Q19" xr:uid="{3814BBFA-A2E3-4A77-AAB1-6B1FF8D878B1}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{2B69152A-55A7-4D2B-873F-7F3FB6F402A7}" name="mp id" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{DA52C48F-158B-4538-B6A3-FC8044FE7DD3}" name="type" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{EF0BDE38-1365-4FBC-9631-C5B606CA358B}" name="settlement_method" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{B562A6FB-BEDA-4307-A449-0F2082B19BCA}" name="Quarter1" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{6DA11D4D-F616-4050-A443-FB1A76B379F3}" name="Quarter2" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{E2415720-F246-4A24-8E0D-1B0204263A5A}" name="Quarter3" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{0EC1FA3B-BAAC-4F35-AAF5-67E6FD19CA93}" name="Quarter4" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{5C23752B-DBE4-4FE9-BFE7-AC41B91886E5}" name="TotalHour" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{2B69152A-55A7-4D2B-873F-7F3FB6F402A7}" name="mp id" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{DA52C48F-158B-4538-B6A3-FC8044FE7DD3}" name="type" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{EF0BDE38-1365-4FBC-9631-C5B606CA358B}" name="settlement_method" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{B562A6FB-BEDA-4307-A449-0F2082B19BCA}" name="Quarter1" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{6DA11D4D-F616-4050-A443-FB1A76B379F3}" name="Quarter2" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{E2415720-F246-4A24-8E0D-1B0204263A5A}" name="Quarter3" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{0EC1FA3B-BAAC-4F35-AAF5-67E6FD19CA93}" name="Quarter4" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{5C23752B-DBE4-4FE9-BFE7-AC41B91886E5}" name="TotalHour" dataDxfId="17">
       <calculatedColumnFormula>IF(C2="","",SUM(F2:I2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CD5BB13E-3854-4BA0-A8C2-7EB0351AE2FA}" name="resolution" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{900BB657-25A0-4ECA-8FE6-633F1CAE8BD7}" name="es_id" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{39625D12-7EE0-4C8F-8893-3E5902A7D039}" name="brp_id" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{4035FFB8-60AE-4E2D-9CA8-C736A1B70CC6}" name="note" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{F90F79EC-44B2-4BC6-8C23-82D64320CBD5}" name="ga_id" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{CD53BB86-08E7-49A0-BC6E-CFD857B5FCB7}" name="from_ga" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{75786D4A-9554-4C5E-B036-485331D1BE7F}" name="to_ga" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{CD5BB13E-3854-4BA0-A8C2-7EB0351AE2FA}" name="resolution" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{900BB657-25A0-4ECA-8FE6-633F1CAE8BD7}" name="es_id" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{39625D12-7EE0-4C8F-8893-3E5902A7D039}" name="brp_id" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{4035FFB8-60AE-4E2D-9CA8-C736A1B70CC6}" name="note" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{F90F79EC-44B2-4BC6-8C23-82D64320CBD5}" name="ga_id" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{CD53BB86-08E7-49A0-BC6E-CFD857B5FCB7}" name="from_ga" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{75786D4A-9554-4C5E-B036-485331D1BE7F}" name="to_ga" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1455,51 +1445,51 @@
   </sheetPr>
   <dimension ref="A1:CN400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="24.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1796875" style="1" customWidth="1"/>
-    <col min="16" max="17" width="11.7265625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="1.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="40" width="8.7265625" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="40" width="8.7109375" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:92" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>7</v>
@@ -1511,19 +1501,19 @@
         <v>12</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="J1" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>8</v>
@@ -1541,22 +1531,22 @@
         <v>18</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="AA1" s="24"/>
       <c r="AC1" s="24"/>
@@ -1570,26 +1560,26 @@
         <v>17</v>
       </c>
       <c r="AG1" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AH1" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AI1" s="30"/>
       <c r="AJ1" s="24"/>
     </row>
-    <row r="2" spans="1:92" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:92" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="12">
@@ -1603,23 +1593,23 @@
         <v>10</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R2" s="24"/>
       <c r="S2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T2" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT15M")</f>
@@ -1661,19 +1651,18 @@
         <f>IF(B$2="production","E18",IF($B$2="flex_consumption","D01","E02"))</f>
         <v>D01</v>
       </c>
-      <c r="AH2" s="27" t="str" cm="1">
-        <f t="array" ref="AH2:AH6">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn.VSTACK(_xlfn._xlws.FILTER(TableDay1[from_ga],TableDay1[from_ga] &lt;&gt; ""),_xlfn._xlws.FILTER(TableDay1[to_ga],TableDay1[to_ga] &lt;&gt; ""))))</f>
-        <v>800</v>
-      </c>
+      <c r="AH2" s="27"/>
       <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12">
@@ -1687,23 +1676,23 @@
         <v>20.003</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R3" s="24"/>
       <c r="S3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T3" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
@@ -1739,44 +1728,54 @@
         <v>2200000000000</v>
       </c>
       <c r="AG3" s="24"/>
-      <c r="AH3" s="24" t="str">
+      <c r="AH3" s="27" t="str" cm="1">
+        <f t="array" ref="AH3:AH6">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),""))&lt;&gt;""))</f>
         <v>801</v>
       </c>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
+      <c r="AI3" s="2" t="str" cm="1">
+        <f t="array" ref="AI3:AI6">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),""))&lt;&gt;""))</f>
+        <v>801</v>
+      </c>
+      <c r="AJ3" s="27" t="str" cm="1">
+        <f t="array" ref="AJ3:AK5">_xlfn._xlws.SORT(AH3:AI5,1)</f>
+        <v>801</v>
+      </c>
+      <c r="AK3" s="1" t="str">
+        <v>801</v>
+      </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12">
         <v>5</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P4" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R4" s="24"/>
       <c r="S4" s="7" t="s">
@@ -1817,15 +1816,22 @@
       <c r="AH4" s="24" t="str">
         <v>802</v>
       </c>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
+      <c r="AI4" s="24" t="str">
+        <v>802</v>
+      </c>
+      <c r="AJ4" s="24" t="str">
+        <v>802</v>
+      </c>
+      <c r="AK4" s="1" t="str">
+        <v>802</v>
+      </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12">
@@ -1839,19 +1845,19 @@
         <v>1.117</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="7" t="s">
@@ -1888,18 +1894,25 @@
       <c r="AH5" s="24" t="str">
         <v>803</v>
       </c>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
+      <c r="AI5" s="24" t="str">
+        <v>803</v>
+      </c>
+      <c r="AJ5" s="24" t="str">
+        <v>803</v>
+      </c>
+      <c r="AK5" s="1" t="str">
+        <v>803</v>
+      </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F6" s="12">
         <v>5</v>
@@ -1912,44 +1925,27 @@
         <v>5</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
       <c r="R6" s="24"/>
-      <c r="S6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="9">
-        <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>10</v>
-      </c>
-      <c r="U6" s="42">
-        <f>SUMIFS(TableDay1[Quarter1],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>10</v>
-      </c>
-      <c r="V6" s="42">
-        <f>SUMIFS(TableDay1[Quarter2],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="42">
-        <f>SUMIFS(TableDay1[Quarter3],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="42">
-        <f>SUMIFS(TableDay1[Quarter4],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>0</v>
-      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
       <c r="AA6" s="24"/>
@@ -1961,18 +1957,20 @@
       <c r="AH6" s="24" t="str">
         <v>804</v>
       </c>
-      <c r="AI6" s="24"/>
+      <c r="AI6" s="24" t="str">
+        <v>804</v>
+      </c>
       <c r="AJ6" s="24"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F7" s="12">
         <v>8</v>
@@ -1985,44 +1983,27 @@
         <v>8</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
       <c r="R7" s="24"/>
-      <c r="S7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" s="9">
-        <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[from_ga],"800")</f>
-        <v>5</v>
-      </c>
-      <c r="U7" s="42">
-        <f>SUMIFS(TableDay1[Quarter1],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[from_ga],"800")</f>
-        <v>5</v>
-      </c>
-      <c r="V7" s="42">
-        <f>SUMIFS(TableDay1[Quarter2],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[from_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="42">
-        <f>SUMIFS(TableDay1[Quarter3],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[from_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="42">
-        <f>SUMIFS(TableDay1[Quarter4],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[from_ga],"800")</f>
-        <v>0</v>
-      </c>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
       <c r="Y7" s="24"/>
       <c r="Z7" s="24"/>
       <c r="AA7" s="24"/>
@@ -2035,15 +2016,15 @@
       <c r="AI7" s="24"/>
       <c r="AJ7" s="24"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F8" s="12">
         <v>0.80700000000000005</v>
@@ -2056,17 +2037,17 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
@@ -2089,15 +2070,15 @@
       <c r="AI8" s="24"/>
       <c r="AJ8" s="24"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C9" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F9" s="12">
         <v>10</v>
@@ -2110,17 +2091,17 @@
         <v>10</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
@@ -2133,16 +2114,16 @@
         <v>9</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Z9" s="27"/>
       <c r="AA9" s="24"/>
@@ -2155,15 +2136,15 @@
       <c r="AI9" s="24"/>
       <c r="AJ9" s="24"/>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F10" s="12">
         <v>10</v>
@@ -2176,22 +2157,22 @@
         <v>10</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
       <c r="R10" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S10" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U10,TableDay1[es_id],0)),"")</f>
@@ -2229,15 +2210,15 @@
       <c r="AI10" s="24"/>
       <c r="AJ10" s="24"/>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F11" s="12">
         <v>0.25</v>
@@ -2250,22 +2231,22 @@
         <v>0.25</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P11" s="29"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S11" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U11,TableDay1[es_id],0)),"")</f>
@@ -2306,12 +2287,12 @@
       <c r="AI11" s="24"/>
       <c r="AJ11" s="24"/>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="12">
@@ -2325,22 +2306,22 @@
         <v>6</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S12" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U12,TableDay1[es_id],0)),"")</f>
@@ -2375,22 +2356,22 @@
       <c r="AC12" s="27"/>
       <c r="AD12" s="36"/>
       <c r="AE12" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF12" s="36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AG12" s="36"/>
       <c r="AH12" s="35"/>
       <c r="AI12" s="24"/>
       <c r="AJ12" s="24"/>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="12">
@@ -2404,22 +2385,22 @@
         <v>4</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
       <c r="R13" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S13" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U13,TableDay1[es_id],0)),"")</f>
@@ -2464,12 +2445,12 @@
       <c r="AG13" s="36"/>
       <c r="AH13" s="35"/>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="12">
@@ -2483,22 +2464,22 @@
         <v>2.0030000000000001</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
       <c r="R14" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S14" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U14,TableDay1[es_id],0)),"")</f>
@@ -2597,15 +2578,15 @@
       <c r="CM14" s="2"/>
       <c r="CN14" s="2"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2616,24 +2597,24 @@
         <v>0</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="M15" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="O15" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S15" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U15,TableDay1[es_id],0)),"")</f>
@@ -2733,15 +2714,15 @@
       <c r="CM15" s="2"/>
       <c r="CN15" s="2"/>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -2752,24 +2733,24 @@
         <v>0</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S16" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U16,TableDay1[es_id],0)),"")</f>
@@ -2867,7 +2848,7 @@
       <c r="CM16" s="2"/>
       <c r="CN16" s="2"/>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
@@ -2887,7 +2868,7 @@
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S17" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U17,TableDay1[es_id],0)),"")</f>
@@ -2985,7 +2966,7 @@
       <c r="CM17" s="2"/>
       <c r="CN17" s="2"/>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
@@ -3005,7 +2986,7 @@
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S18" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U18,TableDay1[es_id],0)),"")</f>
@@ -3100,7 +3081,7 @@
       <c r="CM18" s="2"/>
       <c r="CN18" s="2"/>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
@@ -3120,7 +3101,7 @@
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
       <c r="R19" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S19" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U19,TableDay1[es_id],0)),"")</f>
@@ -3218,7 +3199,7 @@
       <c r="CM19" s="2"/>
       <c r="CN19" s="2"/>
     </row>
-    <row r="20" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E20" s="47" t="str">
         <f>CONCATENATE(B2,"_per_",B1)</f>
         <v>flex_consumption_per_ga_brp_es</v>
@@ -3232,7 +3213,7 @@
       <c r="J20" s="49"/>
       <c r="K20" s="50"/>
       <c r="R20" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S20" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U20,TableDay1[es_id],0)),"")</f>
@@ -3330,7 +3311,7 @@
       <c r="CM20" s="2"/>
       <c r="CN20" s="2"/>
     </row>
-    <row r="21" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3359,7 +3340,7 @@
         <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3368,7 +3349,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S21" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U21,TableDay1[es_id],0)),"")</f>
@@ -3466,7 +3447,7 @@
       <c r="CM21" s="2"/>
       <c r="CN21" s="2"/>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="16" t="str">
         <f>IF(AND(F22&lt;&gt;"null",F22&lt;&gt;""),IF(F22=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G22&lt;&gt;"null",G22&lt;&gt;""),IF(G22=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E22=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
@@ -3477,7 +3458,7 @@
         <v/>
       </c>
       <c r="D22" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" s="31" t="str">
         <f>IF(B$1="ga",IF(AND(ROW()&gt;21,ROW()&lt;26),$AD$2,""),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AND(ROW()&lt;22+(COUNTA(AE$2:AE$11)*4),ROW()&gt;21),$AD$2,""),IF(B$1="ga_brp",IF(AND(ROW()&lt;22+(COUNTA(AF$2:AF$11)*4),ROW()&gt;21),$AD$2,""))))</f>
@@ -3492,7 +3473,7 @@
         <v>1100000000000</v>
       </c>
       <c r="H22" s="33" t="str">
-        <f t="shared" ref="H22:H45" ca="1" si="5">SUBSTITUTE(IF(E22="","",I22+J22+K22),",",".")</f>
+        <f ca="1">IF(E22="","",SUBSTITUTE(ROUND(I22+J22+K22,3),",","."))</f>
         <v>10</v>
       </c>
       <c r="I22" s="9">
@@ -3504,7 +3485,7 @@
         <v>10</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" ref="K22:K45" si="6">IF(AND(C22="skmp",B$2="production"),VLOOKUP(D22,D$78:H$81,5,FALSE),IF(AND(B22="glmp",B$2="flex_consumption"),VLOOKUP(D22,D$72:H$75,5,FALSE),0))</f>
+        <f t="shared" ref="K22:K45" ca="1" si="5">IF(AND(C22="skmp",B$2="production"),VLOOKUP(D22,D$78:H$81,5,FALSE),IF(AND(B22="glmp",B$2="flex_consumption"),VLOOKUP(D22,D$72:H$75,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="L22" s="2"/>
@@ -3514,7 +3495,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S22" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U22,TableDay1[es_id],0)),"")</f>
@@ -3609,7 +3590,7 @@
       <c r="CM22" s="2"/>
       <c r="CN22" s="2"/>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="str">
         <f>IF(AND(F23&lt;&gt;"null",F23&lt;&gt;""),IF(F23=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G23&lt;&gt;"null",G23&lt;&gt;""),IF(G23=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E23=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v>glmp</v>
@@ -3619,10 +3600,10 @@
         <v/>
       </c>
       <c r="D23" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" s="31" t="str">
-        <f t="shared" ref="E23:E45" si="7">IF(B$1="ga",IF(AND(ROW()&gt;21,ROW()&lt;26),$AD$2,""),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AND(ROW()&lt;22+(COUNTA(AE$2:AE$11)*4),ROW()&gt;21),$AD$2,""),IF(B$1="ga_brp",IF(AND(ROW()&lt;22+(COUNTA(AF$2:AF$11)*4),ROW()&gt;21),$AD$2,""))))</f>
+        <f t="shared" ref="E23:E45" si="6">IF(B$1="ga",IF(AND(ROW()&gt;21,ROW()&lt;26),$AD$2,""),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AND(ROW()&lt;22+(COUNTA(AE$2:AE$11)*4),ROW()&gt;21),$AD$2,""),IF(B$1="ga_brp",IF(AND(ROW()&lt;22+(COUNTA(AF$2:AF$11)*4),ROW()&gt;21),$AD$2,""))))</f>
         <v>800</v>
       </c>
       <c r="F23" s="31" t="str">
@@ -3634,8 +3615,8 @@
         <v>1100000000000</v>
       </c>
       <c r="H23" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.458</v>
+        <f t="shared" ref="H23:H45" ca="1" si="7">IF(E23="","",SUBSTITUTE(ROUND(I23+J23+K23,3),",","."))</f>
+        <v>1.738</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" ref="I23:I45" si="8">SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),R$10:R$33,D23)</f>
@@ -3646,8 +3627,8 @@
         <v>0</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="6"/>
-        <v>1.4579999999999997</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.7380000000000009</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3656,7 +3637,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S23" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U23,TableDay1[es_id],0)),"")</f>
@@ -3754,7 +3735,7 @@
       <c r="CM23" s="2"/>
       <c r="CN23" s="2"/>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="str">
         <f>IF(AND(F24&lt;&gt;"null",F24&lt;&gt;""),IF(F24=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G24&lt;&gt;"null",G24&lt;&gt;""),IF(G24=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E24=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v>glmp</v>
@@ -3764,10 +3745,10 @@
         <v/>
       </c>
       <c r="D24" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F24" s="31" t="str">
@@ -3779,8 +3760,8 @@
         <v>1100000000000</v>
       </c>
       <c r="H24" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.457</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.736</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="8"/>
@@ -3791,8 +3772,8 @@
         <v>0</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="6"/>
-        <v>1.4569999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.7359999999999998</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3801,7 +3782,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S24" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U24,TableDay1[es_id],0)),"")</f>
@@ -3902,7 +3883,7 @@
       <c r="CM24" s="2"/>
       <c r="CN24" s="2"/>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="str">
         <f>IF(AND(F25&lt;&gt;"null",F25&lt;&gt;""),IF(F25=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G25&lt;&gt;"null",G25&lt;&gt;""),IF(G25=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E25=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v>glmp</v>
@@ -3912,10 +3893,10 @@
         <v/>
       </c>
       <c r="D25" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E25" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F25" s="31" t="str">
@@ -3927,8 +3908,8 @@
         <v>1100000000000</v>
       </c>
       <c r="H25" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.459</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.738</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="8"/>
@@ -3939,8 +3920,8 @@
         <v>0</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="6"/>
-        <v>1.459000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.7380000000000009</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="2"/>
@@ -3949,7 +3930,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S25" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U25,TableDay1[es_id],0)),"")</f>
@@ -4050,7 +4031,7 @@
       <c r="CM25" s="2"/>
       <c r="CN25" s="2"/>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="str">
         <f>IF(AND(F26&lt;&gt;"null",F26&lt;&gt;""),IF(F26=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G26&lt;&gt;"null",G26&lt;&gt;""),IF(G26=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E26=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4060,10 +4041,10 @@
         <v/>
       </c>
       <c r="D26" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F26" s="31" t="str">
@@ -4075,7 +4056,7 @@
         <v>1100000000000</v>
       </c>
       <c r="H26" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2.5</v>
       </c>
       <c r="I26" s="9">
@@ -4087,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L26" s="2"/>
@@ -4097,7 +4078,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S26" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U26,TableDay1[es_id],0)),"")</f>
@@ -4192,7 +4173,7 @@
       <c r="CM26" s="2"/>
       <c r="CN26" s="2"/>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="str">
         <f>IF(AND(F27&lt;&gt;"null",F27&lt;&gt;""),IF(F27=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G27&lt;&gt;"null",G27&lt;&gt;""),IF(G27=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E27=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4202,10 +4183,10 @@
         <v/>
       </c>
       <c r="D27" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F27" s="31" t="str">
@@ -4217,7 +4198,7 @@
         <v>1100000000000</v>
       </c>
       <c r="H27" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2.5</v>
       </c>
       <c r="I27" s="9">
@@ -4229,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L27" s="2"/>
@@ -4239,7 +4220,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S27" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U27,TableDay1[es_id],0)),"")</f>
@@ -4343,7 +4324,7 @@
       <c r="CM27" s="2"/>
       <c r="CN27" s="2"/>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="str">
         <f>IF(AND(F28&lt;&gt;"null",F28&lt;&gt;""),IF(F28=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G28&lt;&gt;"null",G28&lt;&gt;""),IF(G28=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E28=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4353,10 +4334,10 @@
         <v/>
       </c>
       <c r="D28" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E28" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F28" s="31" t="str">
@@ -4368,7 +4349,7 @@
         <v>1100000000000</v>
       </c>
       <c r="H28" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2.5</v>
       </c>
       <c r="I28" s="9">
@@ -4380,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L28" s="2"/>
@@ -4390,7 +4371,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S28" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U28,TableDay1[es_id],0)),"")</f>
@@ -4494,7 +4475,7 @@
       <c r="CM28" s="2"/>
       <c r="CN28" s="2"/>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="str">
         <f>IF(AND(F29&lt;&gt;"null",F29&lt;&gt;""),IF(F29=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G29&lt;&gt;"null",G29&lt;&gt;""),IF(G29=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E29=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4504,10 +4485,10 @@
         <v/>
       </c>
       <c r="D29" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E29" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F29" s="31" t="str">
@@ -4519,7 +4500,7 @@
         <v>1100000000000</v>
       </c>
       <c r="H29" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2.5</v>
       </c>
       <c r="I29" s="9">
@@ -4531,12 +4512,12 @@
         <v>0</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L29" s="2"/>
       <c r="R29" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S29" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U29,TableDay1[es_id],0)),"")</f>
@@ -4640,7 +4621,7 @@
       <c r="CM29" s="2"/>
       <c r="CN29" s="2"/>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="str">
         <f>IF(AND(F30&lt;&gt;"null",F30&lt;&gt;""),IF(F30=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G30&lt;&gt;"null",G30&lt;&gt;""),IF(G30=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E30=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4650,10 +4631,10 @@
         <v>skmp</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E30" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F30" s="31" t="str">
@@ -4665,7 +4646,7 @@
         <v>2200000000000</v>
       </c>
       <c r="H30" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.063</v>
       </c>
       <c r="I30" s="9">
@@ -4677,12 +4658,12 @@
         <v>0</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L30" s="2"/>
       <c r="R30" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S30" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U30,TableDay1[es_id],0)),"")</f>
@@ -4783,7 +4764,7 @@
       <c r="CM30" s="2"/>
       <c r="CN30" s="2"/>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="str">
         <f>IF(AND(F31&lt;&gt;"null",F31&lt;&gt;""),IF(F31=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G31&lt;&gt;"null",G31&lt;&gt;""),IF(G31=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E31=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4793,10 +4774,10 @@
         <v>skmp</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E31" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F31" s="31" t="str">
@@ -4808,7 +4789,7 @@
         <v>2200000000000</v>
       </c>
       <c r="H31" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.062</v>
       </c>
       <c r="I31" s="9">
@@ -4820,12 +4801,12 @@
         <v>0</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L31" s="2"/>
       <c r="R31" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S31" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U31,TableDay1[es_id],0)),"")</f>
@@ -4929,7 +4910,7 @@
       <c r="CM31" s="2"/>
       <c r="CN31" s="2"/>
     </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="str">
         <f>IF(AND(F32&lt;&gt;"null",F32&lt;&gt;""),IF(F32=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G32&lt;&gt;"null",G32&lt;&gt;""),IF(G32=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E32=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4939,10 +4920,10 @@
         <v>skmp</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E32" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F32" s="31" t="str">
@@ -4954,7 +4935,7 @@
         <v>2200000000000</v>
       </c>
       <c r="H32" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.063</v>
       </c>
       <c r="I32" s="9">
@@ -4966,12 +4947,12 @@
         <v>0</v>
       </c>
       <c r="K32" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L32" s="2"/>
       <c r="R32" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S32" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U32,TableDay1[es_id],0)),"")</f>
@@ -5075,7 +5056,7 @@
       <c r="CM32" s="2"/>
       <c r="CN32" s="2"/>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="str">
         <f>IF(AND(F33&lt;&gt;"null",F33&lt;&gt;""),IF(F33=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G33&lt;&gt;"null",G33&lt;&gt;""),IF(G33=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E33=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5085,10 +5066,10 @@
         <v>skmp</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E33" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F33" s="31" t="str">
@@ -5100,7 +5081,7 @@
         <v>2200000000000</v>
       </c>
       <c r="H33" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.062</v>
       </c>
       <c r="I33" s="9">
@@ -5112,12 +5093,12 @@
         <v>0</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L33" s="2"/>
       <c r="R33" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S33" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U33,TableDay1[es_id],0)),"")</f>
@@ -5221,7 +5202,7 @@
       <c r="CM33" s="2"/>
       <c r="CN33" s="2"/>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="str">
         <f>IF(AND(F34&lt;&gt;"null",F34&lt;&gt;""),IF(F34=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G34&lt;&gt;"null",G34&lt;&gt;""),IF(G34=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E34=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5231,10 +5212,10 @@
         <v/>
       </c>
       <c r="D34" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E34" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F34" s="31" t="str">
@@ -5246,7 +5227,7 @@
         <v/>
       </c>
       <c r="H34" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(E34="","",SUBSTITUTE(ROUND(I34+J34+K34,3),",","."))</f>
         <v/>
       </c>
       <c r="I34" s="9">
@@ -5258,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L34" s="2"/>
@@ -5344,7 +5325,7 @@
       <c r="CM34" s="2"/>
       <c r="CN34" s="2"/>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="str">
         <f>IF(AND(F35&lt;&gt;"null",F35&lt;&gt;""),IF(F35=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G35&lt;&gt;"null",G35&lt;&gt;""),IF(G35=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E35=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5354,10 +5335,10 @@
         <v/>
       </c>
       <c r="D35" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E35" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F35" s="31" t="str">
@@ -5369,7 +5350,7 @@
         <v/>
       </c>
       <c r="H35" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I35" s="9">
@@ -5381,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L35" s="2"/>
@@ -5394,7 +5375,7 @@
         <v>10.25</v>
       </c>
       <c r="W35" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X35" s="16"/>
       <c r="Y35" s="28">
@@ -5478,7 +5459,7 @@
       <c r="CM35" s="2"/>
       <c r="CN35" s="2"/>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="str">
         <f>IF(AND(F36&lt;&gt;"null",F36&lt;&gt;""),IF(F36=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G36&lt;&gt;"null",G36&lt;&gt;""),IF(G36=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E36=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5488,10 +5469,10 @@
         <v/>
       </c>
       <c r="D36" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F36" s="31" t="str">
@@ -5503,7 +5484,7 @@
         <v/>
       </c>
       <c r="H36" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I36" s="9">
@@ -5515,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L36" s="2"/>
@@ -5523,23 +5504,23 @@
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
       <c r="U36" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V36" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT1H")/4</f>
         <v>2.5625</v>
       </c>
       <c r="W36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y36" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X36" s="7" t="s">
+      <c r="Z36" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y36" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z36" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA36" s="27"/>
       <c r="AB36" s="2"/>
@@ -5614,7 +5595,7 @@
       <c r="CM36" s="2"/>
       <c r="CN36" s="2"/>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="str">
         <f>IF(AND(F37&lt;&gt;"null",F37&lt;&gt;""),IF(F37=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G37&lt;&gt;"null",G37&lt;&gt;""),IF(G37=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E37=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5624,10 +5605,10 @@
         <v/>
       </c>
       <c r="D37" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F37" s="31" t="str">
@@ -5639,7 +5620,7 @@
         <v/>
       </c>
       <c r="H37" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I37" s="9">
@@ -5651,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L37" s="2"/>
@@ -5659,7 +5640,7 @@
       <c r="S37" s="24"/>
       <c r="T37" s="24"/>
       <c r="U37" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V37" s="19">
         <f>V$36</f>
@@ -5751,7 +5732,7 @@
       <c r="CM37" s="2"/>
       <c r="CN37" s="2"/>
     </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="str">
         <f>IF(AND(F38&lt;&gt;"null",F38&lt;&gt;""),IF(F38=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G38&lt;&gt;"null",G38&lt;&gt;""),IF(G38=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E38=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5761,10 +5742,10 @@
         <v/>
       </c>
       <c r="D38" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E38" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F38" s="31" t="str">
@@ -5776,7 +5757,7 @@
         <v/>
       </c>
       <c r="H38" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I38" s="9">
@@ -5788,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L38" s="2"/>
@@ -5796,7 +5777,7 @@
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
       <c r="U38" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V38" s="19">
         <f>V$36</f>
@@ -5891,7 +5872,7 @@
       <c r="CM38" s="2"/>
       <c r="CN38" s="2"/>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="str">
         <f>IF(AND(F39&lt;&gt;"null",F39&lt;&gt;""),IF(F39=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G39&lt;&gt;"null",G39&lt;&gt;""),IF(G39=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E39=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5901,10 +5882,10 @@
         <v/>
       </c>
       <c r="D39" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E39" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F39" s="31" t="str">
@@ -5916,7 +5897,7 @@
         <v/>
       </c>
       <c r="H39" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I39" s="9">
@@ -5928,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L39" s="2"/>
@@ -5936,7 +5917,7 @@
       <c r="S39" s="24"/>
       <c r="T39" s="24"/>
       <c r="U39" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V39" s="19">
         <f>V$36</f>
@@ -6031,7 +6012,7 @@
       <c r="CM39" s="2"/>
       <c r="CN39" s="2"/>
     </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="str">
         <f>IF(AND(F40&lt;&gt;"null",F40&lt;&gt;""),IF(F40=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G40&lt;&gt;"null",G40&lt;&gt;""),IF(G40=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E40=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6041,10 +6022,10 @@
         <v/>
       </c>
       <c r="D40" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E40" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F40" s="31" t="str">
@@ -6056,7 +6037,7 @@
         <v/>
       </c>
       <c r="H40" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I40" s="9">
@@ -6068,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L40" s="2"/>
@@ -6076,7 +6057,7 @@
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
       <c r="U40" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V40" s="19">
         <f>V$36</f>
@@ -6171,7 +6152,7 @@
       <c r="CM40" s="2"/>
       <c r="CN40" s="2"/>
     </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="str">
         <f>IF(AND(F41&lt;&gt;"null",F41&lt;&gt;""),IF(F41=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G41&lt;&gt;"null",G41&lt;&gt;""),IF(G41=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E41=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6181,10 +6162,10 @@
         <v/>
       </c>
       <c r="D41" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E41" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F41" s="31" t="str">
@@ -6196,7 +6177,7 @@
         <v/>
       </c>
       <c r="H41" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I41" s="9">
@@ -6208,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L41" s="2"/>
@@ -6221,7 +6202,7 @@
         <v>6.0030000000000001</v>
       </c>
       <c r="W41" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X41" s="40"/>
       <c r="Y41" s="28">
@@ -6305,7 +6286,7 @@
       <c r="CM41" s="2"/>
       <c r="CN41" s="2"/>
     </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="str">
         <f>IF(AND(F42&lt;&gt;"null",F42&lt;&gt;""),IF(F42=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G42&lt;&gt;"null",G42&lt;&gt;""),IF(G42=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E42=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6315,10 +6296,10 @@
         <v/>
       </c>
       <c r="D42" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F42" s="31" t="str">
@@ -6330,7 +6311,7 @@
         <v/>
       </c>
       <c r="H42" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I42" s="9">
@@ -6342,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L42" s="2"/>
@@ -6357,16 +6338,16 @@
         <v>1.50075</v>
       </c>
       <c r="W42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X42" s="7" t="s">
+      <c r="Z42" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y42" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z42" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA42" s="27"/>
       <c r="AB42" s="2"/>
@@ -6441,7 +6422,7 @@
       <c r="CM42" s="2"/>
       <c r="CN42" s="2"/>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="str">
         <f>IF(AND(F43&lt;&gt;"null",F43&lt;&gt;""),IF(F43=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G43&lt;&gt;"null",G43&lt;&gt;""),IF(G43=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E43=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6451,10 +6432,10 @@
         <v/>
       </c>
       <c r="D43" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E43" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F43" s="31" t="str">
@@ -6466,7 +6447,7 @@
         <v/>
       </c>
       <c r="H43" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I43" s="9">
@@ -6478,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L43" s="2"/>
@@ -6486,7 +6467,7 @@
       <c r="S43" s="24"/>
       <c r="T43" s="24"/>
       <c r="U43" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V43" s="19">
         <f>V$42</f>
@@ -6572,7 +6553,7 @@
       <c r="CM43" s="2"/>
       <c r="CN43" s="2"/>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="str">
         <f>IF(AND(F44&lt;&gt;"null",F44&lt;&gt;""),IF(F44=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G44&lt;&gt;"null",G44&lt;&gt;""),IF(G44=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E44=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6582,10 +6563,10 @@
         <v/>
       </c>
       <c r="D44" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E44" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F44" s="31" t="str">
@@ -6597,7 +6578,7 @@
         <v/>
       </c>
       <c r="H44" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I44" s="9">
@@ -6609,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L44" s="2"/>
@@ -6617,7 +6598,7 @@
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
       <c r="U44" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V44" s="19">
         <f>V$42</f>
@@ -6706,7 +6687,7 @@
       <c r="CM44" s="2"/>
       <c r="CN44" s="2"/>
     </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="str">
         <f>IF(AND(F45&lt;&gt;"null",F45&lt;&gt;""),IF(F45=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G45&lt;&gt;"null",G45&lt;&gt;""),IF(G45=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E45=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6716,10 +6697,10 @@
         <v/>
       </c>
       <c r="D45" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E45" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F45" s="31" t="str">
@@ -6731,7 +6712,7 @@
         <v/>
       </c>
       <c r="H45" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I45" s="9">
@@ -6743,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L45" s="2"/>
@@ -6751,7 +6732,7 @@
       <c r="S45" s="24"/>
       <c r="T45" s="24"/>
       <c r="U45" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V45" s="19">
         <f>V$42</f>
@@ -6840,10 +6821,10 @@
       <c r="CM45" s="2"/>
       <c r="CN45" s="2"/>
     </row>
-    <row r="46" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C46" s="2"/>
       <c r="E46" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F46" s="47"/>
       <c r="G46" s="47"/>
@@ -6852,7 +6833,7 @@
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
       <c r="U46" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V46" s="19">
         <f>V$42</f>
@@ -6941,7 +6922,7 @@
       <c r="CM46" s="2"/>
       <c r="CN46" s="2"/>
     </row>
-    <row r="47" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
       <c r="D47" s="4" t="s">
         <v>20</v>
@@ -6967,7 +6948,7 @@
         <v>8.8070000000000004</v>
       </c>
       <c r="W47" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X47" s="40"/>
       <c r="Y47" s="28">
@@ -7045,52 +7026,53 @@
       <c r="CM47" s="2"/>
       <c r="CN47" s="2"/>
     </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E48" s="31" t="str">
         <f>$AD$2</f>
         <v>800</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48" s="32">
-        <f>powerIn1H_quarter1+powerIn15M_quarter1-powerOut1H_quarter1-powerOut15M_quarter1</f>
-        <v>9.7220000000000013</v>
+        <f ca="1">SUMIF(D90:D113,D48,H90:H113)</f>
+        <v>10.001000000000001</v>
       </c>
       <c r="I48" s="27" t="str">
-        <f>SUBSTITUTE(ROUND(H48,3),",",".")</f>
-        <v>9.722</v>
-      </c>
+        <f ca="1">SUBSTITUTE(ROUND(H48,3),",",".")</f>
+        <v>10.001</v>
+      </c>
+      <c r="J48" s="2"/>
       <c r="R48" s="24"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
       <c r="U48" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V48" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT1H")/4</f>
         <v>2.2017500000000001</v>
       </c>
       <c r="W48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y48" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X48" s="7" t="s">
+      <c r="Z48" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y48" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z48" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA48" s="27"/>
       <c r="AB48" s="2"/>
@@ -7159,36 +7141,37 @@
       <c r="CM48" s="2"/>
       <c r="CN48" s="2"/>
     </row>
-    <row r="49" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E49" s="31" t="str">
         <f t="shared" ref="E49:E51" si="12">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49" s="32">
-        <f>powerIn1H_quarter2+powerIn15M_quarter2-powerOut1H_quarter2-powerOut15M_quarter2</f>
-        <v>4.7210000000000001</v>
+        <f t="shared" ref="H49:H51" ca="1" si="13">SUMIF(D91:D114,D49,H91:H114)</f>
+        <v>5.0010000000000003</v>
       </c>
       <c r="I49" s="27" t="str">
-        <f t="shared" ref="I49:I51" si="13">SUBSTITUTE(ROUND(H49,3),",",".")</f>
-        <v>4.721</v>
-      </c>
+        <f t="shared" ref="I49:I51" ca="1" si="14">SUBSTITUTE(ROUND(H49,3),",",".")</f>
+        <v>5.001</v>
+      </c>
+      <c r="J49" s="2"/>
       <c r="R49" s="24"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V49" s="19">
         <f>V$48</f>
@@ -7274,36 +7257,37 @@
       <c r="CM49" s="2"/>
       <c r="CN49" s="2"/>
     </row>
-    <row r="50" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E50" s="31" t="str">
         <f t="shared" si="12"/>
         <v>800</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50" s="32">
-        <f>powerIn1H_quarter3+powerIn15M_quarter3-powerOut1H_quarter3-powerOut15M_quarter3</f>
-        <v>4.7210000000000001</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
       </c>
       <c r="I50" s="27" t="str">
-        <f t="shared" si="13"/>
-        <v>4.721</v>
-      </c>
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="J50" s="2"/>
       <c r="R50" s="24"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="U50" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V50" s="19">
         <f>V$48</f>
@@ -7392,36 +7376,37 @@
       <c r="CM50" s="2"/>
       <c r="CN50" s="2"/>
     </row>
-    <row r="51" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E51" s="31" t="str">
         <f t="shared" si="12"/>
         <v>800</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51" s="32">
-        <f>powerIn1H_quarter4+powerIn15M_quarter4-powerOut1H_quarter4-powerOut15M_quarter4</f>
-        <v>4.7220000000000004</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>5.0010000000000003</v>
       </c>
       <c r="I51" s="27" t="str">
-        <f t="shared" si="13"/>
-        <v>4.722</v>
-      </c>
+        <f t="shared" ca="1" si="14"/>
+        <v>5.001</v>
+      </c>
+      <c r="J51" s="2"/>
       <c r="R51" s="24"/>
       <c r="S51" s="24"/>
       <c r="T51" s="24"/>
       <c r="U51" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V51" s="19">
         <f>V$48</f>
@@ -7510,12 +7495,12 @@
       <c r="CM51" s="2"/>
       <c r="CN51" s="2"/>
     </row>
-    <row r="52" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="E52" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52" s="52"/>
       <c r="G52" s="52"/>
@@ -7524,7 +7509,7 @@
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
       <c r="U52" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="V52" s="19">
         <f>V$48</f>
@@ -7613,7 +7598,7 @@
       <c r="CM52" s="2"/>
       <c r="CN52" s="2"/>
     </row>
-    <row r="53" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -7641,7 +7626,7 @@
         <v>20.003</v>
       </c>
       <c r="W53" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X53" s="40"/>
       <c r="Y53" s="28">
@@ -7719,7 +7704,7 @@
       <c r="CM53" s="2"/>
       <c r="CN53" s="2"/>
     </row>
-    <row r="54" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -7731,10 +7716,10 @@
         <v>800</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54" s="32">
         <f>totalFlex1H_quarter1+totalFlex15M_quarter1</f>
@@ -7756,16 +7741,16 @@
         <v>5.00075</v>
       </c>
       <c r="W54" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X54" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y54" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X54" s="7" t="s">
+      <c r="Z54" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y54" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z54" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA54" s="24"/>
       <c r="AB54" s="2"/>
@@ -7834,7 +7819,7 @@
       <c r="CM54" s="2"/>
       <c r="CN54" s="2"/>
     </row>
-    <row r="55" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -7842,28 +7827,28 @@
         <v>4</v>
       </c>
       <c r="E55" s="31" t="str">
-        <f t="shared" ref="E55:E57" si="14">$AD$2</f>
+        <f t="shared" ref="E55:E57" si="15">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55" s="32">
         <f>totalFlex1H_quarter2+totalFlex15M_quarter2</f>
         <v>2.5619999999999998</v>
       </c>
       <c r="I55" s="27" t="str">
-        <f t="shared" ref="I55:I57" si="15">SUBSTITUTE(ROUND(H55,3),",",".")</f>
+        <f t="shared" ref="I55:I57" si="16">SUBSTITUTE(ROUND(H55,3),",",".")</f>
         <v>2.562</v>
       </c>
       <c r="R55" s="44"/>
       <c r="S55" s="24"/>
       <c r="T55" s="24"/>
       <c r="U55" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V55" s="19">
         <f>V$54</f>
@@ -7949,7 +7934,7 @@
       <c r="CM55" s="2"/>
       <c r="CN55" s="2"/>
     </row>
-    <row r="56" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -7957,28 +7942,28 @@
         <v>5</v>
       </c>
       <c r="E56" s="31" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>800</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56" s="32">
         <f>totalFlex1H_quarter3+totalFlex15M_quarter3</f>
         <v>2.5630000000000002</v>
       </c>
       <c r="I56" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.563</v>
       </c>
       <c r="R56" s="24"/>
       <c r="S56" s="24"/>
       <c r="T56" s="24"/>
       <c r="U56" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V56" s="19">
         <f>V$54</f>
@@ -7993,7 +7978,7 @@
         <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Y56" s="23">
-        <f t="shared" ref="Y56:Y58" si="16">ROUND(W56,3)</f>
+        <f t="shared" ref="Y56:Y58" si="17">ROUND(W56,3)</f>
         <v>5.0010000000000003</v>
       </c>
       <c r="Z56" s="23">
@@ -8067,7 +8052,7 @@
       <c r="CM56" s="2"/>
       <c r="CN56" s="2"/>
     </row>
-    <row r="57" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -8075,28 +8060,28 @@
         <v>6</v>
       </c>
       <c r="E57" s="31" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>800</v>
       </c>
       <c r="F57" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57" s="32">
         <f>totalFlex1H_quarter4+totalFlex15M_quarter4</f>
         <v>2.5619999999999998</v>
       </c>
       <c r="I57" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.562</v>
       </c>
       <c r="R57" s="24"/>
       <c r="S57" s="24"/>
       <c r="T57" s="24"/>
       <c r="U57" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V57" s="19">
         <f>V$54</f>
@@ -8111,7 +8096,7 @@
         <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Y57" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="Z57" s="23">
@@ -8185,12 +8170,12 @@
       <c r="CM57" s="2"/>
       <c r="CN57" s="2"/>
     </row>
-    <row r="58" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="E58" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F58" s="52"/>
       <c r="G58" s="52"/>
@@ -8199,7 +8184,7 @@
       <c r="S58" s="24"/>
       <c r="T58" s="24"/>
       <c r="U58" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="V58" s="19">
         <f>V$54</f>
@@ -8214,7 +8199,7 @@
         <v>7.5000000000002842E-4</v>
       </c>
       <c r="Y58" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.0010000000000003</v>
       </c>
       <c r="Z58" s="23">
@@ -8288,7 +8273,7 @@
       <c r="CM58" s="2"/>
       <c r="CN58" s="2"/>
     </row>
-    <row r="59" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -8316,7 +8301,7 @@
         <v>1.117</v>
       </c>
       <c r="W59" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X59" s="40"/>
       <c r="Y59" s="28">
@@ -8394,7 +8379,7 @@
       <c r="CM59" s="2"/>
       <c r="CN59" s="2"/>
     </row>
-    <row r="60" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="D60" s="8" t="s">
         <v>3</v>
@@ -8404,10 +8389,10 @@
         <v>800</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60" s="32">
         <f>totalProduction1H_quarter1+totalProduction15M_quarter1</f>
@@ -8421,23 +8406,23 @@
       <c r="S60" s="24"/>
       <c r="T60" s="24"/>
       <c r="U60" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V60" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[from_ga],"800")/4</f>
         <v>0.27925</v>
       </c>
       <c r="W60" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X60" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y60" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X60" s="7" t="s">
+      <c r="Z60" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y60" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z60" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA60" s="27"/>
       <c r="AB60" s="2"/>
@@ -8506,34 +8491,34 @@
       <c r="CM60" s="2"/>
       <c r="CN60" s="2"/>
     </row>
-    <row r="61" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="D61" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E61" s="31" t="str">
-        <f t="shared" ref="E61:E63" si="17">$AD$2</f>
+        <f t="shared" ref="E61:E63" si="18">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61" s="32">
         <f>totalProduction1H_quarter2+totalProduction15M_quarter2</f>
         <v>1.5009999999999999</v>
       </c>
       <c r="I61" s="27" t="str">
-        <f t="shared" ref="I61:I63" si="18">SUBSTITUTE(ROUND(H61,3),",",".")</f>
+        <f t="shared" ref="I61:I63" si="19">SUBSTITUTE(ROUND(H61,3),",",".")</f>
         <v>1.501</v>
       </c>
       <c r="R61" s="24"/>
       <c r="S61" s="24"/>
       <c r="T61" s="24"/>
       <c r="U61" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V61" s="19">
         <f>V$60</f>
@@ -8619,34 +8604,34 @@
       <c r="CM61" s="2"/>
       <c r="CN61" s="2"/>
     </row>
-    <row r="62" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="31" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>800</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H62" s="32">
         <f>totalProduction1H_quarter3+totalProduction15M_quarter3</f>
         <v>1.5</v>
       </c>
       <c r="I62" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.5</v>
       </c>
       <c r="R62" s="24"/>
       <c r="S62" s="24"/>
       <c r="T62" s="24"/>
       <c r="U62" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V62" s="19">
         <f>V$60</f>
@@ -8661,7 +8646,7 @@
         <v>2.4999999999997247E-4</v>
       </c>
       <c r="Y62" s="23">
-        <f t="shared" ref="Y62:Y64" si="19">ROUND(W62,3)</f>
+        <f t="shared" ref="Y62:Y64" si="20">ROUND(W62,3)</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="Z62" s="23">
@@ -8735,34 +8720,34 @@
       <c r="CM62" s="2"/>
       <c r="CN62" s="2"/>
     </row>
-    <row r="63" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="D63" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="31" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>800</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G63" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63" s="32">
         <f>totalProduction1H_quarter4+totalProduction15M_quarter4</f>
         <v>1.5009999999999999</v>
       </c>
       <c r="I63" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.501</v>
       </c>
       <c r="R63" s="24"/>
       <c r="S63" s="24"/>
       <c r="T63" s="24"/>
       <c r="U63" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V63" s="19">
         <f>V$60</f>
@@ -8777,7 +8762,7 @@
         <v>-7.5000000000002842E-4</v>
       </c>
       <c r="Y63" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.27900000000000003</v>
       </c>
       <c r="Z63" s="23">
@@ -8851,10 +8836,10 @@
       <c r="CM63" s="2"/>
       <c r="CN63" s="2"/>
     </row>
-    <row r="64" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C64" s="2"/>
       <c r="E64" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F64" s="52"/>
       <c r="G64" s="52"/>
@@ -8863,7 +8848,7 @@
       <c r="S64" s="24"/>
       <c r="T64" s="24"/>
       <c r="U64" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V64" s="19">
         <f>V$60</f>
@@ -8878,7 +8863,7 @@
         <v>2.4999999999997247E-4</v>
       </c>
       <c r="Y64" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.27900000000000003</v>
       </c>
       <c r="Z64" s="23">
@@ -8952,7 +8937,7 @@
       <c r="CM64" s="2"/>
       <c r="CN64" s="2"/>
     </row>
-    <row r="65" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="s">
         <v>20</v>
@@ -8978,7 +8963,7 @@
         <v>19.056999999999999</v>
       </c>
       <c r="W65" s="55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X65" s="56"/>
       <c r="Y65" s="28">
@@ -9056,7 +9041,7 @@
       <c r="CM65" s="2"/>
       <c r="CN65" s="2"/>
     </row>
-    <row r="66" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="8" t="s">
         <v>3</v>
@@ -9066,18 +9051,18 @@
         <v>800</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66" s="32">
-        <f>totalProduction1H_quarter1+totalProduction15M_quarter1+netEx_quarter1-totalFlex1H_quarter1-totalFlex15M_quarter1-totalNonprofiled1H_quarter1-totalNonprofiled15M_quarter1</f>
-        <v>-2.5420000000000016</v>
+        <f ca="1">totalProduction1H_quarter1+totalProduction15M_quarter1+netEx_quarter1-totalFlex1H_quarter1-totalFlex15M_quarter1-totalNonprofiled1H_quarter1-totalNonprofiled15M_quarter1</f>
+        <v>-2.2629999999999981</v>
       </c>
       <c r="I66" s="27" t="str">
-        <f>SUBSTITUTE(ROUND(H66,3),",",".")</f>
-        <v>-2.542</v>
+        <f ca="1">SUBSTITUTE(ROUND(H66,3),",",".")</f>
+        <v>-2.263</v>
       </c>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
@@ -9090,16 +9075,16 @@
         <v>4.7642500000000005</v>
       </c>
       <c r="W66" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X66" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y66" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X66" s="7" t="s">
+      <c r="Z66" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y66" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z66" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA66" s="27"/>
       <c r="AB66" s="2"/>
@@ -9168,34 +9153,34 @@
       <c r="CM66" s="2"/>
       <c r="CN66" s="2"/>
     </row>
-    <row r="67" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="31" t="str">
-        <f t="shared" ref="E67:E69" si="20">$AD$2</f>
+        <f t="shared" ref="E67:E69" si="21">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F67" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67" s="32">
-        <f>totalProduction1H_quarter2+totalProduction15M_quarter2+netEx_quarter2-totalFlex1H_quarter2-totalFlex15M_quarter2-totalNonprofiled1H_quarter2-totalNonprofiled15M_quarter2</f>
-        <v>1.4579999999999997</v>
+        <f ca="1">totalProduction1H_quarter2+totalProduction15M_quarter2+netEx_quarter2-totalFlex1H_quarter2-totalFlex15M_quarter2-totalNonprofiled1H_quarter2-totalNonprofiled15M_quarter2</f>
+        <v>1.7380000000000009</v>
       </c>
       <c r="I67" s="27" t="str">
-        <f t="shared" ref="I67:I69" si="21">SUBSTITUTE(ROUND(H67,3),",",".")</f>
-        <v>1.458</v>
+        <f t="shared" ref="I67:I69" ca="1" si="22">SUBSTITUTE(ROUND(H67,3),",",".")</f>
+        <v>1.738</v>
       </c>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
       <c r="T67" s="24"/>
       <c r="U67" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V67" s="19">
         <f>V$66</f>
@@ -9281,34 +9266,34 @@
       <c r="CM67" s="2"/>
       <c r="CN67" s="2"/>
     </row>
-    <row r="68" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="D68" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E68" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>800</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G68" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H68" s="32">
-        <f>totalProduction1H_quarter3+totalProduction15M_quarter3+netEx_quarter3-totalFlex1H_quarter3-totalFlex15M_quarter3-totalNonprofiled1H_quarter3-totalNonprofiled15M_quarter3</f>
-        <v>1.4569999999999999</v>
+        <f ca="1">totalProduction1H_quarter3+totalProduction15M_quarter3+netEx_quarter3-totalFlex1H_quarter3-totalFlex15M_quarter3-totalNonprofiled1H_quarter3-totalNonprofiled15M_quarter3</f>
+        <v>1.7359999999999998</v>
       </c>
       <c r="I68" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v>1.457</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.736</v>
       </c>
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V68" s="19">
         <f>V$66</f>
@@ -9397,35 +9382,35 @@
       <c r="CM68" s="2"/>
       <c r="CN68" s="2"/>
     </row>
-    <row r="69" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>800</v>
       </c>
       <c r="F69" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69" s="32">
-        <f>totalProduction1H_quarter4+totalProduction15M_quarter4+netEx_quarter4-totalFlex1H_quarter4-totalFlex15M_quarter4-totalNonprofiled1H_quarter4-totalNonprofiled15M_quarter4</f>
-        <v>1.459000000000001</v>
+        <f ca="1">totalProduction1H_quarter4+totalProduction15M_quarter4+netEx_quarter4-totalFlex1H_quarter4-totalFlex15M_quarter4-totalNonprofiled1H_quarter4-totalNonprofiled15M_quarter4</f>
+        <v>1.7380000000000009</v>
       </c>
       <c r="I69" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v>1.459</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.738</v>
       </c>
       <c r="J69" s="2"/>
       <c r="R69" s="24"/>
       <c r="S69" s="24"/>
       <c r="T69" s="24"/>
       <c r="U69" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V69" s="19">
         <f>V$66</f>
@@ -9514,10 +9499,10 @@
       <c r="CM69" s="2"/>
       <c r="CN69" s="2"/>
     </row>
-    <row r="70" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C70" s="2"/>
       <c r="E70" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F70" s="52"/>
       <c r="G70" s="52"/>
@@ -9526,7 +9511,7 @@
       <c r="S70" s="24"/>
       <c r="T70" s="27"/>
       <c r="U70" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V70" s="19">
         <f>V$66</f>
@@ -9615,7 +9600,7 @@
       <c r="CM70" s="2"/>
       <c r="CN70" s="2"/>
     </row>
-    <row r="71" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C71" s="2"/>
       <c r="D71" s="4" t="s">
         <v>20</v>
@@ -9708,28 +9693,28 @@
       <c r="CM71" s="2"/>
       <c r="CN71" s="2"/>
     </row>
-    <row r="72" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E72" s="31" t="str">
         <f>$AD$2</f>
         <v>800</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72" s="32">
-        <f>IF(gridLoss1H_quarter4&gt;0,gridLoss1H_quarter4,0)</f>
-        <v>1.459000000000001</v>
+        <f ca="1">IF(gridLoss1H_quarter4&gt;0,gridLoss1H_quarter4,0)</f>
+        <v>1.7380000000000009</v>
       </c>
       <c r="I72" s="27" t="str">
-        <f>SUBSTITUTE(ROUND(H72,3),",",".")</f>
-        <v>1.459</v>
+        <f ca="1">SUBSTITUTE(ROUND(H72,3),",",".")</f>
+        <v>1.738</v>
       </c>
       <c r="R72" s="24"/>
       <c r="S72" s="27"/>
@@ -9807,28 +9792,28 @@
       <c r="CM72" s="2"/>
       <c r="CN72" s="2"/>
     </row>
-    <row r="73" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E73" s="31" t="str">
-        <f t="shared" ref="E73:E75" si="22">$AD$2</f>
+        <f t="shared" ref="E73:E75" si="23">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73" s="32">
-        <f>IF(gridLoss1H_quarter3&gt;0,gridLoss1H_quarter3,0)</f>
-        <v>1.4569999999999999</v>
+        <f ca="1">IF(gridLoss1H_quarter3&gt;0,gridLoss1H_quarter3,0)</f>
+        <v>1.7359999999999998</v>
       </c>
       <c r="I73" s="27" t="str">
-        <f t="shared" ref="I73:I75" si="23">SUBSTITUTE(ROUND(H73,3),",",".")</f>
-        <v>1.457</v>
+        <f t="shared" ref="I73:I75" ca="1" si="24">SUBSTITUTE(ROUND(H73,3),",",".")</f>
+        <v>1.736</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -9899,28 +9884,28 @@
       <c r="CM73" s="2"/>
       <c r="CN73" s="2"/>
     </row>
-    <row r="74" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E74" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>800</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74" s="32">
-        <f>IF(gridLoss1H_quarter2&gt;0,gridLoss1H_quarter2,0)</f>
-        <v>1.4579999999999997</v>
+        <f ca="1">IF(gridLoss1H_quarter2&gt;0,gridLoss1H_quarter2,0)</f>
+        <v>1.7380000000000009</v>
       </c>
       <c r="I74" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v>1.458</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>1.738</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10002,27 +9987,27 @@
       <c r="CM74" s="2"/>
       <c r="CN74" s="2"/>
     </row>
-    <row r="75" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E75" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>800</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H75" s="32">
-        <f>IF(gridLoss1H_quarter1&gt;0,gridLoss1H_quarter1,0)</f>
+        <f ca="1">IF(gridLoss1H_quarter1&gt;0,gridLoss1H_quarter1,0)</f>
         <v>0</v>
       </c>
       <c r="I75" s="27" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="P75" s="2"/>
@@ -10103,10 +10088,10 @@
       <c r="CM75" s="2"/>
       <c r="CN75" s="2"/>
     </row>
-    <row r="76" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C76" s="2"/>
       <c r="E76" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F76" s="52"/>
       <c r="G76" s="52"/>
@@ -10196,7 +10181,7 @@
       <c r="CM76" s="2"/>
       <c r="CN76" s="2"/>
     </row>
-    <row r="77" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
       <c r="D77" s="4" t="s">
         <v>20</v>
@@ -10298,27 +10283,27 @@
       <c r="CM77" s="2"/>
       <c r="CN77" s="2"/>
     </row>
-    <row r="78" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E78" s="31" t="str">
         <f>$AD$2</f>
         <v>800</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G78" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H78" s="32">
-        <f>IF(gridLoss1H_quarter4&lt;0,gridLoss1H_quarter4*-1,0)</f>
+        <f ca="1">IF(gridLoss1H_quarter4&lt;0,gridLoss1H_quarter4*-1,0)</f>
         <v>0</v>
       </c>
       <c r="I78" s="27" t="str">
-        <f>SUBSTITUTE(ROUND(H78,3),",",".")</f>
+        <f ca="1">SUBSTITUTE(ROUND(H78,3),",",".")</f>
         <v>0</v>
       </c>
       <c r="J78" s="2"/>
@@ -10405,27 +10390,27 @@
       <c r="CM78" s="2"/>
       <c r="CN78" s="2"/>
     </row>
-    <row r="79" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E79" s="31" t="str">
-        <f t="shared" ref="E79:E81" si="24">$AD$2</f>
+        <f t="shared" ref="E79:E81" si="25">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H79" s="32">
-        <f>IF(gridLoss1H_quarter3&lt;0,gridLoss1H_quarter3*-1,0)</f>
+        <f ca="1">IF(gridLoss1H_quarter3&lt;0,gridLoss1H_quarter3*-1,0)</f>
         <v>0</v>
       </c>
       <c r="I79" s="27" t="str">
-        <f t="shared" ref="I79:I81" si="25">SUBSTITUTE(ROUND(H79,3),",",".")</f>
+        <f t="shared" ref="I79:I81" ca="1" si="26">SUBSTITUTE(ROUND(H79,3),",",".")</f>
         <v>0</v>
       </c>
       <c r="J79" s="2"/>
@@ -10512,27 +10497,27 @@
       <c r="CM79" s="2"/>
       <c r="CN79" s="2"/>
     </row>
-    <row r="80" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E80" s="31" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>800</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H80" s="32">
-        <f>IF(gridLoss1H_quarter2&lt;0,gridLoss1H_quarter2*-1,0)</f>
+        <f ca="1">IF(gridLoss1H_quarter2&lt;0,gridLoss1H_quarter2*-1,0)</f>
         <v>0</v>
       </c>
       <c r="I80" s="27" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="J80" s="2"/>
@@ -10619,28 +10604,28 @@
       <c r="CM80" s="2"/>
       <c r="CN80" s="2"/>
     </row>
-    <row r="81" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="D81" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E81" s="31" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>800</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81" s="32">
-        <f>IF(gridLoss1H_quarter1&lt;0,(gridLoss1H_quarter1)*-1,0)</f>
-        <v>2.5420000000000016</v>
+        <f ca="1">IF(gridLoss1H_quarter1&lt;0,(gridLoss1H_quarter1)*-1,0)</f>
+        <v>2.2629999999999981</v>
       </c>
       <c r="I81" s="27" t="str">
-        <f t="shared" si="25"/>
-        <v>2.542</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>2.263</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -10726,10 +10711,10 @@
       <c r="CM81" s="2"/>
       <c r="CN81" s="2"/>
     </row>
-    <row r="82" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C82" s="2"/>
       <c r="E82" s="51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F82" s="52"/>
       <c r="G82" s="52"/>
@@ -10819,7 +10804,7 @@
       <c r="CM82" s="2"/>
       <c r="CN82" s="2"/>
     </row>
-    <row r="83" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C83" s="2"/>
       <c r="D83" s="4" t="s">
         <v>20</v>
@@ -10921,33 +10906,33 @@
       <c r="CM83" s="2"/>
       <c r="CN83" s="2"/>
     </row>
-    <row r="84" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
       <c r="D84" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E84" s="31" t="str">
         <f>$AD$2</f>
         <v>800</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84" s="32">
-        <f>netEx_quarter1+totalProduction1H_quarter1+totalProduction15M_quarter1+negGridLossQuarter1</f>
+        <f ca="1">netEx_quarter1+totalProduction1H_quarter1+totalProduction15M_quarter1+negGridLossQuarter1</f>
         <v>19.765000000000001</v>
       </c>
       <c r="I84" s="27" t="str">
-        <f>SUBSTITUTE(ROUND(H84,3),",",".")</f>
+        <f ca="1">SUBSTITUTE(ROUND(H84,3),",",".")</f>
         <v>19.765</v>
       </c>
       <c r="J84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W84" s="54"/>
       <c r="X84" s="54"/>
@@ -11020,28 +11005,28 @@
       <c r="CM84" s="2"/>
       <c r="CN84" s="2"/>
     </row>
-    <row r="85" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
       <c r="D85" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E85" s="31" t="str">
-        <f t="shared" ref="E85:E87" si="26">$AD$2</f>
+        <f t="shared" ref="E85:E87" si="27">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85" s="32">
-        <f>netEx_quarter2+totalProduction1H_quarter2+totalProduction15M_quarter2+negGridLossQuarter2</f>
-        <v>6.2219999999999995</v>
+        <f ca="1">netEx_quarter2+totalProduction1H_quarter2+totalProduction15M_quarter2+negGridLossQuarter2</f>
+        <v>6.5020000000000007</v>
       </c>
       <c r="I85" s="27" t="str">
-        <f t="shared" ref="I85:I87" si="27">SUBSTITUTE(ROUND(H85,3),",",".")</f>
-        <v>6.222</v>
+        <f t="shared" ref="I85:I87" ca="1" si="28">SUBSTITUTE(ROUND(H85,3),",",".")</f>
+        <v>6.502</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -11050,16 +11035,16 @@
         <v>14</v>
       </c>
       <c r="W85" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X85" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y85" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z85" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="Y85" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z85" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
@@ -11067,8 +11052,7 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
-      <c r="AG85" s="27"/>
-      <c r="AH85" s="2"/>
+      <c r="AH85" s="27"/>
       <c r="AI85" s="2"/>
       <c r="AJ85" s="2"/>
       <c r="AK85" s="2"/>
@@ -11128,41 +11112,41 @@
       <c r="CM85" s="2"/>
       <c r="CN85" s="2"/>
     </row>
-    <row r="86" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E86" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>800</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H86" s="32">
-        <f>netEx_quarter3+totalProduction1H_quarter3+totalProduction15M_quarter3+negGridLossQuarter3</f>
-        <v>6.2210000000000001</v>
+        <f ca="1">netEx_quarter3+totalProduction1H_quarter3+totalProduction15M_quarter3+negGridLossQuarter3</f>
+        <v>6.5</v>
       </c>
       <c r="I86" s="27" t="str">
-        <f t="shared" si="27"/>
-        <v>6.221</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>6.5</v>
       </c>
       <c r="J86" s="2"/>
       <c r="R86" s="37"/>
       <c r="S86" s="2"/>
       <c r="U86" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V86" s="26" cm="1">
-        <f t="array" aca="1" ref="V86" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U86&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U86&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V86" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U86&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U86&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>10</v>
       </c>
       <c r="W86" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$3)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$3))/4</f>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$3)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$3))/4</f>
         <v>0</v>
       </c>
       <c r="X86" s="16">
@@ -11171,19 +11155,17 @@
       </c>
       <c r="Y86" s="16"/>
       <c r="Z86" s="16">
-        <f t="shared" ref="Z86:Z109" si="28">ROUND(X86, 3)</f>
+        <f t="shared" ref="Z86:Z109" si="29">ROUND(X86, 3)</f>
         <v>0</v>
       </c>
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
-      <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
-      <c r="AG86" s="27"/>
-      <c r="AH86" s="2"/>
+      <c r="AG86" s="2"/>
+      <c r="AH86" s="27"/>
       <c r="AI86" s="2"/>
-      <c r="AJ86" s="2"/>
       <c r="AK86" s="2"/>
       <c r="AL86" s="2"/>
       <c r="AM86" s="2"/>
@@ -11241,37 +11223,37 @@
       <c r="CM86" s="2"/>
       <c r="CN86" s="2"/>
     </row>
-    <row r="87" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
       <c r="D87" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E87" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>800</v>
       </c>
       <c r="F87" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G87" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87" s="32">
-        <f>netEx_quarter4+totalProduction1H_quarter4+totalProduction15M_quarter4+negGridLossQuarter4</f>
-        <v>6.2230000000000008</v>
+        <f ca="1">netEx_quarter4+totalProduction1H_quarter4+totalProduction15M_quarter4+negGridLossQuarter4</f>
+        <v>6.5020000000000007</v>
       </c>
       <c r="I87" s="27" t="str">
-        <f t="shared" si="27"/>
-        <v>6.223</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>6.502</v>
       </c>
       <c r="J87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="U87" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V87" s="26" cm="1">
-        <f t="array" aca="1" ref="V87" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U87&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U87&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V87" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U87&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U87&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W87" s="16">
@@ -11287,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA87" s="2"/>
@@ -11357,10 +11339,10 @@
       <c r="CM87" s="2"/>
       <c r="CN87" s="2"/>
     </row>
-    <row r="88" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C88" s="2"/>
       <c r="E88" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F88" s="52"/>
       <c r="G88" s="52"/>
@@ -11370,10 +11352,10 @@
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
       <c r="U88" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V88" s="26" cm="1">
-        <f t="array" aca="1" ref="V88" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U88&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U88&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V88" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U88&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U88&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W88" s="16">
@@ -11389,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA88" s="2"/>
@@ -11459,7 +11441,7 @@
       <c r="CM88" s="2"/>
       <c r="CN88" s="2"/>
     </row>
-    <row r="89" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C89" s="2"/>
       <c r="D89" s="4" t="s">
         <v>20</v>
@@ -11477,16 +11459,16 @@
         <v>2</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="U89" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V89" s="26" cm="1">
-        <f t="array" aca="1" ref="V89" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U89&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U89&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V89" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U89&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U89&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W89" s="16">
@@ -11502,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA89" s="2"/>
@@ -11572,13 +11554,13 @@
       <c r="CM89" s="2"/>
       <c r="CN89" s="2"/>
     </row>
-    <row r="90" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
       <c r="D90" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E90" s="31" t="str">
-        <f t="shared" ref="E90:E113" si="29">IF(AND(ROW()&lt;86+(COUNTA(AH$2:AH$21)*4),ROW()&gt;89),$AH$2,"")</f>
+        <f>IF(ROW()&lt;90+(COUNTA(AH$3:AH$21)*4),$AD$2,"")</f>
         <v>800</v>
       </c>
       <c r="F90" s="31" t="str">
@@ -11594,7 +11576,7 @@
         <v>10</v>
       </c>
       <c r="I90" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I90" ca="1">IF(E90="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I90" ca="1">IF(E90="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>801</v>
       </c>
       <c r="J90" s="27" t="str">
@@ -11604,14 +11586,14 @@
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="U90" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V90" s="26" cm="1">
-        <f t="array" aca="1" ref="V90" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U90&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U90&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V90" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U90&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U90&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W90" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$4)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$4))/4</f>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$4)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$4))/4</f>
         <v>5.00075</v>
       </c>
       <c r="X90" s="16">
@@ -11620,7 +11602,7 @@
       </c>
       <c r="Y90" s="16"/>
       <c r="Z90" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.0010000000000003</v>
       </c>
       <c r="AA90" s="2"/>
@@ -11690,41 +11672,41 @@
       <c r="CM90" s="2"/>
       <c r="CN90" s="2"/>
     </row>
-    <row r="91" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
       <c r="D91" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E91" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="E91:E113" si="30">IF(ROW()&lt;90+(COUNTA(AH$3:AH$21)*4),$AD$2,"")</f>
         <v>800</v>
       </c>
       <c r="F91" s="31" t="str">
-        <f t="shared" ref="F91:F113" si="30">IF(E91&lt;&gt;"","null","")</f>
+        <f t="shared" ref="F91:F113" si="31">IF(E91&lt;&gt;"","null","")</f>
         <v>null</v>
       </c>
       <c r="G91" s="31" t="str">
-        <f t="shared" ref="G91:G113" si="31">IF(E91&lt;&gt;"","null","")</f>
+        <f t="shared" ref="G91:G113" si="32">IF(E91&lt;&gt;"","null","")</f>
         <v>null</v>
       </c>
       <c r="H91" s="32">
-        <f t="shared" ref="H91:H113" ca="1" si="32">IF(E91="","",V87+Z87)</f>
+        <f t="shared" ref="H91:H113" ca="1" si="33">IF(E91="","",V87+Z87)</f>
         <v>0</v>
       </c>
       <c r="I91" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I91" ca="1">IF(E91="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I91" ca="1">IF(E91="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>801</v>
       </c>
       <c r="J91" s="27" t="str">
-        <f t="shared" ref="J91:J113" ca="1" si="33">IFERROR(SUBSTITUTE(ROUND(H91,3),",","."),"")</f>
+        <f t="shared" ref="J91:J113" ca="1" si="34">IFERROR(SUBSTITUTE(ROUND(H91,3),",","."),"")</f>
         <v>0</v>
       </c>
       <c r="R91" s="2"/>
       <c r="U91" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V91" s="26" cm="1">
-        <f t="array" aca="1" ref="V91" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U91&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U91&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V91" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U91&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U91&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W91" s="16">
@@ -11740,7 +11722,7 @@
         <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Z91" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.0010000000000003</v>
       </c>
       <c r="AA91" s="2"/>
@@ -11810,40 +11792,40 @@
       <c r="CM91" s="2"/>
       <c r="CN91" s="2"/>
     </row>
-    <row r="92" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="D92" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E92" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F92" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G92" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G92" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H92" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I92" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I92" ca="1">IF(E92="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>801</v>
-      </c>
-      <c r="J92" s="27" t="str">
         <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
+      <c r="I92" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I92" ca="1">IF(E92="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>801</v>
+      </c>
+      <c r="J92" s="27" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
+      </c>
       <c r="U92" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V92" s="26" cm="1">
-        <f t="array" aca="1" ref="V92" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U92&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U92&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V92" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U92&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U92&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W92" s="16">
@@ -11859,7 +11841,7 @@
         <v>-2.5000000000030553E-4</v>
       </c>
       <c r="Z92" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="AA92" s="2"/>
@@ -11929,40 +11911,40 @@
       <c r="CM92" s="2"/>
       <c r="CN92" s="2"/>
     </row>
-    <row r="93" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="D93" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E93" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F93" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G93" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G93" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H93" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I93" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I93" ca="1">IF(E93="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>801</v>
-      </c>
-      <c r="J93" s="27" t="str">
         <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
+      <c r="I93" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I93" ca="1">IF(E93="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>801</v>
+      </c>
+      <c r="J93" s="27" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
+      </c>
       <c r="U93" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V93" s="26" cm="1">
-        <f t="array" aca="1" ref="V93" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U93&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U93&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V93" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U93&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U93&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W93" s="16">
@@ -11978,7 +11960,7 @@
         <v>7.5000000000002842E-4</v>
       </c>
       <c r="Z93" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.0010000000000003</v>
       </c>
       <c r="AA93" s="2"/>
@@ -12048,44 +12030,44 @@
       <c r="CM93" s="2"/>
       <c r="CN93" s="2"/>
     </row>
-    <row r="94" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
       <c r="D94" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E94" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F94" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G94" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G94" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H94" s="32">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>5.0010000000000003</v>
       </c>
       <c r="I94" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I94" ca="1">IF(E94="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I94" ca="1">IF(E94="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>802</v>
       </c>
       <c r="J94" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>5.001</v>
       </c>
       <c r="U94" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V94" s="26" cm="1">
-        <f t="array" aca="1" ref="V94" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U94&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U94&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V94" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U94&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U94&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>-5</v>
       </c>
       <c r="W94" s="6">
-        <f>SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$5)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$5)/4</f>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$5)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$5))/4</f>
         <v>0</v>
       </c>
       <c r="X94" s="16">
@@ -12094,7 +12076,7 @@
       </c>
       <c r="Y94" s="16"/>
       <c r="Z94" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA94" s="2"/>
@@ -12164,40 +12146,40 @@
       <c r="CM94" s="2"/>
       <c r="CN94" s="2"/>
     </row>
-    <row r="95" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
       <c r="D95" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E95" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F95" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G95" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G95" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H95" s="32">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>5.0010000000000003</v>
       </c>
       <c r="I95" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I95" ca="1">IF(E95="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I95" ca="1">IF(E95="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>802</v>
       </c>
       <c r="J95" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>5.001</v>
       </c>
       <c r="U95" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V95" s="26" cm="1">
-        <f t="array" aca="1" ref="V95" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U95&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U95&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V95" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U95&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U95&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W95" s="16">
@@ -12213,7 +12195,7 @@
         <v>0</v>
       </c>
       <c r="Z95" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA95" s="2"/>
@@ -12283,40 +12265,40 @@
       <c r="CM95" s="2"/>
       <c r="CN95" s="2"/>
     </row>
-    <row r="96" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
       <c r="D96" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E96" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F96" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G96" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G96" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H96" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>5</v>
-      </c>
-      <c r="I96" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I96" ca="1">IF(E96="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>802</v>
-      </c>
-      <c r="J96" s="27" t="str">
         <f t="shared" ca="1" si="33"/>
         <v>5</v>
       </c>
+      <c r="I96" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I96" ca="1">IF(E96="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>802</v>
+      </c>
+      <c r="J96" s="27" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>5</v>
+      </c>
       <c r="U96" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V96" s="26" cm="1">
-        <f t="array" aca="1" ref="V96" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U96&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U96&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V96" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U96&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U96&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W96" s="16">
@@ -12332,7 +12314,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA96" s="2"/>
@@ -12402,40 +12384,40 @@
       <c r="CM96" s="2"/>
       <c r="CN96" s="2"/>
     </row>
-    <row r="97" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
       <c r="D97" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E97" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F97" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G97" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G97" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H97" s="32">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>5.0010000000000003</v>
       </c>
       <c r="I97" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I97" ca="1">IF(E97="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I97" ca="1">IF(E97="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v>802</v>
       </c>
       <c r="J97" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>5.001</v>
       </c>
       <c r="U97" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V97" s="26" cm="1">
-        <f t="array" aca="1" ref="V97" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U97&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U97&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V97" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U97&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U97&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W97" s="16">
@@ -12451,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="Z97" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA97" s="2"/>
@@ -12521,54 +12503,54 @@
       <c r="CM97" s="2"/>
       <c r="CN97" s="2"/>
     </row>
-    <row r="98" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
       <c r="D98" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E98" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F98" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G98" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G98" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H98" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>-5</v>
-      </c>
-      <c r="I98" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I98" ca="1">IF(E98="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>803</v>
-      </c>
-      <c r="J98" s="27" t="str">
         <f t="shared" ca="1" si="33"/>
         <v>-5</v>
       </c>
+      <c r="I98" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I98" ca="1">IF(E98="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>803</v>
+      </c>
+      <c r="J98" s="27" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>-5</v>
+      </c>
       <c r="U98" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V98" s="26" cm="1">
-        <f t="array" aca="1" ref="V98" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U98&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U98&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V98" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U98&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U98&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W98" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$6)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$6))/4</f>
-        <v>-0.27925</v>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$6)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$6))/4</f>
+        <v>0</v>
       </c>
       <c r="X98" s="16">
         <f>W98</f>
-        <v>-0.27925</v>
+        <v>0</v>
       </c>
       <c r="Y98" s="16"/>
       <c r="Z98" s="16">
-        <f t="shared" si="28"/>
-        <v>-0.27900000000000003</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
@@ -12637,57 +12619,57 @@
       <c r="CM98" s="2"/>
       <c r="CN98" s="2"/>
     </row>
-    <row r="99" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
       <c r="D99" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E99" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F99" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G99" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G99" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H99" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I99" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I99" ca="1">IF(E99="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>803</v>
-      </c>
-      <c r="J99" s="27" t="str">
         <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
+      <c r="I99" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I99" ca="1">IF(E99="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>803</v>
+      </c>
+      <c r="J99" s="27" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
+      </c>
       <c r="U99" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V99" s="26" cm="1">
-        <f t="array" aca="1" ref="V99" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U99&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U99&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V99" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U99&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U99&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W99" s="16">
         <f>W$98</f>
-        <v>-0.27925</v>
+        <v>0</v>
       </c>
       <c r="X99" s="16">
         <f>Y99+X98</f>
-        <v>-0.27949999999999997</v>
+        <v>0</v>
       </c>
       <c r="Y99" s="16">
         <f>W99-Z98</f>
-        <v>-2.4999999999997247E-4</v>
+        <v>0</v>
       </c>
       <c r="Z99" s="16">
-        <f t="shared" si="28"/>
-        <v>-0.28000000000000003</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
@@ -12756,57 +12738,57 @@
       <c r="CM99" s="2"/>
       <c r="CN99" s="2"/>
     </row>
-    <row r="100" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
       <c r="D100" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E100" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F100" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G100" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G100" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H100" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I100" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I100" ca="1">IF(E100="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>803</v>
-      </c>
-      <c r="J100" s="27" t="str">
         <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
+      <c r="I100" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I100" ca="1">IF(E100="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>803</v>
+      </c>
+      <c r="J100" s="27" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
+      </c>
       <c r="U100" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V100" s="26" cm="1">
-        <f t="array" aca="1" ref="V100" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U100&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U100&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V100" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U100&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U100&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W100" s="16">
         <f>W$98</f>
-        <v>-0.27925</v>
+        <v>0</v>
       </c>
       <c r="X100" s="16">
         <f>Y100+X99</f>
-        <v>-0.27874999999999994</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="16">
         <f>W100-Z99</f>
-        <v>7.5000000000002842E-4</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="16">
-        <f t="shared" si="28"/>
-        <v>-0.27900000000000003</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
@@ -12875,57 +12857,57 @@
       <c r="CM100" s="2"/>
       <c r="CN100" s="2"/>
     </row>
-    <row r="101" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="D101" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E101" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F101" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G101" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G101" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H101" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I101" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I101" ca="1">IF(E101="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>803</v>
-      </c>
-      <c r="J101" s="27" t="str">
         <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
+      <c r="I101" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I101" ca="1">IF(E101="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>803</v>
+      </c>
+      <c r="J101" s="27" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
+      </c>
       <c r="U101" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V101" s="26" cm="1">
-        <f t="array" aca="1" ref="V101" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U101&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U101&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V101" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U101&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U101&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W101" s="16">
         <f>W$98</f>
-        <v>-0.27925</v>
+        <v>0</v>
       </c>
       <c r="X101" s="16">
         <f>Y101+X100</f>
-        <v>-0.27899999999999991</v>
+        <v>0</v>
       </c>
       <c r="Y101" s="16">
         <f>W101-Z100</f>
-        <v>-2.4999999999997247E-4</v>
+        <v>0</v>
       </c>
       <c r="Z101" s="16">
-        <f t="shared" si="28"/>
-        <v>-0.27900000000000003</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
@@ -12994,44 +12976,44 @@
       <c r="CM101" s="2"/>
       <c r="CN101" s="2"/>
     </row>
-    <row r="102" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E102" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F102" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G102" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G102" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H102" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>-0.27900000000000003</v>
-      </c>
-      <c r="I102" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I102" ca="1">IF(E102="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="32" cm="1">
+        <f t="array" aca="1" ref="I102" ca="1">IF(E102="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>0</v>
       </c>
       <c r="J102" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>-0.279</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
       <c r="U102" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V102" s="26" cm="1">
-        <f t="array" aca="1" ref="V102" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U102&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U102&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V102" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U102&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U102&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W102" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$7)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$7))/4</f>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$7)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$7))/4</f>
         <v>0</v>
       </c>
       <c r="X102" s="16">
@@ -13040,7 +13022,7 @@
       </c>
       <c r="Y102" s="16"/>
       <c r="Z102" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA102" s="2"/>
@@ -13110,40 +13092,40 @@
       <c r="CM102" s="2"/>
       <c r="CN102" s="2"/>
     </row>
-    <row r="103" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E103" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F103" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G103" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G103" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H103" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="I103" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I103" ca="1">IF(E103="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I103" s="32" cm="1">
+        <f t="array" aca="1" ref="I103" ca="1">IF(E103="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>0</v>
       </c>
       <c r="J103" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>-0.28</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
       <c r="U103" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V103" s="26" cm="1">
-        <f t="array" aca="1" ref="V103" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U103&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U103&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V103" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U103&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U103&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W103" s="16">
@@ -13159,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="Z103" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA103" s="2"/>
@@ -13229,40 +13211,40 @@
       <c r="CM103" s="2"/>
       <c r="CN103" s="2"/>
     </row>
-    <row r="104" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E104" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F104" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G104" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G104" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H104" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>-0.27900000000000003</v>
-      </c>
-      <c r="I104" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I104" ca="1">IF(E104="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="32" cm="1">
+        <f t="array" aca="1" ref="I104" ca="1">IF(E104="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>0</v>
       </c>
       <c r="J104" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>-0.279</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
       <c r="U104" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V104" s="26" cm="1">
-        <f t="array" aca="1" ref="V104" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U104&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U104&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V104" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U104&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U104&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W104" s="16">
@@ -13278,7 +13260,7 @@
         <v>0</v>
       </c>
       <c r="Z104" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA104" s="2"/>
@@ -13348,40 +13330,40 @@
       <c r="CM104" s="2"/>
       <c r="CN104" s="2"/>
     </row>
-    <row r="105" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E105" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F105" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G105" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G105" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H105" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>-0.27900000000000003</v>
-      </c>
-      <c r="I105" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I105" ca="1">IF(E105="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="32" cm="1">
+        <f t="array" aca="1" ref="I105" ca="1">IF(E105="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>0</v>
       </c>
       <c r="J105" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>-0.279</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
       <c r="U105" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V105" s="26" cm="1">
-        <f t="array" aca="1" ref="V105" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U105&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U105&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V105" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U105&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U105&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W105" s="16">
@@ -13397,7 +13379,7 @@
         <v>0</v>
       </c>
       <c r="Z105" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA105" s="2"/>
@@ -13467,44 +13449,44 @@
       <c r="CM105" s="2"/>
       <c r="CN105" s="2"/>
     </row>
-    <row r="106" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E106" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F106" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G106" s="31" t="str">
+      <c r="F106" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H106" s="32" t="str">
+      <c r="G106" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I106" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I106" ca="1">IF(E106="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J106" s="27" t="str">
+      <c r="H106" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I106" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I106" ca="1">IF(E106="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J106" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U106" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V106" s="26" cm="1">
-        <f t="array" aca="1" ref="V106" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U106&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U106&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V106" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U106&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U106&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W106" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$8)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$8))/4</f>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$8)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$8))/4</f>
         <v>0</v>
       </c>
       <c r="X106" s="16">
@@ -13513,7 +13495,7 @@
       </c>
       <c r="Y106" s="16"/>
       <c r="Z106" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA106" s="2"/>
@@ -13583,40 +13565,40 @@
       <c r="CM106" s="2"/>
       <c r="CN106" s="2"/>
     </row>
-    <row r="107" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E107" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F107" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G107" s="31" t="str">
+      <c r="F107" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H107" s="32" t="str">
+      <c r="G107" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I107" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I107" ca="1">IF(E107="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J107" s="27" t="str">
+      <c r="H107" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I107" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I107" ca="1">IF(E107="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J107" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U107" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V107" s="26" cm="1">
-        <f t="array" aca="1" ref="V107" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U107&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U107&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V107" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U107&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U107&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W107" s="16">
@@ -13632,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="Z107" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA107" s="2"/>
@@ -13702,40 +13684,40 @@
       <c r="CM107" s="2"/>
       <c r="CN107" s="2"/>
     </row>
-    <row r="108" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E108" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F108" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G108" s="31" t="str">
+      <c r="F108" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H108" s="32" t="str">
+      <c r="G108" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I108" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I108" ca="1">IF(E108="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J108" s="27" t="str">
+      <c r="H108" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I108" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I108" ca="1">IF(E108="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J108" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U108" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V108" s="26" cm="1">
-        <f t="array" aca="1" ref="V108" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U108&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U108&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V108" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U108&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U108&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W108" s="16">
@@ -13751,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="Z108" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA108" s="2"/>
@@ -13821,40 +13803,40 @@
       <c r="CM108" s="2"/>
       <c r="CN108" s="2"/>
     </row>
-    <row r="109" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E109" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F109" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G109" s="31" t="str">
+      <c r="F109" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H109" s="32" t="str">
+      <c r="G109" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I109" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I109" ca="1">IF(E109="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J109" s="27" t="str">
+      <c r="H109" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I109" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I109" ca="1">IF(E109="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J109" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U109" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V109" s="26" cm="1">
-        <f t="array" aca="1" ref="V109" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U109&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U109&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V109" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U109&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U109&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W109" s="16">
@@ -13870,7 +13852,7 @@
         <v>0</v>
       </c>
       <c r="Z109" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA109" s="2"/>
@@ -13940,33 +13922,33 @@
       <c r="CM109" s="2"/>
       <c r="CN109" s="2"/>
     </row>
-    <row r="110" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E110" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F110" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G110" s="31" t="str">
+      <c r="F110" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H110" s="32" t="str">
+      <c r="G110" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
+      <c r="H110" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="I110" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I110" ca="1">IF(E110="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I110" ca="1">IF(E110="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
       <c r="J110" s="27" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K110" s="2"/>
@@ -14052,33 +14034,33 @@
       <c r="CM110" s="2"/>
       <c r="CN110" s="2"/>
     </row>
-    <row r="111" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E111" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F111" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G111" s="31" t="str">
+      <c r="F111" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H111" s="32" t="str">
+      <c r="G111" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
+      <c r="H111" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="I111" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I111" ca="1">IF(E111="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I111" ca="1">IF(E111="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
       <c r="J111" s="27" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K111" s="2"/>
@@ -14164,33 +14146,33 @@
       <c r="CM111" s="2"/>
       <c r="CN111" s="2"/>
     </row>
-    <row r="112" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="D112" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E112" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F112" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G112" s="31" t="str">
+      <c r="F112" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H112" s="32" t="str">
+      <c r="G112" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
+      <c r="H112" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="I112" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I112" ca="1">IF(E112="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I112" ca="1">IF(E112="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
       <c r="J112" s="27" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K112" s="2"/>
@@ -14276,33 +14258,33 @@
       <c r="CM112" s="2"/>
       <c r="CN112" s="2"/>
     </row>
-    <row r="113" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="D113" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E113" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F113" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G113" s="31" t="str">
+      <c r="F113" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H113" s="32" t="str">
+      <c r="G113" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
+      <c r="H113" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="I113" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I113" ca="1">IF(E113="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I113" ca="1">IF(E113="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
       <c r="J113" s="27" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K113" s="2"/>
@@ -14388,7 +14370,7 @@
       <c r="CM113" s="2"/>
       <c r="CN113" s="2"/>
     </row>
-    <row r="114" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -14478,7 +14460,7 @@
       <c r="CM114" s="2"/>
       <c r="CN114" s="2"/>
     </row>
-    <row r="115" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -14568,7 +14550,7 @@
       <c r="CM115" s="2"/>
       <c r="CN115" s="2"/>
     </row>
-    <row r="116" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -14658,7 +14640,7 @@
       <c r="CM116" s="2"/>
       <c r="CN116" s="2"/>
     </row>
-    <row r="117" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -14748,7 +14730,7 @@
       <c r="CM117" s="2"/>
       <c r="CN117" s="2"/>
     </row>
-    <row r="118" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -14840,7 +14822,7 @@
       <c r="CM118" s="2"/>
       <c r="CN118" s="2"/>
     </row>
-    <row r="119" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -14932,7 +14914,7 @@
       <c r="CM119" s="2"/>
       <c r="CN119" s="2"/>
     </row>
-    <row r="120" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -15024,7 +15006,7 @@
       <c r="CM120" s="2"/>
       <c r="CN120" s="2"/>
     </row>
-    <row r="121" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -15116,7 +15098,7 @@
       <c r="CM121" s="2"/>
       <c r="CN121" s="2"/>
     </row>
-    <row r="122" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -15208,7 +15190,7 @@
       <c r="CM122" s="2"/>
       <c r="CN122" s="2"/>
     </row>
-    <row r="123" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -15300,7 +15282,7 @@
       <c r="CM123" s="2"/>
       <c r="CN123" s="2"/>
     </row>
-    <row r="124" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -15392,7 +15374,7 @@
       <c r="CM124" s="2"/>
       <c r="CN124" s="2"/>
     </row>
-    <row r="125" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -15484,7 +15466,7 @@
       <c r="CM125" s="2"/>
       <c r="CN125" s="2"/>
     </row>
-    <row r="126" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -15576,7 +15558,7 @@
       <c r="CM126" s="2"/>
       <c r="CN126" s="2"/>
     </row>
-    <row r="127" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -15668,7 +15650,7 @@
       <c r="CM127" s="2"/>
       <c r="CN127" s="2"/>
     </row>
-    <row r="128" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -15760,7 +15742,7 @@
       <c r="CM128" s="2"/>
       <c r="CN128" s="2"/>
     </row>
-    <row r="129" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -15852,7 +15834,7 @@
       <c r="CM129" s="2"/>
       <c r="CN129" s="2"/>
     </row>
-    <row r="130" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -15944,7 +15926,7 @@
       <c r="CM130" s="2"/>
       <c r="CN130" s="2"/>
     </row>
-    <row r="131" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -16036,7 +16018,7 @@
       <c r="CM131" s="2"/>
       <c r="CN131" s="2"/>
     </row>
-    <row r="132" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -16128,7 +16110,7 @@
       <c r="CM132" s="2"/>
       <c r="CN132" s="2"/>
     </row>
-    <row r="133" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -16220,7 +16202,7 @@
       <c r="CM133" s="2"/>
       <c r="CN133" s="2"/>
     </row>
-    <row r="134" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -16312,7 +16294,7 @@
       <c r="CM134" s="2"/>
       <c r="CN134" s="2"/>
     </row>
-    <row r="135" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -16404,7 +16386,7 @@
       <c r="CM135" s="2"/>
       <c r="CN135" s="2"/>
     </row>
-    <row r="136" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -16496,7 +16478,7 @@
       <c r="CM136" s="2"/>
       <c r="CN136" s="2"/>
     </row>
-    <row r="137" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -16588,7 +16570,7 @@
       <c r="CM137" s="2"/>
       <c r="CN137" s="2"/>
     </row>
-    <row r="138" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -16680,7 +16662,7 @@
       <c r="CM138" s="2"/>
       <c r="CN138" s="2"/>
     </row>
-    <row r="139" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -16772,7 +16754,7 @@
       <c r="CM139" s="2"/>
       <c r="CN139" s="2"/>
     </row>
-    <row r="140" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -16864,7 +16846,7 @@
       <c r="CM140" s="2"/>
       <c r="CN140" s="2"/>
     </row>
-    <row r="141" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -16956,7 +16938,7 @@
       <c r="CM141" s="2"/>
       <c r="CN141" s="2"/>
     </row>
-    <row r="142" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -17048,7 +17030,7 @@
       <c r="CM142" s="2"/>
       <c r="CN142" s="2"/>
     </row>
-    <row r="143" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -17140,7 +17122,7 @@
       <c r="CM143" s="2"/>
       <c r="CN143" s="2"/>
     </row>
-    <row r="144" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -17232,7 +17214,7 @@
       <c r="CM144" s="2"/>
       <c r="CN144" s="2"/>
     </row>
-    <row r="145" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -17324,7 +17306,7 @@
       <c r="CM145" s="2"/>
       <c r="CN145" s="2"/>
     </row>
-    <row r="146" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -17416,7 +17398,7 @@
       <c r="CM146" s="2"/>
       <c r="CN146" s="2"/>
     </row>
-    <row r="147" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -17508,7 +17490,7 @@
       <c r="CM147" s="2"/>
       <c r="CN147" s="2"/>
     </row>
-    <row r="148" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -17600,7 +17582,7 @@
       <c r="CM148" s="2"/>
       <c r="CN148" s="2"/>
     </row>
-    <row r="149" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -17692,7 +17674,7 @@
       <c r="CM149" s="2"/>
       <c r="CN149" s="2"/>
     </row>
-    <row r="150" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -17784,7 +17766,7 @@
       <c r="CM150" s="2"/>
       <c r="CN150" s="2"/>
     </row>
-    <row r="151" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -17876,7 +17858,7 @@
       <c r="CM151" s="2"/>
       <c r="CN151" s="2"/>
     </row>
-    <row r="152" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -17968,7 +17950,7 @@
       <c r="CM152" s="2"/>
       <c r="CN152" s="2"/>
     </row>
-    <row r="153" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -18060,7 +18042,7 @@
       <c r="CM153" s="2"/>
       <c r="CN153" s="2"/>
     </row>
-    <row r="154" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -18152,7 +18134,7 @@
       <c r="CM154" s="2"/>
       <c r="CN154" s="2"/>
     </row>
-    <row r="155" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -18244,7 +18226,7 @@
       <c r="CM155" s="2"/>
       <c r="CN155" s="2"/>
     </row>
-    <row r="156" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -18336,7 +18318,7 @@
       <c r="CM156" s="2"/>
       <c r="CN156" s="2"/>
     </row>
-    <row r="157" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -18428,7 +18410,7 @@
       <c r="CM157" s="2"/>
       <c r="CN157" s="2"/>
     </row>
-    <row r="158" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -18520,7 +18502,7 @@
       <c r="CM158" s="2"/>
       <c r="CN158" s="2"/>
     </row>
-    <row r="159" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -18612,7 +18594,7 @@
       <c r="CM159" s="2"/>
       <c r="CN159" s="2"/>
     </row>
-    <row r="160" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -18704,7 +18686,7 @@
       <c r="CM160" s="2"/>
       <c r="CN160" s="2"/>
     </row>
-    <row r="161" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -18796,7 +18778,7 @@
       <c r="CM161" s="2"/>
       <c r="CN161" s="2"/>
     </row>
-    <row r="162" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -18888,7 +18870,7 @@
       <c r="CM162" s="2"/>
       <c r="CN162" s="2"/>
     </row>
-    <row r="163" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -18980,7 +18962,7 @@
       <c r="CM163" s="2"/>
       <c r="CN163" s="2"/>
     </row>
-    <row r="164" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -19072,7 +19054,7 @@
       <c r="CM164" s="2"/>
       <c r="CN164" s="2"/>
     </row>
-    <row r="165" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -19164,7 +19146,7 @@
       <c r="CM165" s="2"/>
       <c r="CN165" s="2"/>
     </row>
-    <row r="166" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -19256,7 +19238,7 @@
       <c r="CM166" s="2"/>
       <c r="CN166" s="2"/>
     </row>
-    <row r="167" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -19348,7 +19330,7 @@
       <c r="CM167" s="2"/>
       <c r="CN167" s="2"/>
     </row>
-    <row r="168" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -19440,7 +19422,7 @@
       <c r="CM168" s="2"/>
       <c r="CN168" s="2"/>
     </row>
-    <row r="169" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -19532,7 +19514,7 @@
       <c r="CM169" s="2"/>
       <c r="CN169" s="2"/>
     </row>
-    <row r="170" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -19624,7 +19606,7 @@
       <c r="CM170" s="2"/>
       <c r="CN170" s="2"/>
     </row>
-    <row r="171" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -19716,7 +19698,7 @@
       <c r="CM171" s="2"/>
       <c r="CN171" s="2"/>
     </row>
-    <row r="172" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -19808,7 +19790,7 @@
       <c r="CM172" s="2"/>
       <c r="CN172" s="2"/>
     </row>
-    <row r="173" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -19900,7 +19882,7 @@
       <c r="CM173" s="2"/>
       <c r="CN173" s="2"/>
     </row>
-    <row r="174" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -19992,7 +19974,7 @@
       <c r="CM174" s="2"/>
       <c r="CN174" s="2"/>
     </row>
-    <row r="175" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -20084,7 +20066,7 @@
       <c r="CM175" s="2"/>
       <c r="CN175" s="2"/>
     </row>
-    <row r="176" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -20176,7 +20158,7 @@
       <c r="CM176" s="2"/>
       <c r="CN176" s="2"/>
     </row>
-    <row r="177" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -20268,7 +20250,7 @@
       <c r="CM177" s="2"/>
       <c r="CN177" s="2"/>
     </row>
-    <row r="178" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -20360,7 +20342,7 @@
       <c r="CM178" s="2"/>
       <c r="CN178" s="2"/>
     </row>
-    <row r="179" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -20452,7 +20434,7 @@
       <c r="CM179" s="2"/>
       <c r="CN179" s="2"/>
     </row>
-    <row r="180" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -20544,7 +20526,7 @@
       <c r="CM180" s="2"/>
       <c r="CN180" s="2"/>
     </row>
-    <row r="181" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -20636,7 +20618,7 @@
       <c r="CM181" s="2"/>
       <c r="CN181" s="2"/>
     </row>
-    <row r="182" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -20728,7 +20710,7 @@
       <c r="CM182" s="2"/>
       <c r="CN182" s="2"/>
     </row>
-    <row r="183" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -20820,7 +20802,7 @@
       <c r="CM183" s="2"/>
       <c r="CN183" s="2"/>
     </row>
-    <row r="184" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -20912,7 +20894,7 @@
       <c r="CM184" s="2"/>
       <c r="CN184" s="2"/>
     </row>
-    <row r="185" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -21004,7 +20986,7 @@
       <c r="CM185" s="2"/>
       <c r="CN185" s="2"/>
     </row>
-    <row r="186" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -21096,7 +21078,7 @@
       <c r="CM186" s="2"/>
       <c r="CN186" s="2"/>
     </row>
-    <row r="187" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -21188,7 +21170,7 @@
       <c r="CM187" s="2"/>
       <c r="CN187" s="2"/>
     </row>
-    <row r="188" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -21280,7 +21262,7 @@
       <c r="CM188" s="2"/>
       <c r="CN188" s="2"/>
     </row>
-    <row r="189" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -21372,7 +21354,7 @@
       <c r="CM189" s="2"/>
       <c r="CN189" s="2"/>
     </row>
-    <row r="190" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -21464,7 +21446,7 @@
       <c r="CM190" s="2"/>
       <c r="CN190" s="2"/>
     </row>
-    <row r="191" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -21556,7 +21538,7 @@
       <c r="CM191" s="2"/>
       <c r="CN191" s="2"/>
     </row>
-    <row r="192" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -21648,7 +21630,7 @@
       <c r="CM192" s="2"/>
       <c r="CN192" s="2"/>
     </row>
-    <row r="193" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -21740,7 +21722,7 @@
       <c r="CM193" s="2"/>
       <c r="CN193" s="2"/>
     </row>
-    <row r="194" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -21832,7 +21814,7 @@
       <c r="CM194" s="2"/>
       <c r="CN194" s="2"/>
     </row>
-    <row r="195" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -21924,7 +21906,7 @@
       <c r="CM195" s="2"/>
       <c r="CN195" s="2"/>
     </row>
-    <row r="196" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -22016,7 +21998,7 @@
       <c r="CM196" s="2"/>
       <c r="CN196" s="2"/>
     </row>
-    <row r="197" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -22108,7 +22090,7 @@
       <c r="CM197" s="2"/>
       <c r="CN197" s="2"/>
     </row>
-    <row r="198" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -22200,7 +22182,7 @@
       <c r="CM198" s="2"/>
       <c r="CN198" s="2"/>
     </row>
-    <row r="199" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -22292,7 +22274,7 @@
       <c r="CM199" s="2"/>
       <c r="CN199" s="2"/>
     </row>
-    <row r="200" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -22384,7 +22366,7 @@
       <c r="CM200" s="2"/>
       <c r="CN200" s="2"/>
     </row>
-    <row r="201" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -22476,7 +22458,7 @@
       <c r="CM201" s="2"/>
       <c r="CN201" s="2"/>
     </row>
-    <row r="202" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -22568,7 +22550,7 @@
       <c r="CM202" s="2"/>
       <c r="CN202" s="2"/>
     </row>
-    <row r="203" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -22660,7 +22642,7 @@
       <c r="CM203" s="2"/>
       <c r="CN203" s="2"/>
     </row>
-    <row r="204" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -22752,7 +22734,7 @@
       <c r="CM204" s="2"/>
       <c r="CN204" s="2"/>
     </row>
-    <row r="205" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -22844,7 +22826,7 @@
       <c r="CM205" s="2"/>
       <c r="CN205" s="2"/>
     </row>
-    <row r="206" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -22936,7 +22918,7 @@
       <c r="CM206" s="2"/>
       <c r="CN206" s="2"/>
     </row>
-    <row r="207" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -23028,7 +23010,7 @@
       <c r="CM207" s="2"/>
       <c r="CN207" s="2"/>
     </row>
-    <row r="208" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -23120,7 +23102,7 @@
       <c r="CM208" s="2"/>
       <c r="CN208" s="2"/>
     </row>
-    <row r="209" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -23212,7 +23194,7 @@
       <c r="CM209" s="2"/>
       <c r="CN209" s="2"/>
     </row>
-    <row r="210" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -23304,7 +23286,7 @@
       <c r="CM210" s="2"/>
       <c r="CN210" s="2"/>
     </row>
-    <row r="211" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -23396,7 +23378,7 @@
       <c r="CM211" s="2"/>
       <c r="CN211" s="2"/>
     </row>
-    <row r="212" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -23488,7 +23470,7 @@
       <c r="CM212" s="2"/>
       <c r="CN212" s="2"/>
     </row>
-    <row r="213" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -23580,7 +23562,7 @@
       <c r="CM213" s="2"/>
       <c r="CN213" s="2"/>
     </row>
-    <row r="214" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -23672,7 +23654,7 @@
       <c r="CM214" s="2"/>
       <c r="CN214" s="2"/>
     </row>
-    <row r="215" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -23764,7 +23746,7 @@
       <c r="CM215" s="2"/>
       <c r="CN215" s="2"/>
     </row>
-    <row r="216" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -23856,7 +23838,7 @@
       <c r="CM216" s="2"/>
       <c r="CN216" s="2"/>
     </row>
-    <row r="217" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -23948,7 +23930,7 @@
       <c r="CM217" s="2"/>
       <c r="CN217" s="2"/>
     </row>
-    <row r="218" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -24040,7 +24022,7 @@
       <c r="CM218" s="2"/>
       <c r="CN218" s="2"/>
     </row>
-    <row r="219" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -24132,7 +24114,7 @@
       <c r="CM219" s="2"/>
       <c r="CN219" s="2"/>
     </row>
-    <row r="220" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -24224,7 +24206,7 @@
       <c r="CM220" s="2"/>
       <c r="CN220" s="2"/>
     </row>
-    <row r="221" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -24316,7 +24298,7 @@
       <c r="CM221" s="2"/>
       <c r="CN221" s="2"/>
     </row>
-    <row r="222" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -24408,7 +24390,7 @@
       <c r="CM222" s="2"/>
       <c r="CN222" s="2"/>
     </row>
-    <row r="223" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -24500,7 +24482,7 @@
       <c r="CM223" s="2"/>
       <c r="CN223" s="2"/>
     </row>
-    <row r="224" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -24592,7 +24574,7 @@
       <c r="CM224" s="2"/>
       <c r="CN224" s="2"/>
     </row>
-    <row r="225" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -24684,7 +24666,7 @@
       <c r="CM225" s="2"/>
       <c r="CN225" s="2"/>
     </row>
-    <row r="226" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -24776,7 +24758,7 @@
       <c r="CM226" s="2"/>
       <c r="CN226" s="2"/>
     </row>
-    <row r="227" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -24868,7 +24850,7 @@
       <c r="CM227" s="2"/>
       <c r="CN227" s="2"/>
     </row>
-    <row r="228" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -24960,7 +24942,7 @@
       <c r="CM228" s="2"/>
       <c r="CN228" s="2"/>
     </row>
-    <row r="229" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -25052,7 +25034,7 @@
       <c r="CM229" s="2"/>
       <c r="CN229" s="2"/>
     </row>
-    <row r="230" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -25144,7 +25126,7 @@
       <c r="CM230" s="2"/>
       <c r="CN230" s="2"/>
     </row>
-    <row r="231" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -25236,7 +25218,7 @@
       <c r="CM231" s="2"/>
       <c r="CN231" s="2"/>
     </row>
-    <row r="232" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -25328,7 +25310,7 @@
       <c r="CM232" s="2"/>
       <c r="CN232" s="2"/>
     </row>
-    <row r="233" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -25420,7 +25402,7 @@
       <c r="CM233" s="2"/>
       <c r="CN233" s="2"/>
     </row>
-    <row r="234" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -25512,7 +25494,7 @@
       <c r="CM234" s="2"/>
       <c r="CN234" s="2"/>
     </row>
-    <row r="235" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -25604,7 +25586,7 @@
       <c r="CM235" s="2"/>
       <c r="CN235" s="2"/>
     </row>
-    <row r="236" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -25696,7 +25678,7 @@
       <c r="CM236" s="2"/>
       <c r="CN236" s="2"/>
     </row>
-    <row r="237" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -25788,7 +25770,7 @@
       <c r="CM237" s="2"/>
       <c r="CN237" s="2"/>
     </row>
-    <row r="238" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -25880,7 +25862,7 @@
       <c r="CM238" s="2"/>
       <c r="CN238" s="2"/>
     </row>
-    <row r="239" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -25972,7 +25954,7 @@
       <c r="CM239" s="2"/>
       <c r="CN239" s="2"/>
     </row>
-    <row r="240" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -26064,7 +26046,7 @@
       <c r="CM240" s="2"/>
       <c r="CN240" s="2"/>
     </row>
-    <row r="241" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="241" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -26156,7 +26138,7 @@
       <c r="CM241" s="2"/>
       <c r="CN241" s="2"/>
     </row>
-    <row r="242" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="242" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -26248,7 +26230,7 @@
       <c r="CM242" s="2"/>
       <c r="CN242" s="2"/>
     </row>
-    <row r="243" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="243" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -26340,7 +26322,7 @@
       <c r="CM243" s="2"/>
       <c r="CN243" s="2"/>
     </row>
-    <row r="244" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="244" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -26432,7 +26414,7 @@
       <c r="CM244" s="2"/>
       <c r="CN244" s="2"/>
     </row>
-    <row r="245" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="245" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -26524,7 +26506,7 @@
       <c r="CM245" s="2"/>
       <c r="CN245" s="2"/>
     </row>
-    <row r="246" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="246" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -26616,7 +26598,7 @@
       <c r="CM246" s="2"/>
       <c r="CN246" s="2"/>
     </row>
-    <row r="247" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="247" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -26708,7 +26690,7 @@
       <c r="CM247" s="2"/>
       <c r="CN247" s="2"/>
     </row>
-    <row r="248" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="248" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -26800,7 +26782,7 @@
       <c r="CM248" s="2"/>
       <c r="CN248" s="2"/>
     </row>
-    <row r="249" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="249" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -26892,7 +26874,7 @@
       <c r="CM249" s="2"/>
       <c r="CN249" s="2"/>
     </row>
-    <row r="250" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="250" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -26984,7 +26966,7 @@
       <c r="CM250" s="2"/>
       <c r="CN250" s="2"/>
     </row>
-    <row r="251" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="251" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -27076,7 +27058,7 @@
       <c r="CM251" s="2"/>
       <c r="CN251" s="2"/>
     </row>
-    <row r="252" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="252" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -27168,7 +27150,7 @@
       <c r="CM252" s="2"/>
       <c r="CN252" s="2"/>
     </row>
-    <row r="253" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="253" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -27260,7 +27242,7 @@
       <c r="CM253" s="2"/>
       <c r="CN253" s="2"/>
     </row>
-    <row r="254" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="254" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -27352,7 +27334,7 @@
       <c r="CM254" s="2"/>
       <c r="CN254" s="2"/>
     </row>
-    <row r="255" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="255" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -27444,7 +27426,7 @@
       <c r="CM255" s="2"/>
       <c r="CN255" s="2"/>
     </row>
-    <row r="256" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="256" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -27536,7 +27518,7 @@
       <c r="CM256" s="2"/>
       <c r="CN256" s="2"/>
     </row>
-    <row r="257" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="257" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -27628,7 +27610,7 @@
       <c r="CM257" s="2"/>
       <c r="CN257" s="2"/>
     </row>
-    <row r="258" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="258" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -27720,7 +27702,7 @@
       <c r="CM258" s="2"/>
       <c r="CN258" s="2"/>
     </row>
-    <row r="259" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="259" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -27812,7 +27794,7 @@
       <c r="CM259" s="2"/>
       <c r="CN259" s="2"/>
     </row>
-    <row r="260" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="260" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -27904,7 +27886,7 @@
       <c r="CM260" s="2"/>
       <c r="CN260" s="2"/>
     </row>
-    <row r="261" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="261" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -27996,7 +27978,7 @@
       <c r="CM261" s="2"/>
       <c r="CN261" s="2"/>
     </row>
-    <row r="262" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="262" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -28088,7 +28070,7 @@
       <c r="CM262" s="2"/>
       <c r="CN262" s="2"/>
     </row>
-    <row r="263" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="263" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -28180,7 +28162,7 @@
       <c r="CM263" s="2"/>
       <c r="CN263" s="2"/>
     </row>
-    <row r="264" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="264" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -28272,7 +28254,7 @@
       <c r="CM264" s="2"/>
       <c r="CN264" s="2"/>
     </row>
-    <row r="265" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="265" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -28364,7 +28346,7 @@
       <c r="CM265" s="2"/>
       <c r="CN265" s="2"/>
     </row>
-    <row r="266" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="266" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -28456,7 +28438,7 @@
       <c r="CM266" s="2"/>
       <c r="CN266" s="2"/>
     </row>
-    <row r="267" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="267" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -28548,7 +28530,7 @@
       <c r="CM267" s="2"/>
       <c r="CN267" s="2"/>
     </row>
-    <row r="268" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="268" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -28640,7 +28622,7 @@
       <c r="CM268" s="2"/>
       <c r="CN268" s="2"/>
     </row>
-    <row r="269" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="269" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -28732,7 +28714,7 @@
       <c r="CM269" s="2"/>
       <c r="CN269" s="2"/>
     </row>
-    <row r="270" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="270" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -28824,7 +28806,7 @@
       <c r="CM270" s="2"/>
       <c r="CN270" s="2"/>
     </row>
-    <row r="271" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="271" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -28916,7 +28898,7 @@
       <c r="CM271" s="2"/>
       <c r="CN271" s="2"/>
     </row>
-    <row r="272" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="272" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -29008,7 +28990,7 @@
       <c r="CM272" s="2"/>
       <c r="CN272" s="2"/>
     </row>
-    <row r="273" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="273" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -29100,7 +29082,7 @@
       <c r="CM273" s="2"/>
       <c r="CN273" s="2"/>
     </row>
-    <row r="274" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="274" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -29192,7 +29174,7 @@
       <c r="CM274" s="2"/>
       <c r="CN274" s="2"/>
     </row>
-    <row r="275" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="275" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -29284,7 +29266,7 @@
       <c r="CM275" s="2"/>
       <c r="CN275" s="2"/>
     </row>
-    <row r="276" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="276" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -29376,7 +29358,7 @@
       <c r="CM276" s="2"/>
       <c r="CN276" s="2"/>
     </row>
-    <row r="277" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="277" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -29468,7 +29450,7 @@
       <c r="CM277" s="2"/>
       <c r="CN277" s="2"/>
     </row>
-    <row r="278" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="278" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -29560,7 +29542,7 @@
       <c r="CM278" s="2"/>
       <c r="CN278" s="2"/>
     </row>
-    <row r="279" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="279" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -29652,7 +29634,7 @@
       <c r="CM279" s="2"/>
       <c r="CN279" s="2"/>
     </row>
-    <row r="280" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="280" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -29744,7 +29726,7 @@
       <c r="CM280" s="2"/>
       <c r="CN280" s="2"/>
     </row>
-    <row r="281" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="281" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -29836,7 +29818,7 @@
       <c r="CM281" s="2"/>
       <c r="CN281" s="2"/>
     </row>
-    <row r="282" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="282" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -29928,7 +29910,7 @@
       <c r="CM282" s="2"/>
       <c r="CN282" s="2"/>
     </row>
-    <row r="283" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="283" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -30020,7 +30002,7 @@
       <c r="CM283" s="2"/>
       <c r="CN283" s="2"/>
     </row>
-    <row r="284" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="284" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -30112,7 +30094,7 @@
       <c r="CM284" s="2"/>
       <c r="CN284" s="2"/>
     </row>
-    <row r="285" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="285" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -30204,7 +30186,7 @@
       <c r="CM285" s="2"/>
       <c r="CN285" s="2"/>
     </row>
-    <row r="286" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="286" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -30296,7 +30278,7 @@
       <c r="CM286" s="2"/>
       <c r="CN286" s="2"/>
     </row>
-    <row r="287" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="287" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -30388,7 +30370,7 @@
       <c r="CM287" s="2"/>
       <c r="CN287" s="2"/>
     </row>
-    <row r="288" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="288" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -30480,7 +30462,7 @@
       <c r="CM288" s="2"/>
       <c r="CN288" s="2"/>
     </row>
-    <row r="289" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="289" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -30572,7 +30554,7 @@
       <c r="CM289" s="2"/>
       <c r="CN289" s="2"/>
     </row>
-    <row r="290" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="290" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -30664,7 +30646,7 @@
       <c r="CM290" s="2"/>
       <c r="CN290" s="2"/>
     </row>
-    <row r="291" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="291" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -30756,7 +30738,7 @@
       <c r="CM291" s="2"/>
       <c r="CN291" s="2"/>
     </row>
-    <row r="292" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="292" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -30848,7 +30830,7 @@
       <c r="CM292" s="2"/>
       <c r="CN292" s="2"/>
     </row>
-    <row r="293" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="293" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -30940,7 +30922,7 @@
       <c r="CM293" s="2"/>
       <c r="CN293" s="2"/>
     </row>
-    <row r="294" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="294" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -31032,7 +31014,7 @@
       <c r="CM294" s="2"/>
       <c r="CN294" s="2"/>
     </row>
-    <row r="295" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="295" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -31124,7 +31106,7 @@
       <c r="CM295" s="2"/>
       <c r="CN295" s="2"/>
     </row>
-    <row r="296" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="296" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -31216,7 +31198,7 @@
       <c r="CM296" s="2"/>
       <c r="CN296" s="2"/>
     </row>
-    <row r="297" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="297" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -31308,7 +31290,7 @@
       <c r="CM297" s="2"/>
       <c r="CN297" s="2"/>
     </row>
-    <row r="298" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="298" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -31400,7 +31382,7 @@
       <c r="CM298" s="2"/>
       <c r="CN298" s="2"/>
     </row>
-    <row r="299" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="299" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -31492,7 +31474,7 @@
       <c r="CM299" s="2"/>
       <c r="CN299" s="2"/>
     </row>
-    <row r="300" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="300" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -31584,7 +31566,7 @@
       <c r="CM300" s="2"/>
       <c r="CN300" s="2"/>
     </row>
-    <row r="301" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="301" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -31676,7 +31658,7 @@
       <c r="CM301" s="2"/>
       <c r="CN301" s="2"/>
     </row>
-    <row r="302" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="302" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -31768,7 +31750,7 @@
       <c r="CM302" s="2"/>
       <c r="CN302" s="2"/>
     </row>
-    <row r="303" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="303" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -31860,7 +31842,7 @@
       <c r="CM303" s="2"/>
       <c r="CN303" s="2"/>
     </row>
-    <row r="304" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="304" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -31952,7 +31934,7 @@
       <c r="CM304" s="2"/>
       <c r="CN304" s="2"/>
     </row>
-    <row r="305" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="305" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -32044,7 +32026,7 @@
       <c r="CM305" s="2"/>
       <c r="CN305" s="2"/>
     </row>
-    <row r="306" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="306" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -32136,7 +32118,7 @@
       <c r="CM306" s="2"/>
       <c r="CN306" s="2"/>
     </row>
-    <row r="307" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="307" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -32228,7 +32210,7 @@
       <c r="CM307" s="2"/>
       <c r="CN307" s="2"/>
     </row>
-    <row r="308" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="308" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -32320,7 +32302,7 @@
       <c r="CM308" s="2"/>
       <c r="CN308" s="2"/>
     </row>
-    <row r="309" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="309" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -32412,7 +32394,7 @@
       <c r="CM309" s="2"/>
       <c r="CN309" s="2"/>
     </row>
-    <row r="310" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="310" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -32504,7 +32486,7 @@
       <c r="CM310" s="2"/>
       <c r="CN310" s="2"/>
     </row>
-    <row r="311" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="311" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -32596,7 +32578,7 @@
       <c r="CM311" s="2"/>
       <c r="CN311" s="2"/>
     </row>
-    <row r="312" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="312" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -32688,7 +32670,7 @@
       <c r="CM312" s="2"/>
       <c r="CN312" s="2"/>
     </row>
-    <row r="313" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="313" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -32780,7 +32762,7 @@
       <c r="CM313" s="2"/>
       <c r="CN313" s="2"/>
     </row>
-    <row r="314" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="314" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -32872,7 +32854,7 @@
       <c r="CM314" s="2"/>
       <c r="CN314" s="2"/>
     </row>
-    <row r="315" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="315" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -32964,7 +32946,7 @@
       <c r="CM315" s="2"/>
       <c r="CN315" s="2"/>
     </row>
-    <row r="316" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="316" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -33056,7 +33038,7 @@
       <c r="CM316" s="2"/>
       <c r="CN316" s="2"/>
     </row>
-    <row r="317" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="317" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -33148,7 +33130,7 @@
       <c r="CM317" s="2"/>
       <c r="CN317" s="2"/>
     </row>
-    <row r="318" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="318" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -33240,7 +33222,7 @@
       <c r="CM318" s="2"/>
       <c r="CN318" s="2"/>
     </row>
-    <row r="319" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="319" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -33332,7 +33314,7 @@
       <c r="CM319" s="2"/>
       <c r="CN319" s="2"/>
     </row>
-    <row r="320" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="320" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -33424,7 +33406,7 @@
       <c r="CM320" s="2"/>
       <c r="CN320" s="2"/>
     </row>
-    <row r="321" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="321" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -33516,7 +33498,7 @@
       <c r="CM321" s="2"/>
       <c r="CN321" s="2"/>
     </row>
-    <row r="322" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="322" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -33608,7 +33590,7 @@
       <c r="CM322" s="2"/>
       <c r="CN322" s="2"/>
     </row>
-    <row r="323" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="323" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -33700,7 +33682,7 @@
       <c r="CM323" s="2"/>
       <c r="CN323" s="2"/>
     </row>
-    <row r="324" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="324" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -33792,7 +33774,7 @@
       <c r="CM324" s="2"/>
       <c r="CN324" s="2"/>
     </row>
-    <row r="325" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="325" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -33884,7 +33866,7 @@
       <c r="CM325" s="2"/>
       <c r="CN325" s="2"/>
     </row>
-    <row r="326" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="326" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -33976,7 +33958,7 @@
       <c r="CM326" s="2"/>
       <c r="CN326" s="2"/>
     </row>
-    <row r="327" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="327" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -34068,7 +34050,7 @@
       <c r="CM327" s="2"/>
       <c r="CN327" s="2"/>
     </row>
-    <row r="328" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="328" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -34160,7 +34142,7 @@
       <c r="CM328" s="2"/>
       <c r="CN328" s="2"/>
     </row>
-    <row r="329" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="329" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -34252,7 +34234,7 @@
       <c r="CM329" s="2"/>
       <c r="CN329" s="2"/>
     </row>
-    <row r="330" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="330" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -34344,7 +34326,7 @@
       <c r="CM330" s="2"/>
       <c r="CN330" s="2"/>
     </row>
-    <row r="331" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="331" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -34436,7 +34418,7 @@
       <c r="CM331" s="2"/>
       <c r="CN331" s="2"/>
     </row>
-    <row r="332" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="332" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -34528,7 +34510,7 @@
       <c r="CM332" s="2"/>
       <c r="CN332" s="2"/>
     </row>
-    <row r="333" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="333" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -34620,7 +34602,7 @@
       <c r="CM333" s="2"/>
       <c r="CN333" s="2"/>
     </row>
-    <row r="334" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="334" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -34712,7 +34694,7 @@
       <c r="CM334" s="2"/>
       <c r="CN334" s="2"/>
     </row>
-    <row r="335" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="335" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -34804,7 +34786,7 @@
       <c r="CM335" s="2"/>
       <c r="CN335" s="2"/>
     </row>
-    <row r="336" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="336" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -34896,7 +34878,7 @@
       <c r="CM336" s="2"/>
       <c r="CN336" s="2"/>
     </row>
-    <row r="337" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="337" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -34988,7 +34970,7 @@
       <c r="CM337" s="2"/>
       <c r="CN337" s="2"/>
     </row>
-    <row r="338" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="338" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -35080,7 +35062,7 @@
       <c r="CM338" s="2"/>
       <c r="CN338" s="2"/>
     </row>
-    <row r="339" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="339" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -35172,7 +35154,7 @@
       <c r="CM339" s="2"/>
       <c r="CN339" s="2"/>
     </row>
-    <row r="340" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="340" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -35264,7 +35246,7 @@
       <c r="CM340" s="2"/>
       <c r="CN340" s="2"/>
     </row>
-    <row r="341" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="341" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -35356,7 +35338,7 @@
       <c r="CM341" s="2"/>
       <c r="CN341" s="2"/>
     </row>
-    <row r="342" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="342" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -35448,7 +35430,7 @@
       <c r="CM342" s="2"/>
       <c r="CN342" s="2"/>
     </row>
-    <row r="343" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="343" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -35540,7 +35522,7 @@
       <c r="CM343" s="2"/>
       <c r="CN343" s="2"/>
     </row>
-    <row r="344" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="344" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -35632,7 +35614,7 @@
       <c r="CM344" s="2"/>
       <c r="CN344" s="2"/>
     </row>
-    <row r="345" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="345" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -35724,7 +35706,7 @@
       <c r="CM345" s="2"/>
       <c r="CN345" s="2"/>
     </row>
-    <row r="346" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="346" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -35816,7 +35798,7 @@
       <c r="CM346" s="2"/>
       <c r="CN346" s="2"/>
     </row>
-    <row r="347" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="347" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -35908,7 +35890,7 @@
       <c r="CM347" s="2"/>
       <c r="CN347" s="2"/>
     </row>
-    <row r="348" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="348" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -36000,7 +35982,7 @@
       <c r="CM348" s="2"/>
       <c r="CN348" s="2"/>
     </row>
-    <row r="349" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="349" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -36092,7 +36074,7 @@
       <c r="CM349" s="2"/>
       <c r="CN349" s="2"/>
     </row>
-    <row r="350" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="350" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -36184,7 +36166,7 @@
       <c r="CM350" s="2"/>
       <c r="CN350" s="2"/>
     </row>
-    <row r="351" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="351" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -36276,7 +36258,7 @@
       <c r="CM351" s="2"/>
       <c r="CN351" s="2"/>
     </row>
-    <row r="352" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="352" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -36368,7 +36350,7 @@
       <c r="CM352" s="2"/>
       <c r="CN352" s="2"/>
     </row>
-    <row r="353" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="353" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -36460,7 +36442,7 @@
       <c r="CM353" s="2"/>
       <c r="CN353" s="2"/>
     </row>
-    <row r="354" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="354" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -36552,7 +36534,7 @@
       <c r="CM354" s="2"/>
       <c r="CN354" s="2"/>
     </row>
-    <row r="355" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="355" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -36644,7 +36626,7 @@
       <c r="CM355" s="2"/>
       <c r="CN355" s="2"/>
     </row>
-    <row r="356" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="356" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -36736,7 +36718,7 @@
       <c r="CM356" s="2"/>
       <c r="CN356" s="2"/>
     </row>
-    <row r="357" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="357" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -36828,7 +36810,7 @@
       <c r="CM357" s="2"/>
       <c r="CN357" s="2"/>
     </row>
-    <row r="358" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="358" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -36920,7 +36902,7 @@
       <c r="CM358" s="2"/>
       <c r="CN358" s="2"/>
     </row>
-    <row r="359" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="359" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -37012,7 +36994,7 @@
       <c r="CM359" s="2"/>
       <c r="CN359" s="2"/>
     </row>
-    <row r="360" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="360" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -37104,7 +37086,7 @@
       <c r="CM360" s="2"/>
       <c r="CN360" s="2"/>
     </row>
-    <row r="361" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="361" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -37196,7 +37178,7 @@
       <c r="CM361" s="2"/>
       <c r="CN361" s="2"/>
     </row>
-    <row r="362" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="362" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -37288,7 +37270,7 @@
       <c r="CM362" s="2"/>
       <c r="CN362" s="2"/>
     </row>
-    <row r="363" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="363" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -37380,7 +37362,7 @@
       <c r="CM363" s="2"/>
       <c r="CN363" s="2"/>
     </row>
-    <row r="364" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="364" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -37472,7 +37454,7 @@
       <c r="CM364" s="2"/>
       <c r="CN364" s="2"/>
     </row>
-    <row r="365" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="365" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -37564,7 +37546,7 @@
       <c r="CM365" s="2"/>
       <c r="CN365" s="2"/>
     </row>
-    <row r="366" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="366" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -37656,7 +37638,7 @@
       <c r="CM366" s="2"/>
       <c r="CN366" s="2"/>
     </row>
-    <row r="367" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="367" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -37748,7 +37730,7 @@
       <c r="CM367" s="2"/>
       <c r="CN367" s="2"/>
     </row>
-    <row r="368" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="368" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -37840,7 +37822,7 @@
       <c r="CM368" s="2"/>
       <c r="CN368" s="2"/>
     </row>
-    <row r="369" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="369" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -37932,7 +37914,7 @@
       <c r="CM369" s="2"/>
       <c r="CN369" s="2"/>
     </row>
-    <row r="370" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="370" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -38024,7 +38006,7 @@
       <c r="CM370" s="2"/>
       <c r="CN370" s="2"/>
     </row>
-    <row r="371" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="371" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -38116,7 +38098,7 @@
       <c r="CM371" s="2"/>
       <c r="CN371" s="2"/>
     </row>
-    <row r="372" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="372" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -38208,7 +38190,7 @@
       <c r="CM372" s="2"/>
       <c r="CN372" s="2"/>
     </row>
-    <row r="373" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="373" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -38300,7 +38282,7 @@
       <c r="CM373" s="2"/>
       <c r="CN373" s="2"/>
     </row>
-    <row r="374" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="374" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -38392,7 +38374,7 @@
       <c r="CM374" s="2"/>
       <c r="CN374" s="2"/>
     </row>
-    <row r="375" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="375" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -38484,7 +38466,7 @@
       <c r="CM375" s="2"/>
       <c r="CN375" s="2"/>
     </row>
-    <row r="376" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="376" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -38576,7 +38558,7 @@
       <c r="CM376" s="2"/>
       <c r="CN376" s="2"/>
     </row>
-    <row r="377" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="377" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -38668,7 +38650,7 @@
       <c r="CM377" s="2"/>
       <c r="CN377" s="2"/>
     </row>
-    <row r="378" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="378" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -38760,7 +38742,7 @@
       <c r="CM378" s="2"/>
       <c r="CN378" s="2"/>
     </row>
-    <row r="379" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="379" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -38852,7 +38834,7 @@
       <c r="CM379" s="2"/>
       <c r="CN379" s="2"/>
     </row>
-    <row r="380" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="380" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -38944,7 +38926,7 @@
       <c r="CM380" s="2"/>
       <c r="CN380" s="2"/>
     </row>
-    <row r="381" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="381" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -39036,7 +39018,7 @@
       <c r="CM381" s="2"/>
       <c r="CN381" s="2"/>
     </row>
-    <row r="382" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="382" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -39128,7 +39110,7 @@
       <c r="CM382" s="2"/>
       <c r="CN382" s="2"/>
     </row>
-    <row r="383" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="383" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -39220,7 +39202,7 @@
       <c r="CM383" s="2"/>
       <c r="CN383" s="2"/>
     </row>
-    <row r="384" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="384" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -39312,7 +39294,7 @@
       <c r="CM384" s="2"/>
       <c r="CN384" s="2"/>
     </row>
-    <row r="385" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="385" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -39404,7 +39386,7 @@
       <c r="CM385" s="2"/>
       <c r="CN385" s="2"/>
     </row>
-    <row r="386" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="386" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -39496,7 +39478,7 @@
       <c r="CM386" s="2"/>
       <c r="CN386" s="2"/>
     </row>
-    <row r="387" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="387" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -39588,7 +39570,7 @@
       <c r="CM387" s="2"/>
       <c r="CN387" s="2"/>
     </row>
-    <row r="388" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="388" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -39680,7 +39662,7 @@
       <c r="CM388" s="2"/>
       <c r="CN388" s="2"/>
     </row>
-    <row r="389" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="389" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -39772,7 +39754,7 @@
       <c r="CM389" s="2"/>
       <c r="CN389" s="2"/>
     </row>
-    <row r="390" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="390" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -39864,7 +39846,7 @@
       <c r="CM390" s="2"/>
       <c r="CN390" s="2"/>
     </row>
-    <row r="391" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="391" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -39956,7 +39938,7 @@
       <c r="CM391" s="2"/>
       <c r="CN391" s="2"/>
     </row>
-    <row r="392" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="392" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -40048,7 +40030,7 @@
       <c r="CM392" s="2"/>
       <c r="CN392" s="2"/>
     </row>
-    <row r="393" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="393" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -40140,7 +40122,7 @@
       <c r="CM393" s="2"/>
       <c r="CN393" s="2"/>
     </row>
-    <row r="394" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="394" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -40232,7 +40214,7 @@
       <c r="CM394" s="2"/>
       <c r="CN394" s="2"/>
     </row>
-    <row r="395" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="395" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -40324,7 +40306,7 @@
       <c r="CM395" s="2"/>
       <c r="CN395" s="2"/>
     </row>
-    <row r="396" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="396" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -40416,7 +40398,7 @@
       <c r="CM396" s="2"/>
       <c r="CN396" s="2"/>
     </row>
-    <row r="397" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="397" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -40508,7 +40490,7 @@
       <c r="CM397" s="2"/>
       <c r="CN397" s="2"/>
     </row>
-    <row r="398" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="398" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -40600,7 +40582,7 @@
       <c r="CM398" s="2"/>
       <c r="CN398" s="2"/>
     </row>
-    <row r="399" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="399" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -40692,7 +40674,7 @@
       <c r="CM399" s="2"/>
       <c r="CN399" s="2"/>
     </row>
-    <row r="400" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="400" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -40801,42 +40783,42 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="F2:I19">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>OR($N2="glmp",$N2="skmp")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I19">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$K2="PT1H"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35 Y35">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>$V$35=$Y$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V41 Y41">
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$V$41=$Y$41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V47 Y47">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>$V$47=$Y$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V53 Y53">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>$V$53=$Y$53</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V59 Y59">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$V$59=$Y$59</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V65 Y65">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$V$65=$Y$65</formula>
     </cfRule>
   </conditionalFormatting>

--- a/source/databricks/calculation_engine/tests/features/given_an_energy_calculation/when_minimal_standard_scenario/Oracle - minimal standard calculation.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_an_energy_calculation/when_minimal_standard_scenario/Oracle - minimal standard calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energinet\Desktop\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_an_energy_calculation\when_minimal_standard_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781576C4-CB8E-48BE-881B-2D37F287B29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA6521A-4949-4C73-9C62-1C152E0CCC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour1" sheetId="11" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="129">
   <si>
     <t>energy_supplier_id</t>
   </si>
@@ -484,6 +484,15 @@
   <si>
     <t>180000000000001000</t>
   </si>
+  <si>
+    <t>na_ga for ga_id</t>
+  </si>
+  <si>
+    <t>na_ga for values</t>
+  </si>
+  <si>
+    <t>Sorted</t>
+  </si>
 </sst>
 </file>
 
@@ -753,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -847,25 +856,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <color auto="1"/>
@@ -1118,26 +1116,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11FA3D7A-CA3E-4B36-A043-675A39B6ADD4}" name="TableDay1" displayName="TableDay1" ref="C1:Q19" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11FA3D7A-CA3E-4B36-A043-675A39B6ADD4}" name="TableDay1" displayName="TableDay1" ref="C1:Q19" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="C1:Q19" xr:uid="{3814BBFA-A2E3-4A77-AAB1-6B1FF8D878B1}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{2B69152A-55A7-4D2B-873F-7F3FB6F402A7}" name="mp id" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{DA52C48F-158B-4538-B6A3-FC8044FE7DD3}" name="type" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{EF0BDE38-1365-4FBC-9631-C5B606CA358B}" name="settlement_method" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{B562A6FB-BEDA-4307-A449-0F2082B19BCA}" name="Quarter1" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{6DA11D4D-F616-4050-A443-FB1A76B379F3}" name="Quarter2" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{E2415720-F246-4A24-8E0D-1B0204263A5A}" name="Quarter3" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{0EC1FA3B-BAAC-4F35-AAF5-67E6FD19CA93}" name="Quarter4" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{5C23752B-DBE4-4FE9-BFE7-AC41B91886E5}" name="TotalHour" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{2B69152A-55A7-4D2B-873F-7F3FB6F402A7}" name="mp id" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{DA52C48F-158B-4538-B6A3-FC8044FE7DD3}" name="type" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{EF0BDE38-1365-4FBC-9631-C5B606CA358B}" name="settlement_method" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{B562A6FB-BEDA-4307-A449-0F2082B19BCA}" name="Quarter1" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{6DA11D4D-F616-4050-A443-FB1A76B379F3}" name="Quarter2" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{E2415720-F246-4A24-8E0D-1B0204263A5A}" name="Quarter3" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{0EC1FA3B-BAAC-4F35-AAF5-67E6FD19CA93}" name="Quarter4" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{5C23752B-DBE4-4FE9-BFE7-AC41B91886E5}" name="TotalHour" dataDxfId="15">
       <calculatedColumnFormula>IF(C2="","",SUM(F2:I2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CD5BB13E-3854-4BA0-A8C2-7EB0351AE2FA}" name="resolution" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{900BB657-25A0-4ECA-8FE6-633F1CAE8BD7}" name="es_id" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{39625D12-7EE0-4C8F-8893-3E5902A7D039}" name="brp_id" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{4035FFB8-60AE-4E2D-9CA8-C736A1B70CC6}" name="note" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{F90F79EC-44B2-4BC6-8C23-82D64320CBD5}" name="ga_id" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{CD53BB86-08E7-49A0-BC6E-CFD857B5FCB7}" name="from_ga" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{75786D4A-9554-4C5E-B036-485331D1BE7F}" name="to_ga" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{CD5BB13E-3854-4BA0-A8C2-7EB0351AE2FA}" name="resolution" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{900BB657-25A0-4ECA-8FE6-633F1CAE8BD7}" name="es_id" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{39625D12-7EE0-4C8F-8893-3E5902A7D039}" name="brp_id" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{4035FFB8-60AE-4E2D-9CA8-C736A1B70CC6}" name="note" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{F90F79EC-44B2-4BC6-8C23-82D64320CBD5}" name="ga_id" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{CD53BB86-08E7-49A0-BC6E-CFD857B5FCB7}" name="from_ga" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{75786D4A-9554-4C5E-B036-485331D1BE7F}" name="to_ga" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1445,46 +1443,48 @@
   </sheetPr>
   <dimension ref="A1:CN400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="11.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="40" width="8.7109375" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="27.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.7265625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="1.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="8.7265625" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:92" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
@@ -1562,13 +1562,14 @@
       <c r="AG1" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AH1" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="24"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
     </row>
-    <row r="2" spans="1:92" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:92" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
@@ -1651,13 +1652,19 @@
         <f>IF(B$2="production","E18",IF($B$2="flex_consumption","D01","E02"))</f>
         <v>D01</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="27"/>
+      <c r="AH2" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ2" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C3" s="10" t="s">
         <v>109</v>
       </c>
@@ -1732,19 +1739,25 @@
         <f t="array" ref="AH3:AH6">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),""))&lt;&gt;""))</f>
         <v>801</v>
       </c>
-      <c r="AI3" s="2" t="str" cm="1">
+      <c r="AI3" s="24" t="str" cm="1">
         <f t="array" ref="AI3:AI6">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),""))&lt;&gt;""))</f>
         <v>801</v>
       </c>
-      <c r="AJ3" s="27" t="str" cm="1">
-        <f t="array" ref="AJ3:AK5">_xlfn._xlws.SORT(AH3:AI5,1)</f>
+      <c r="AJ3" s="24" t="str" cm="1">
+        <f t="array" ref="AJ3:AK13">_xlfn._xlws.SORT(AH3:AI13,1)</f>
         <v>801</v>
       </c>
-      <c r="AK3" s="1" t="str">
+      <c r="AK3" s="24" t="str">
         <v>801</v>
       </c>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
         <v>123</v>
       </c>
@@ -1822,11 +1835,17 @@
       <c r="AJ4" s="24" t="str">
         <v>802</v>
       </c>
-      <c r="AK4" s="1" t="str">
+      <c r="AK4" s="24" t="str">
         <v>802</v>
       </c>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C5" s="10" t="s">
         <v>110</v>
       </c>
@@ -1900,11 +1919,17 @@
       <c r="AJ5" s="24" t="str">
         <v>803</v>
       </c>
-      <c r="AK5" s="1" t="str">
+      <c r="AK5" s="24" t="str">
         <v>803</v>
       </c>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C6" s="10" t="s">
         <v>105</v>
       </c>
@@ -1960,9 +1985,20 @@
       <c r="AI6" s="24" t="str">
         <v>804</v>
       </c>
-      <c r="AJ6" s="24"/>
+      <c r="AJ6" s="24" t="str">
+        <v>804</v>
+      </c>
+      <c r="AK6" s="24" t="str">
+        <v>804</v>
+      </c>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C7" s="10" t="s">
         <v>111</v>
       </c>
@@ -2014,9 +2050,20 @@
       <c r="AG7" s="24"/>
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
+      <c r="AJ7" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="24"/>
+      <c r="AQ7" s="24"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C8" s="10" t="s">
         <v>112</v>
       </c>
@@ -2068,9 +2115,20 @@
       <c r="AG8" s="24"/>
       <c r="AH8" s="24"/>
       <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
+      <c r="AJ8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="24"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C9" s="10" t="s">
         <v>106</v>
       </c>
@@ -2134,9 +2192,20 @@
       <c r="AG9" s="35"/>
       <c r="AH9" s="35"/>
       <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
+      <c r="AJ9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="24"/>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C10" s="10" t="s">
         <v>113</v>
       </c>
@@ -2208,9 +2277,20 @@
       <c r="AG10" s="36"/>
       <c r="AH10" s="35"/>
       <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
+      <c r="AJ10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="24"/>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C11" s="10" t="s">
         <v>114</v>
       </c>
@@ -2285,9 +2365,20 @@
       <c r="AG11" s="36"/>
       <c r="AH11" s="35"/>
       <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
+      <c r="AJ11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="24"/>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C12" s="10" t="s">
         <v>107</v>
       </c>
@@ -2364,9 +2455,20 @@
       <c r="AG12" s="36"/>
       <c r="AH12" s="35"/>
       <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
+      <c r="AJ12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="24"/>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C13" s="10" t="s">
         <v>115</v>
       </c>
@@ -2444,8 +2546,21 @@
       </c>
       <c r="AG13" s="36"/>
       <c r="AH13" s="35"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
         <v>116</v>
       </c>
@@ -2519,15 +2634,15 @@
       </c>
       <c r="AG14" s="36"/>
       <c r="AH14" s="36"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24"/>
+      <c r="AQ14" s="24"/>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
@@ -2578,7 +2693,7 @@
       <c r="CM14" s="2"/>
       <c r="CN14" s="2"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C15" s="13" t="s">
         <v>124</v>
       </c>
@@ -2655,15 +2770,15 @@
       <c r="AF15" s="36"/>
       <c r="AG15" s="36"/>
       <c r="AH15" s="36"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2"/>
-      <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="24"/>
+      <c r="AQ15" s="24"/>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
@@ -2714,7 +2829,7 @@
       <c r="CM15" s="2"/>
       <c r="CN15" s="2"/>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C16" s="13" t="s">
         <v>125</v>
       </c>
@@ -2789,15 +2904,15 @@
       <c r="AF16" s="36"/>
       <c r="AG16" s="36"/>
       <c r="AH16" s="36"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="24"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="24"/>
+      <c r="AQ16" s="24"/>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
@@ -2848,7 +2963,7 @@
       <c r="CM16" s="2"/>
       <c r="CN16" s="2"/>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
@@ -2907,15 +3022,15 @@
       <c r="AF17" s="36"/>
       <c r="AG17" s="36"/>
       <c r="AH17" s="36"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="2"/>
-      <c r="AP17" s="2"/>
-      <c r="AQ17" s="2"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="24"/>
+      <c r="AQ17" s="24"/>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
@@ -2966,7 +3081,7 @@
       <c r="CM17" s="2"/>
       <c r="CN17" s="2"/>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
@@ -3022,15 +3137,15 @@
       <c r="AF18" s="36"/>
       <c r="AG18" s="36"/>
       <c r="AH18" s="36"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2"/>
-      <c r="AP18" s="2"/>
-      <c r="AQ18" s="2"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="24"/>
+      <c r="AQ18" s="24"/>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
@@ -3081,7 +3196,7 @@
       <c r="CM18" s="2"/>
       <c r="CN18" s="2"/>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
@@ -3140,15 +3255,15 @@
       <c r="AF19" s="36"/>
       <c r="AG19" s="36"/>
       <c r="AH19" s="36"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="2"/>
-      <c r="AQ19" s="2"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
@@ -3199,7 +3314,7 @@
       <c r="CM19" s="2"/>
       <c r="CN19" s="2"/>
     </row>
-    <row r="20" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="47" t="str">
         <f>CONCATENATE(B2,"_per_",B1)</f>
         <v>flex_consumption_per_ga_brp_es</v>
@@ -3252,15 +3367,15 @@
       <c r="AF20" s="36"/>
       <c r="AG20" s="36"/>
       <c r="AH20" s="36"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
-      <c r="AN20" s="2"/>
-      <c r="AO20" s="2"/>
-      <c r="AP20" s="2"/>
-      <c r="AQ20" s="2"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="24"/>
+      <c r="AN20" s="24"/>
+      <c r="AO20" s="24"/>
+      <c r="AP20" s="24"/>
+      <c r="AQ20" s="24"/>
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2"/>
@@ -3311,7 +3426,7 @@
       <c r="CM20" s="2"/>
       <c r="CN20" s="2"/>
     </row>
-    <row r="21" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3388,15 +3503,15 @@
       <c r="AF21" s="35"/>
       <c r="AG21" s="36"/>
       <c r="AH21" s="36"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
-      <c r="AN21" s="2"/>
-      <c r="AO21" s="2"/>
-      <c r="AP21" s="2"/>
-      <c r="AQ21" s="2"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="24"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="24"/>
+      <c r="AO21" s="24"/>
+      <c r="AP21" s="24"/>
+      <c r="AQ21" s="24"/>
       <c r="AR21" s="2"/>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2"/>
@@ -3447,7 +3562,7 @@
       <c r="CM21" s="2"/>
       <c r="CN21" s="2"/>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="16" t="str">
         <f>IF(AND(F22&lt;&gt;"null",F22&lt;&gt;""),IF(F22=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G22&lt;&gt;"null",G22&lt;&gt;""),IF(G22=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E22=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
@@ -3531,15 +3646,15 @@
       <c r="AF22" s="35"/>
       <c r="AG22" s="36"/>
       <c r="AH22" s="36"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2"/>
-      <c r="AP22" s="2"/>
-      <c r="AQ22" s="2"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="24"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
       <c r="AR22" s="2"/>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2"/>
@@ -3590,7 +3705,7 @@
       <c r="CM22" s="2"/>
       <c r="CN22" s="2"/>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="str">
         <f>IF(AND(F23&lt;&gt;"null",F23&lt;&gt;""),IF(F23=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G23&lt;&gt;"null",G23&lt;&gt;""),IF(G23=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E23=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v>glmp</v>
@@ -3616,7 +3731,7 @@
       </c>
       <c r="H23" s="33" t="str">
         <f t="shared" ref="H23:H45" ca="1" si="7">IF(E23="","",SUBSTITUTE(ROUND(I23+J23+K23,3),",","."))</f>
-        <v>1.738</v>
+        <v>1.458</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" ref="I23:I45" si="8">SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),R$10:R$33,D23)</f>
@@ -3628,7 +3743,7 @@
       </c>
       <c r="K23" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7380000000000009</v>
+        <v>1.4579999999999997</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3676,15 +3791,15 @@
       <c r="AF23" s="35"/>
       <c r="AG23" s="36"/>
       <c r="AH23" s="36"/>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="2"/>
-      <c r="AQ23" s="2"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="24"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="24"/>
+      <c r="AQ23" s="24"/>
       <c r="AR23" s="2"/>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
@@ -3735,7 +3850,7 @@
       <c r="CM23" s="2"/>
       <c r="CN23" s="2"/>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="str">
         <f>IF(AND(F24&lt;&gt;"null",F24&lt;&gt;""),IF(F24=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G24&lt;&gt;"null",G24&lt;&gt;""),IF(G24=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E24=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v>glmp</v>
@@ -3761,7 +3876,7 @@
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1.736</v>
+        <v>1.457</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="8"/>
@@ -3773,7 +3888,7 @@
       </c>
       <c r="K24" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7359999999999998</v>
+        <v>1.4569999999999999</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3824,15 +3939,15 @@
       <c r="AF24" s="35"/>
       <c r="AG24" s="36"/>
       <c r="AH24" s="36"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="24"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="24"/>
+      <c r="AQ24" s="24"/>
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
@@ -3883,7 +3998,7 @@
       <c r="CM24" s="2"/>
       <c r="CN24" s="2"/>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="str">
         <f>IF(AND(F25&lt;&gt;"null",F25&lt;&gt;""),IF(F25=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G25&lt;&gt;"null",G25&lt;&gt;""),IF(G25=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E25=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v>glmp</v>
@@ -3909,7 +4024,7 @@
       </c>
       <c r="H25" s="33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1.738</v>
+        <v>1.459</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="8"/>
@@ -3921,7 +4036,7 @@
       </c>
       <c r="K25" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7380000000000009</v>
+        <v>1.459000000000001</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="2"/>
@@ -3972,15 +4087,15 @@
       <c r="AF25" s="35"/>
       <c r="AG25" s="36"/>
       <c r="AH25" s="36"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="2"/>
-      <c r="AQ25" s="2"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="24"/>
+      <c r="AP25" s="24"/>
+      <c r="AQ25" s="24"/>
       <c r="AR25" s="2"/>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
@@ -4031,7 +4146,7 @@
       <c r="CM25" s="2"/>
       <c r="CN25" s="2"/>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B26" s="16" t="str">
         <f>IF(AND(F26&lt;&gt;"null",F26&lt;&gt;""),IF(F26=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G26&lt;&gt;"null",G26&lt;&gt;""),IF(G26=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E26=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4114,15 +4229,15 @@
       <c r="AF26" s="35"/>
       <c r="AG26" s="36"/>
       <c r="AH26" s="36"/>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
-      <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
-      <c r="AM26" s="2"/>
-      <c r="AN26" s="2"/>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="2"/>
-      <c r="AQ26" s="2"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
+      <c r="AP26" s="24"/>
+      <c r="AQ26" s="24"/>
       <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
@@ -4173,7 +4288,7 @@
       <c r="CM26" s="2"/>
       <c r="CN26" s="2"/>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B27" s="16" t="str">
         <f>IF(AND(F27&lt;&gt;"null",F27&lt;&gt;""),IF(F27=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G27&lt;&gt;"null",G27&lt;&gt;""),IF(G27=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E27=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4265,15 +4380,15 @@
       </c>
       <c r="AG27" s="36"/>
       <c r="AH27" s="36"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="2"/>
-      <c r="AQ27" s="2"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="24"/>
+      <c r="AL27" s="24"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="24"/>
+      <c r="AO27" s="24"/>
+      <c r="AP27" s="24"/>
+      <c r="AQ27" s="24"/>
       <c r="AR27" s="2"/>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2"/>
@@ -4324,7 +4439,7 @@
       <c r="CM27" s="2"/>
       <c r="CN27" s="2"/>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="str">
         <f>IF(AND(F28&lt;&gt;"null",F28&lt;&gt;""),IF(F28=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G28&lt;&gt;"null",G28&lt;&gt;""),IF(G28=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E28=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4416,15 +4531,15 @@
       </c>
       <c r="AG28" s="36"/>
       <c r="AH28" s="36"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
-      <c r="AM28" s="2"/>
-      <c r="AN28" s="2"/>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="2"/>
-      <c r="AQ28" s="2"/>
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="24"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
+      <c r="AP28" s="24"/>
+      <c r="AQ28" s="24"/>
       <c r="AR28" s="2"/>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
@@ -4475,7 +4590,7 @@
       <c r="CM28" s="2"/>
       <c r="CN28" s="2"/>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B29" s="16" t="str">
         <f>IF(AND(F29&lt;&gt;"null",F29&lt;&gt;""),IF(F29=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G29&lt;&gt;"null",G29&lt;&gt;""),IF(G29=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E29=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4562,15 +4677,15 @@
       </c>
       <c r="AG29" s="36"/>
       <c r="AH29" s="36"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
-      <c r="AL29" s="2"/>
-      <c r="AM29" s="2"/>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
-      <c r="AP29" s="2"/>
-      <c r="AQ29" s="2"/>
+      <c r="AI29" s="24"/>
+      <c r="AJ29" s="24"/>
+      <c r="AK29" s="24"/>
+      <c r="AL29" s="24"/>
+      <c r="AM29" s="24"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="24"/>
+      <c r="AP29" s="24"/>
+      <c r="AQ29" s="24"/>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
@@ -4621,7 +4736,7 @@
       <c r="CM29" s="2"/>
       <c r="CN29" s="2"/>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="str">
         <f>IF(AND(F30&lt;&gt;"null",F30&lt;&gt;""),IF(F30=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G30&lt;&gt;"null",G30&lt;&gt;""),IF(G30=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E30=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4705,15 +4820,15 @@
       </c>
       <c r="AG30" s="36"/>
       <c r="AH30" s="36"/>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="2"/>
-      <c r="AK30" s="2"/>
-      <c r="AL30" s="2"/>
-      <c r="AM30" s="2"/>
-      <c r="AN30" s="2"/>
-      <c r="AO30" s="2"/>
-      <c r="AP30" s="2"/>
-      <c r="AQ30" s="2"/>
+      <c r="AI30" s="24"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="24"/>
+      <c r="AL30" s="24"/>
+      <c r="AM30" s="24"/>
+      <c r="AN30" s="24"/>
+      <c r="AO30" s="24"/>
+      <c r="AP30" s="24"/>
+      <c r="AQ30" s="24"/>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
@@ -4764,7 +4879,7 @@
       <c r="CM30" s="2"/>
       <c r="CN30" s="2"/>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="str">
         <f>IF(AND(F31&lt;&gt;"null",F31&lt;&gt;""),IF(F31=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G31&lt;&gt;"null",G31&lt;&gt;""),IF(G31=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E31=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4851,15 +4966,15 @@
       </c>
       <c r="AG31" s="36"/>
       <c r="AH31" s="36"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
-      <c r="AL31" s="2"/>
-      <c r="AM31" s="2"/>
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
-      <c r="AP31" s="2"/>
-      <c r="AQ31" s="2"/>
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="24"/>
+      <c r="AL31" s="24"/>
+      <c r="AM31" s="24"/>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="24"/>
+      <c r="AP31" s="24"/>
+      <c r="AQ31" s="24"/>
       <c r="AR31" s="2"/>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
@@ -4910,7 +5025,7 @@
       <c r="CM31" s="2"/>
       <c r="CN31" s="2"/>
     </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B32" s="16" t="str">
         <f>IF(AND(F32&lt;&gt;"null",F32&lt;&gt;""),IF(F32=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G32&lt;&gt;"null",G32&lt;&gt;""),IF(G32=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E32=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4997,15 +5112,15 @@
       </c>
       <c r="AG32" s="36"/>
       <c r="AH32" s="36"/>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
-      <c r="AK32" s="2"/>
-      <c r="AL32" s="2"/>
-      <c r="AM32" s="2"/>
-      <c r="AN32" s="2"/>
-      <c r="AO32" s="2"/>
-      <c r="AP32" s="2"/>
-      <c r="AQ32" s="2"/>
+      <c r="AI32" s="24"/>
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="24"/>
+      <c r="AL32" s="24"/>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="24"/>
+      <c r="AP32" s="24"/>
+      <c r="AQ32" s="24"/>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
@@ -5056,7 +5171,7 @@
       <c r="CM32" s="2"/>
       <c r="CN32" s="2"/>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B33" s="16" t="str">
         <f>IF(AND(F33&lt;&gt;"null",F33&lt;&gt;""),IF(F33=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G33&lt;&gt;"null",G33&lt;&gt;""),IF(G33=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E33=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5143,15 +5258,15 @@
       </c>
       <c r="AG33" s="36"/>
       <c r="AH33" s="36"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2"/>
-      <c r="AN33" s="2"/>
-      <c r="AO33" s="2"/>
-      <c r="AP33" s="2"/>
-      <c r="AQ33" s="2"/>
+      <c r="AI33" s="24"/>
+      <c r="AJ33" s="24"/>
+      <c r="AK33" s="24"/>
+      <c r="AL33" s="24"/>
+      <c r="AM33" s="24"/>
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="24"/>
+      <c r="AP33" s="24"/>
+      <c r="AQ33" s="24"/>
       <c r="AR33" s="2"/>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2"/>
@@ -5202,7 +5317,7 @@
       <c r="CM33" s="2"/>
       <c r="CN33" s="2"/>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B34" s="16" t="str">
         <f>IF(AND(F34&lt;&gt;"null",F34&lt;&gt;""),IF(F34=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G34&lt;&gt;"null",G34&lt;&gt;""),IF(G34=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E34=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5266,15 +5381,15 @@
       </c>
       <c r="AG34" s="36"/>
       <c r="AH34" s="36"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34" s="2"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="2"/>
-      <c r="AP34" s="2"/>
-      <c r="AQ34" s="2"/>
+      <c r="AI34" s="24"/>
+      <c r="AJ34" s="24"/>
+      <c r="AK34" s="24"/>
+      <c r="AL34" s="24"/>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="24"/>
+      <c r="AP34" s="24"/>
+      <c r="AQ34" s="24"/>
       <c r="AR34" s="2"/>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2"/>
@@ -5325,7 +5440,7 @@
       <c r="CM34" s="2"/>
       <c r="CN34" s="2"/>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:92" x14ac:dyDescent="0.35">
       <c r="B35" s="16" t="str">
         <f>IF(AND(F35&lt;&gt;"null",F35&lt;&gt;""),IF(F35=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G35&lt;&gt;"null",G35&lt;&gt;""),IF(G35=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E35=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5400,15 +5515,15 @@
       </c>
       <c r="AG35" s="36"/>
       <c r="AH35" s="36"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
-      <c r="AM35" s="2"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="2"/>
-      <c r="AP35" s="2"/>
-      <c r="AQ35" s="2"/>
+      <c r="AI35" s="24"/>
+      <c r="AJ35" s="24"/>
+      <c r="AK35" s="24"/>
+      <c r="AL35" s="24"/>
+      <c r="AM35" s="24"/>
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="24"/>
+      <c r="AP35" s="24"/>
+      <c r="AQ35" s="24"/>
       <c r="AR35" s="2"/>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
@@ -5459,7 +5574,7 @@
       <c r="CM35" s="2"/>
       <c r="CN35" s="2"/>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="16" t="str">
         <f>IF(AND(F36&lt;&gt;"null",F36&lt;&gt;""),IF(F36=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G36&lt;&gt;"null",G36&lt;&gt;""),IF(G36=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E36=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5595,7 +5710,7 @@
       <c r="CM36" s="2"/>
       <c r="CN36" s="2"/>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16" t="str">
         <f>IF(AND(F37&lt;&gt;"null",F37&lt;&gt;""),IF(F37=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G37&lt;&gt;"null",G37&lt;&gt;""),IF(G37=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E37=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5732,7 +5847,7 @@
       <c r="CM37" s="2"/>
       <c r="CN37" s="2"/>
     </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="16" t="str">
         <f>IF(AND(F38&lt;&gt;"null",F38&lt;&gt;""),IF(F38=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G38&lt;&gt;"null",G38&lt;&gt;""),IF(G38=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E38=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5872,7 +5987,7 @@
       <c r="CM38" s="2"/>
       <c r="CN38" s="2"/>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="16" t="str">
         <f>IF(AND(F39&lt;&gt;"null",F39&lt;&gt;""),IF(F39=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G39&lt;&gt;"null",G39&lt;&gt;""),IF(G39=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E39=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6012,7 +6127,7 @@
       <c r="CM39" s="2"/>
       <c r="CN39" s="2"/>
     </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="16" t="str">
         <f>IF(AND(F40&lt;&gt;"null",F40&lt;&gt;""),IF(F40=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G40&lt;&gt;"null",G40&lt;&gt;""),IF(G40=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E40=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6152,7 +6267,7 @@
       <c r="CM40" s="2"/>
       <c r="CN40" s="2"/>
     </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="16" t="str">
         <f>IF(AND(F41&lt;&gt;"null",F41&lt;&gt;""),IF(F41=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G41&lt;&gt;"null",G41&lt;&gt;""),IF(G41=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E41=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6286,7 +6401,7 @@
       <c r="CM41" s="2"/>
       <c r="CN41" s="2"/>
     </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="16" t="str">
         <f>IF(AND(F42&lt;&gt;"null",F42&lt;&gt;""),IF(F42=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G42&lt;&gt;"null",G42&lt;&gt;""),IF(G42=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E42=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6422,7 +6537,7 @@
       <c r="CM42" s="2"/>
       <c r="CN42" s="2"/>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="16" t="str">
         <f>IF(AND(F43&lt;&gt;"null",F43&lt;&gt;""),IF(F43=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G43&lt;&gt;"null",G43&lt;&gt;""),IF(G43=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E43=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6553,7 +6668,7 @@
       <c r="CM43" s="2"/>
       <c r="CN43" s="2"/>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" s="16" t="str">
         <f>IF(AND(F44&lt;&gt;"null",F44&lt;&gt;""),IF(F44=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G44&lt;&gt;"null",G44&lt;&gt;""),IF(G44=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E44=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6687,7 +6802,7 @@
       <c r="CM44" s="2"/>
       <c r="CN44" s="2"/>
     </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="16" t="str">
         <f>IF(AND(F45&lt;&gt;"null",F45&lt;&gt;""),IF(F45=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G45&lt;&gt;"null",G45&lt;&gt;""),IF(G45=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E45=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6821,7 +6936,7 @@
       <c r="CM45" s="2"/>
       <c r="CN45" s="2"/>
     </row>
-    <row r="46" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="2"/>
       <c r="E46" s="47" t="s">
         <v>33</v>
@@ -6922,7 +7037,7 @@
       <c r="CM46" s="2"/>
       <c r="CN46" s="2"/>
     </row>
-    <row r="47" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="C47" s="2"/>
       <c r="D47" s="4" t="s">
         <v>20</v>
@@ -7026,7 +7141,7 @@
       <c r="CM47" s="2"/>
       <c r="CN47" s="2"/>
     </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -7045,11 +7160,11 @@
       </c>
       <c r="H48" s="32">
         <f ca="1">SUMIF(D90:D113,D48,H90:H113)</f>
-        <v>10.001000000000001</v>
+        <v>9.7220000000000013</v>
       </c>
       <c r="I48" s="27" t="str">
         <f ca="1">SUBSTITUTE(ROUND(H48,3),",",".")</f>
-        <v>10.001</v>
+        <v>9.722</v>
       </c>
       <c r="J48" s="2"/>
       <c r="R48" s="24"/>
@@ -7141,7 +7256,7 @@
       <c r="CM48" s="2"/>
       <c r="CN48" s="2"/>
     </row>
-    <row r="49" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -7160,11 +7275,11 @@
       </c>
       <c r="H49" s="32">
         <f t="shared" ref="H49:H51" ca="1" si="13">SUMIF(D91:D114,D49,H91:H114)</f>
-        <v>5.0010000000000003</v>
+        <v>4.7210000000000001</v>
       </c>
       <c r="I49" s="27" t="str">
         <f t="shared" ref="I49:I51" ca="1" si="14">SUBSTITUTE(ROUND(H49,3),",",".")</f>
-        <v>5.001</v>
+        <v>4.721</v>
       </c>
       <c r="J49" s="2"/>
       <c r="R49" s="24"/>
@@ -7257,7 +7372,7 @@
       <c r="CM49" s="2"/>
       <c r="CN49" s="2"/>
     </row>
-    <row r="50" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -7276,11 +7391,11 @@
       </c>
       <c r="H50" s="32">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>4.7210000000000001</v>
       </c>
       <c r="I50" s="27" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>4.721</v>
       </c>
       <c r="J50" s="2"/>
       <c r="R50" s="24"/>
@@ -7376,7 +7491,7 @@
       <c r="CM50" s="2"/>
       <c r="CN50" s="2"/>
     </row>
-    <row r="51" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -7395,11 +7510,11 @@
       </c>
       <c r="H51" s="32">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0010000000000003</v>
+        <v>4.7220000000000004</v>
       </c>
       <c r="I51" s="27" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>5.001</v>
+        <v>4.722</v>
       </c>
       <c r="J51" s="2"/>
       <c r="R51" s="24"/>
@@ -7495,7 +7610,7 @@
       <c r="CM51" s="2"/>
       <c r="CN51" s="2"/>
     </row>
-    <row r="52" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -7598,7 +7713,7 @@
       <c r="CM52" s="2"/>
       <c r="CN52" s="2"/>
     </row>
-    <row r="53" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -7704,7 +7819,7 @@
       <c r="CM53" s="2"/>
       <c r="CN53" s="2"/>
     </row>
-    <row r="54" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -7819,7 +7934,7 @@
       <c r="CM54" s="2"/>
       <c r="CN54" s="2"/>
     </row>
-    <row r="55" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -7934,7 +8049,7 @@
       <c r="CM55" s="2"/>
       <c r="CN55" s="2"/>
     </row>
-    <row r="56" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -8052,7 +8167,7 @@
       <c r="CM56" s="2"/>
       <c r="CN56" s="2"/>
     </row>
-    <row r="57" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -8170,7 +8285,7 @@
       <c r="CM57" s="2"/>
       <c r="CN57" s="2"/>
     </row>
-    <row r="58" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -8273,7 +8388,7 @@
       <c r="CM58" s="2"/>
       <c r="CN58" s="2"/>
     </row>
-    <row r="59" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -8379,7 +8494,7 @@
       <c r="CM59" s="2"/>
       <c r="CN59" s="2"/>
     </row>
-    <row r="60" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C60" s="2"/>
       <c r="D60" s="8" t="s">
         <v>3</v>
@@ -8491,7 +8606,7 @@
       <c r="CM60" s="2"/>
       <c r="CN60" s="2"/>
     </row>
-    <row r="61" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C61" s="2"/>
       <c r="D61" s="8" t="s">
         <v>4</v>
@@ -8604,7 +8719,7 @@
       <c r="CM61" s="2"/>
       <c r="CN61" s="2"/>
     </row>
-    <row r="62" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C62" s="2"/>
       <c r="D62" s="8" t="s">
         <v>5</v>
@@ -8720,7 +8835,7 @@
       <c r="CM62" s="2"/>
       <c r="CN62" s="2"/>
     </row>
-    <row r="63" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C63" s="2"/>
       <c r="D63" s="8" t="s">
         <v>6</v>
@@ -8836,7 +8951,7 @@
       <c r="CM63" s="2"/>
       <c r="CN63" s="2"/>
     </row>
-    <row r="64" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="2"/>
       <c r="E64" s="51" t="s">
         <v>37</v>
@@ -8937,7 +9052,7 @@
       <c r="CM64" s="2"/>
       <c r="CN64" s="2"/>
     </row>
-    <row r="65" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="s">
         <v>20</v>
@@ -9041,7 +9156,7 @@
       <c r="CM65" s="2"/>
       <c r="CN65" s="2"/>
     </row>
-    <row r="66" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C66" s="2"/>
       <c r="D66" s="8" t="s">
         <v>3</v>
@@ -9058,11 +9173,11 @@
       </c>
       <c r="H66" s="32">
         <f ca="1">totalProduction1H_quarter1+totalProduction15M_quarter1+netEx_quarter1-totalFlex1H_quarter1-totalFlex15M_quarter1-totalNonprofiled1H_quarter1-totalNonprofiled15M_quarter1</f>
-        <v>-2.2629999999999981</v>
+        <v>-2.5420000000000016</v>
       </c>
       <c r="I66" s="27" t="str">
         <f ca="1">SUBSTITUTE(ROUND(H66,3),",",".")</f>
-        <v>-2.263</v>
+        <v>-2.542</v>
       </c>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
@@ -9153,7 +9268,7 @@
       <c r="CM66" s="2"/>
       <c r="CN66" s="2"/>
     </row>
-    <row r="67" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C67" s="2"/>
       <c r="D67" s="8" t="s">
         <v>4</v>
@@ -9170,11 +9285,11 @@
       </c>
       <c r="H67" s="32">
         <f ca="1">totalProduction1H_quarter2+totalProduction15M_quarter2+netEx_quarter2-totalFlex1H_quarter2-totalFlex15M_quarter2-totalNonprofiled1H_quarter2-totalNonprofiled15M_quarter2</f>
-        <v>1.7380000000000009</v>
+        <v>1.4579999999999997</v>
       </c>
       <c r="I67" s="27" t="str">
         <f t="shared" ref="I67:I69" ca="1" si="22">SUBSTITUTE(ROUND(H67,3),",",".")</f>
-        <v>1.738</v>
+        <v>1.458</v>
       </c>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
@@ -9266,7 +9381,7 @@
       <c r="CM67" s="2"/>
       <c r="CN67" s="2"/>
     </row>
-    <row r="68" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C68" s="2"/>
       <c r="D68" s="8" t="s">
         <v>5</v>
@@ -9283,11 +9398,11 @@
       </c>
       <c r="H68" s="32">
         <f ca="1">totalProduction1H_quarter3+totalProduction15M_quarter3+netEx_quarter3-totalFlex1H_quarter3-totalFlex15M_quarter3-totalNonprofiled1H_quarter3-totalNonprofiled15M_quarter3</f>
-        <v>1.7359999999999998</v>
+        <v>1.4569999999999999</v>
       </c>
       <c r="I68" s="27" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1.736</v>
+        <v>1.457</v>
       </c>
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
@@ -9382,7 +9497,7 @@
       <c r="CM68" s="2"/>
       <c r="CN68" s="2"/>
     </row>
-    <row r="69" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C69" s="2"/>
       <c r="D69" s="8" t="s">
         <v>6</v>
@@ -9399,11 +9514,11 @@
       </c>
       <c r="H69" s="32">
         <f ca="1">totalProduction1H_quarter4+totalProduction15M_quarter4+netEx_quarter4-totalFlex1H_quarter4-totalFlex15M_quarter4-totalNonprofiled1H_quarter4-totalNonprofiled15M_quarter4</f>
-        <v>1.7380000000000009</v>
+        <v>1.459000000000001</v>
       </c>
       <c r="I69" s="27" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1.738</v>
+        <v>1.459</v>
       </c>
       <c r="J69" s="2"/>
       <c r="R69" s="24"/>
@@ -9499,7 +9614,7 @@
       <c r="CM69" s="2"/>
       <c r="CN69" s="2"/>
     </row>
-    <row r="70" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" s="2"/>
       <c r="E70" s="51" t="s">
         <v>39</v>
@@ -9600,7 +9715,7 @@
       <c r="CM70" s="2"/>
       <c r="CN70" s="2"/>
     </row>
-    <row r="71" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="C71" s="2"/>
       <c r="D71" s="4" t="s">
         <v>20</v>
@@ -9693,7 +9808,7 @@
       <c r="CM71" s="2"/>
       <c r="CN71" s="2"/>
     </row>
-    <row r="72" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C72" s="2"/>
       <c r="D72" s="15" t="s">
         <v>75</v>
@@ -9710,11 +9825,11 @@
       </c>
       <c r="H72" s="32">
         <f ca="1">IF(gridLoss1H_quarter4&gt;0,gridLoss1H_quarter4,0)</f>
-        <v>1.7380000000000009</v>
+        <v>1.459000000000001</v>
       </c>
       <c r="I72" s="27" t="str">
         <f ca="1">SUBSTITUTE(ROUND(H72,3),",",".")</f>
-        <v>1.738</v>
+        <v>1.459</v>
       </c>
       <c r="R72" s="24"/>
       <c r="S72" s="27"/>
@@ -9792,7 +9907,7 @@
       <c r="CM72" s="2"/>
       <c r="CN72" s="2"/>
     </row>
-    <row r="73" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C73" s="2"/>
       <c r="D73" s="15" t="s">
         <v>74</v>
@@ -9809,11 +9924,11 @@
       </c>
       <c r="H73" s="32">
         <f ca="1">IF(gridLoss1H_quarter3&gt;0,gridLoss1H_quarter3,0)</f>
-        <v>1.7359999999999998</v>
+        <v>1.4569999999999999</v>
       </c>
       <c r="I73" s="27" t="str">
         <f t="shared" ref="I73:I75" ca="1" si="24">SUBSTITUTE(ROUND(H73,3),",",".")</f>
-        <v>1.736</v>
+        <v>1.457</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -9884,7 +9999,7 @@
       <c r="CM73" s="2"/>
       <c r="CN73" s="2"/>
     </row>
-    <row r="74" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C74" s="2"/>
       <c r="D74" s="15" t="s">
         <v>73</v>
@@ -9901,11 +10016,11 @@
       </c>
       <c r="H74" s="32">
         <f ca="1">IF(gridLoss1H_quarter2&gt;0,gridLoss1H_quarter2,0)</f>
-        <v>1.7380000000000009</v>
+        <v>1.4579999999999997</v>
       </c>
       <c r="I74" s="27" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>1.738</v>
+        <v>1.458</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9987,7 +10102,7 @@
       <c r="CM74" s="2"/>
       <c r="CN74" s="2"/>
     </row>
-    <row r="75" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C75" s="2"/>
       <c r="D75" s="15" t="s">
         <v>72</v>
@@ -10088,7 +10203,7 @@
       <c r="CM75" s="2"/>
       <c r="CN75" s="2"/>
     </row>
-    <row r="76" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" s="2"/>
       <c r="E76" s="51" t="s">
         <v>40</v>
@@ -10181,7 +10296,7 @@
       <c r="CM76" s="2"/>
       <c r="CN76" s="2"/>
     </row>
-    <row r="77" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="C77" s="2"/>
       <c r="D77" s="4" t="s">
         <v>20</v>
@@ -10283,7 +10398,7 @@
       <c r="CM77" s="2"/>
       <c r="CN77" s="2"/>
     </row>
-    <row r="78" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C78" s="2"/>
       <c r="D78" s="15" t="s">
         <v>75</v>
@@ -10390,7 +10505,7 @@
       <c r="CM78" s="2"/>
       <c r="CN78" s="2"/>
     </row>
-    <row r="79" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C79" s="2"/>
       <c r="D79" s="15" t="s">
         <v>74</v>
@@ -10497,7 +10612,7 @@
       <c r="CM79" s="2"/>
       <c r="CN79" s="2"/>
     </row>
-    <row r="80" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C80" s="2"/>
       <c r="D80" s="15" t="s">
         <v>73</v>
@@ -10604,7 +10719,7 @@
       <c r="CM80" s="2"/>
       <c r="CN80" s="2"/>
     </row>
-    <row r="81" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C81" s="2"/>
       <c r="D81" s="15" t="s">
         <v>72</v>
@@ -10621,11 +10736,11 @@
       </c>
       <c r="H81" s="32">
         <f ca="1">IF(gridLoss1H_quarter1&lt;0,(gridLoss1H_quarter1)*-1,0)</f>
-        <v>2.2629999999999981</v>
+        <v>2.5420000000000016</v>
       </c>
       <c r="I81" s="27" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>2.263</v>
+        <v>2.542</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -10711,7 +10826,7 @@
       <c r="CM81" s="2"/>
       <c r="CN81" s="2"/>
     </row>
-    <row r="82" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:92" ht="23.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" s="2"/>
       <c r="E82" s="51" t="s">
         <v>77</v>
@@ -10804,7 +10919,7 @@
       <c r="CM82" s="2"/>
       <c r="CN82" s="2"/>
     </row>
-    <row r="83" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:92" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="C83" s="2"/>
       <c r="D83" s="4" t="s">
         <v>20</v>
@@ -10906,7 +11021,7 @@
       <c r="CM83" s="2"/>
       <c r="CN83" s="2"/>
     </row>
-    <row r="84" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:92" hidden="1" x14ac:dyDescent="0.35">
       <c r="C84" s="2"/>
       <c r="D84" s="15" t="s">
         <v>72</v>
@@ -11005,7 +11120,7 @@
       <c r="CM84" s="2"/>
       <c r="CN84" s="2"/>
     </row>
-    <row r="85" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C85" s="2"/>
       <c r="D85" s="15" t="s">
         <v>73</v>
@@ -11022,11 +11137,11 @@
       </c>
       <c r="H85" s="32">
         <f ca="1">netEx_quarter2+totalProduction1H_quarter2+totalProduction15M_quarter2+negGridLossQuarter2</f>
-        <v>6.5020000000000007</v>
+        <v>6.2219999999999995</v>
       </c>
       <c r="I85" s="27" t="str">
         <f t="shared" ref="I85:I87" ca="1" si="28">SUBSTITUTE(ROUND(H85,3),",",".")</f>
-        <v>6.502</v>
+        <v>6.222</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -11112,7 +11227,7 @@
       <c r="CM85" s="2"/>
       <c r="CN85" s="2"/>
     </row>
-    <row r="86" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C86" s="2"/>
       <c r="D86" s="15" t="s">
         <v>74</v>
@@ -11129,11 +11244,11 @@
       </c>
       <c r="H86" s="32">
         <f ca="1">netEx_quarter3+totalProduction1H_quarter3+totalProduction15M_quarter3+negGridLossQuarter3</f>
-        <v>6.5</v>
+        <v>6.2210000000000001</v>
       </c>
       <c r="I86" s="27" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>6.5</v>
+        <v>6.221</v>
       </c>
       <c r="J86" s="2"/>
       <c r="R86" s="37"/>
@@ -11223,7 +11338,7 @@
       <c r="CM86" s="2"/>
       <c r="CN86" s="2"/>
     </row>
-    <row r="87" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C87" s="2"/>
       <c r="D87" s="15" t="s">
         <v>75</v>
@@ -11240,11 +11355,11 @@
       </c>
       <c r="H87" s="32">
         <f ca="1">netEx_quarter4+totalProduction1H_quarter4+totalProduction15M_quarter4+negGridLossQuarter4</f>
-        <v>6.5020000000000007</v>
+        <v>6.2230000000000008</v>
       </c>
       <c r="I87" s="27" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>6.502</v>
+        <v>6.223</v>
       </c>
       <c r="J87" s="2"/>
       <c r="R87" s="2"/>
@@ -11339,7 +11454,7 @@
       <c r="CM87" s="2"/>
       <c r="CN87" s="2"/>
     </row>
-    <row r="88" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" s="2"/>
       <c r="E88" s="51" t="s">
         <v>78</v>
@@ -11441,7 +11556,7 @@
       <c r="CM88" s="2"/>
       <c r="CN88" s="2"/>
     </row>
-    <row r="89" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C89" s="2"/>
       <c r="D89" s="4" t="s">
         <v>20</v>
@@ -11554,7 +11669,7 @@
       <c r="CM89" s="2"/>
       <c r="CN89" s="2"/>
     </row>
-    <row r="90" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C90" s="2"/>
       <c r="D90" s="15" t="s">
         <v>72</v>
@@ -11672,7 +11787,7 @@
       <c r="CM90" s="2"/>
       <c r="CN90" s="2"/>
     </row>
-    <row r="91" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C91" s="2"/>
       <c r="D91" s="15" t="s">
         <v>73</v>
@@ -11792,7 +11907,7 @@
       <c r="CM91" s="2"/>
       <c r="CN91" s="2"/>
     </row>
-    <row r="92" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C92" s="2"/>
       <c r="D92" s="15" t="s">
         <v>74</v>
@@ -11911,7 +12026,7 @@
       <c r="CM92" s="2"/>
       <c r="CN92" s="2"/>
     </row>
-    <row r="93" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C93" s="2"/>
       <c r="D93" s="15" t="s">
         <v>75</v>
@@ -12030,7 +12145,7 @@
       <c r="CM93" s="2"/>
       <c r="CN93" s="2"/>
     </row>
-    <row r="94" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C94" s="2"/>
       <c r="D94" s="15" t="s">
         <v>72</v>
@@ -12146,7 +12261,7 @@
       <c r="CM94" s="2"/>
       <c r="CN94" s="2"/>
     </row>
-    <row r="95" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C95" s="2"/>
       <c r="D95" s="15" t="s">
         <v>73</v>
@@ -12265,7 +12380,7 @@
       <c r="CM95" s="2"/>
       <c r="CN95" s="2"/>
     </row>
-    <row r="96" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C96" s="2"/>
       <c r="D96" s="15" t="s">
         <v>74</v>
@@ -12384,7 +12499,7 @@
       <c r="CM96" s="2"/>
       <c r="CN96" s="2"/>
     </row>
-    <row r="97" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C97" s="2"/>
       <c r="D97" s="15" t="s">
         <v>75</v>
@@ -12503,7 +12618,7 @@
       <c r="CM97" s="2"/>
       <c r="CN97" s="2"/>
     </row>
-    <row r="98" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C98" s="2"/>
       <c r="D98" s="15" t="s">
         <v>72</v>
@@ -12541,16 +12656,16 @@
       </c>
       <c r="W98" s="6">
         <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$6)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$6))/4</f>
-        <v>0</v>
+        <v>-0.27925</v>
       </c>
       <c r="X98" s="16">
         <f>W98</f>
-        <v>0</v>
+        <v>-0.27925</v>
       </c>
       <c r="Y98" s="16"/>
       <c r="Z98" s="16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
@@ -12619,7 +12734,7 @@
       <c r="CM98" s="2"/>
       <c r="CN98" s="2"/>
     </row>
-    <row r="99" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C99" s="2"/>
       <c r="D99" s="15" t="s">
         <v>73</v>
@@ -12657,19 +12772,19 @@
       </c>
       <c r="W99" s="16">
         <f>W$98</f>
-        <v>0</v>
+        <v>-0.27925</v>
       </c>
       <c r="X99" s="16">
         <f>Y99+X98</f>
-        <v>0</v>
+        <v>-0.27949999999999997</v>
       </c>
       <c r="Y99" s="16">
         <f>W99-Z98</f>
-        <v>0</v>
+        <v>-2.4999999999997247E-4</v>
       </c>
       <c r="Z99" s="16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
@@ -12738,7 +12853,7 @@
       <c r="CM99" s="2"/>
       <c r="CN99" s="2"/>
     </row>
-    <row r="100" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C100" s="2"/>
       <c r="D100" s="15" t="s">
         <v>74</v>
@@ -12776,19 +12891,19 @@
       </c>
       <c r="W100" s="16">
         <f>W$98</f>
-        <v>0</v>
+        <v>-0.27925</v>
       </c>
       <c r="X100" s="16">
         <f>Y100+X99</f>
-        <v>0</v>
+        <v>-0.27874999999999994</v>
       </c>
       <c r="Y100" s="16">
         <f>W100-Z99</f>
-        <v>0</v>
+        <v>7.5000000000002842E-4</v>
       </c>
       <c r="Z100" s="16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
@@ -12857,7 +12972,7 @@
       <c r="CM100" s="2"/>
       <c r="CN100" s="2"/>
     </row>
-    <row r="101" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C101" s="2"/>
       <c r="D101" s="15" t="s">
         <v>75</v>
@@ -12895,19 +13010,19 @@
       </c>
       <c r="W101" s="16">
         <f>W$98</f>
-        <v>0</v>
+        <v>-0.27925</v>
       </c>
       <c r="X101" s="16">
         <f>Y101+X100</f>
-        <v>0</v>
+        <v>-0.27899999999999991</v>
       </c>
       <c r="Y101" s="16">
         <f>W101-Z100</f>
-        <v>0</v>
+        <v>-2.4999999999997247E-4</v>
       </c>
       <c r="Z101" s="16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
@@ -12976,7 +13091,7 @@
       <c r="CM101" s="2"/>
       <c r="CN101" s="2"/>
     </row>
-    <row r="102" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C102" s="2"/>
       <c r="D102" s="15" t="s">
         <v>72</v>
@@ -12995,15 +13110,15 @@
       </c>
       <c r="H102" s="32">
         <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="I102" s="32" cm="1">
+        <v>-0.27900000000000003</v>
+      </c>
+      <c r="I102" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I102" ca="1">IF(E102="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="J102" s="27" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>-0.279</v>
       </c>
       <c r="U102" s="15" t="s">
         <v>72</v>
@@ -13092,7 +13207,7 @@
       <c r="CM102" s="2"/>
       <c r="CN102" s="2"/>
     </row>
-    <row r="103" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C103" s="2"/>
       <c r="D103" s="15" t="s">
         <v>73</v>
@@ -13111,15 +13226,15 @@
       </c>
       <c r="H103" s="32">
         <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="I103" s="32" cm="1">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I103" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I103" ca="1">IF(E103="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="J103" s="27" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>-0.28</v>
       </c>
       <c r="U103" s="15" t="s">
         <v>73</v>
@@ -13211,7 +13326,7 @@
       <c r="CM103" s="2"/>
       <c r="CN103" s="2"/>
     </row>
-    <row r="104" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C104" s="2"/>
       <c r="D104" s="15" t="s">
         <v>74</v>
@@ -13230,15 +13345,15 @@
       </c>
       <c r="H104" s="32">
         <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="I104" s="32" cm="1">
+        <v>-0.27900000000000003</v>
+      </c>
+      <c r="I104" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I104" ca="1">IF(E104="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="J104" s="27" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>-0.279</v>
       </c>
       <c r="U104" s="15" t="s">
         <v>74</v>
@@ -13330,7 +13445,7 @@
       <c r="CM104" s="2"/>
       <c r="CN104" s="2"/>
     </row>
-    <row r="105" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C105" s="2"/>
       <c r="D105" s="15" t="s">
         <v>75</v>
@@ -13349,15 +13464,15 @@
       </c>
       <c r="H105" s="32">
         <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="I105" s="32" cm="1">
+        <v>-0.27900000000000003</v>
+      </c>
+      <c r="I105" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I105" ca="1">IF(E105="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="J105" s="27" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>-0.279</v>
       </c>
       <c r="U105" s="15" t="s">
         <v>75</v>
@@ -13449,7 +13564,7 @@
       <c r="CM105" s="2"/>
       <c r="CN105" s="2"/>
     </row>
-    <row r="106" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C106" s="2"/>
       <c r="D106" s="15" t="s">
         <v>72</v>
@@ -13565,7 +13680,7 @@
       <c r="CM106" s="2"/>
       <c r="CN106" s="2"/>
     </row>
-    <row r="107" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C107" s="2"/>
       <c r="D107" s="15" t="s">
         <v>73</v>
@@ -13684,7 +13799,7 @@
       <c r="CM107" s="2"/>
       <c r="CN107" s="2"/>
     </row>
-    <row r="108" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C108" s="2"/>
       <c r="D108" s="15" t="s">
         <v>74</v>
@@ -13803,7 +13918,7 @@
       <c r="CM108" s="2"/>
       <c r="CN108" s="2"/>
     </row>
-    <row r="109" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C109" s="2"/>
       <c r="D109" s="15" t="s">
         <v>75</v>
@@ -13922,7 +14037,7 @@
       <c r="CM109" s="2"/>
       <c r="CN109" s="2"/>
     </row>
-    <row r="110" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C110" s="2"/>
       <c r="D110" s="15" t="s">
         <v>72</v>
@@ -14034,7 +14149,7 @@
       <c r="CM110" s="2"/>
       <c r="CN110" s="2"/>
     </row>
-    <row r="111" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C111" s="2"/>
       <c r="D111" s="15" t="s">
         <v>73</v>
@@ -14146,7 +14261,7 @@
       <c r="CM111" s="2"/>
       <c r="CN111" s="2"/>
     </row>
-    <row r="112" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C112" s="2"/>
       <c r="D112" s="15" t="s">
         <v>74</v>
@@ -14258,7 +14373,7 @@
       <c r="CM112" s="2"/>
       <c r="CN112" s="2"/>
     </row>
-    <row r="113" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C113" s="2"/>
       <c r="D113" s="15" t="s">
         <v>75</v>
@@ -14370,7 +14485,7 @@
       <c r="CM113" s="2"/>
       <c r="CN113" s="2"/>
     </row>
-    <row r="114" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -14460,7 +14575,7 @@
       <c r="CM114" s="2"/>
       <c r="CN114" s="2"/>
     </row>
-    <row r="115" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -14550,7 +14665,7 @@
       <c r="CM115" s="2"/>
       <c r="CN115" s="2"/>
     </row>
-    <row r="116" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -14640,7 +14755,7 @@
       <c r="CM116" s="2"/>
       <c r="CN116" s="2"/>
     </row>
-    <row r="117" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -14730,7 +14845,7 @@
       <c r="CM117" s="2"/>
       <c r="CN117" s="2"/>
     </row>
-    <row r="118" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -14822,7 +14937,7 @@
       <c r="CM118" s="2"/>
       <c r="CN118" s="2"/>
     </row>
-    <row r="119" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -14914,7 +15029,7 @@
       <c r="CM119" s="2"/>
       <c r="CN119" s="2"/>
     </row>
-    <row r="120" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -15006,7 +15121,7 @@
       <c r="CM120" s="2"/>
       <c r="CN120" s="2"/>
     </row>
-    <row r="121" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -15098,7 +15213,7 @@
       <c r="CM121" s="2"/>
       <c r="CN121" s="2"/>
     </row>
-    <row r="122" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -15190,7 +15305,7 @@
       <c r="CM122" s="2"/>
       <c r="CN122" s="2"/>
     </row>
-    <row r="123" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -15282,7 +15397,7 @@
       <c r="CM123" s="2"/>
       <c r="CN123" s="2"/>
     </row>
-    <row r="124" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -15374,7 +15489,7 @@
       <c r="CM124" s="2"/>
       <c r="CN124" s="2"/>
     </row>
-    <row r="125" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -15466,7 +15581,7 @@
       <c r="CM125" s="2"/>
       <c r="CN125" s="2"/>
     </row>
-    <row r="126" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -15558,7 +15673,7 @@
       <c r="CM126" s="2"/>
       <c r="CN126" s="2"/>
     </row>
-    <row r="127" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -15650,7 +15765,7 @@
       <c r="CM127" s="2"/>
       <c r="CN127" s="2"/>
     </row>
-    <row r="128" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -15742,7 +15857,7 @@
       <c r="CM128" s="2"/>
       <c r="CN128" s="2"/>
     </row>
-    <row r="129" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -15834,7 +15949,7 @@
       <c r="CM129" s="2"/>
       <c r="CN129" s="2"/>
     </row>
-    <row r="130" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -15926,7 +16041,7 @@
       <c r="CM130" s="2"/>
       <c r="CN130" s="2"/>
     </row>
-    <row r="131" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -16018,7 +16133,7 @@
       <c r="CM131" s="2"/>
       <c r="CN131" s="2"/>
     </row>
-    <row r="132" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -16110,7 +16225,7 @@
       <c r="CM132" s="2"/>
       <c r="CN132" s="2"/>
     </row>
-    <row r="133" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -16202,7 +16317,7 @@
       <c r="CM133" s="2"/>
       <c r="CN133" s="2"/>
     </row>
-    <row r="134" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -16294,7 +16409,7 @@
       <c r="CM134" s="2"/>
       <c r="CN134" s="2"/>
     </row>
-    <row r="135" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -16386,7 +16501,7 @@
       <c r="CM135" s="2"/>
       <c r="CN135" s="2"/>
     </row>
-    <row r="136" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -16478,7 +16593,7 @@
       <c r="CM136" s="2"/>
       <c r="CN136" s="2"/>
     </row>
-    <row r="137" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -16570,7 +16685,7 @@
       <c r="CM137" s="2"/>
       <c r="CN137" s="2"/>
     </row>
-    <row r="138" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -16662,7 +16777,7 @@
       <c r="CM138" s="2"/>
       <c r="CN138" s="2"/>
     </row>
-    <row r="139" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -16754,7 +16869,7 @@
       <c r="CM139" s="2"/>
       <c r="CN139" s="2"/>
     </row>
-    <row r="140" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -16846,7 +16961,7 @@
       <c r="CM140" s="2"/>
       <c r="CN140" s="2"/>
     </row>
-    <row r="141" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -16938,7 +17053,7 @@
       <c r="CM141" s="2"/>
       <c r="CN141" s="2"/>
     </row>
-    <row r="142" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -17030,7 +17145,7 @@
       <c r="CM142" s="2"/>
       <c r="CN142" s="2"/>
     </row>
-    <row r="143" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -17122,7 +17237,7 @@
       <c r="CM143" s="2"/>
       <c r="CN143" s="2"/>
     </row>
-    <row r="144" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -17214,7 +17329,7 @@
       <c r="CM144" s="2"/>
       <c r="CN144" s="2"/>
     </row>
-    <row r="145" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -17306,7 +17421,7 @@
       <c r="CM145" s="2"/>
       <c r="CN145" s="2"/>
     </row>
-    <row r="146" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -17398,7 +17513,7 @@
       <c r="CM146" s="2"/>
       <c r="CN146" s="2"/>
     </row>
-    <row r="147" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -17490,7 +17605,7 @@
       <c r="CM147" s="2"/>
       <c r="CN147" s="2"/>
     </row>
-    <row r="148" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -17582,7 +17697,7 @@
       <c r="CM148" s="2"/>
       <c r="CN148" s="2"/>
     </row>
-    <row r="149" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -17674,7 +17789,7 @@
       <c r="CM149" s="2"/>
       <c r="CN149" s="2"/>
     </row>
-    <row r="150" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -17766,7 +17881,7 @@
       <c r="CM150" s="2"/>
       <c r="CN150" s="2"/>
     </row>
-    <row r="151" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -17858,7 +17973,7 @@
       <c r="CM151" s="2"/>
       <c r="CN151" s="2"/>
     </row>
-    <row r="152" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -17950,7 +18065,7 @@
       <c r="CM152" s="2"/>
       <c r="CN152" s="2"/>
     </row>
-    <row r="153" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -18042,7 +18157,7 @@
       <c r="CM153" s="2"/>
       <c r="CN153" s="2"/>
     </row>
-    <row r="154" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -18134,7 +18249,7 @@
       <c r="CM154" s="2"/>
       <c r="CN154" s="2"/>
     </row>
-    <row r="155" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -18226,7 +18341,7 @@
       <c r="CM155" s="2"/>
       <c r="CN155" s="2"/>
     </row>
-    <row r="156" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -18318,7 +18433,7 @@
       <c r="CM156" s="2"/>
       <c r="CN156" s="2"/>
     </row>
-    <row r="157" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -18410,7 +18525,7 @@
       <c r="CM157" s="2"/>
       <c r="CN157" s="2"/>
     </row>
-    <row r="158" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -18502,7 +18617,7 @@
       <c r="CM158" s="2"/>
       <c r="CN158" s="2"/>
     </row>
-    <row r="159" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -18594,7 +18709,7 @@
       <c r="CM159" s="2"/>
       <c r="CN159" s="2"/>
     </row>
-    <row r="160" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -18686,7 +18801,7 @@
       <c r="CM160" s="2"/>
       <c r="CN160" s="2"/>
     </row>
-    <row r="161" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -18778,7 +18893,7 @@
       <c r="CM161" s="2"/>
       <c r="CN161" s="2"/>
     </row>
-    <row r="162" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -18870,7 +18985,7 @@
       <c r="CM162" s="2"/>
       <c r="CN162" s="2"/>
     </row>
-    <row r="163" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -18962,7 +19077,7 @@
       <c r="CM163" s="2"/>
       <c r="CN163" s="2"/>
     </row>
-    <row r="164" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -19054,7 +19169,7 @@
       <c r="CM164" s="2"/>
       <c r="CN164" s="2"/>
     </row>
-    <row r="165" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -19146,7 +19261,7 @@
       <c r="CM165" s="2"/>
       <c r="CN165" s="2"/>
     </row>
-    <row r="166" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -19238,7 +19353,7 @@
       <c r="CM166" s="2"/>
       <c r="CN166" s="2"/>
     </row>
-    <row r="167" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -19330,7 +19445,7 @@
       <c r="CM167" s="2"/>
       <c r="CN167" s="2"/>
     </row>
-    <row r="168" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -19422,7 +19537,7 @@
       <c r="CM168" s="2"/>
       <c r="CN168" s="2"/>
     </row>
-    <row r="169" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -19514,7 +19629,7 @@
       <c r="CM169" s="2"/>
       <c r="CN169" s="2"/>
     </row>
-    <row r="170" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -19606,7 +19721,7 @@
       <c r="CM170" s="2"/>
       <c r="CN170" s="2"/>
     </row>
-    <row r="171" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -19698,7 +19813,7 @@
       <c r="CM171" s="2"/>
       <c r="CN171" s="2"/>
     </row>
-    <row r="172" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -19790,7 +19905,7 @@
       <c r="CM172" s="2"/>
       <c r="CN172" s="2"/>
     </row>
-    <row r="173" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -19882,7 +19997,7 @@
       <c r="CM173" s="2"/>
       <c r="CN173" s="2"/>
     </row>
-    <row r="174" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -19974,7 +20089,7 @@
       <c r="CM174" s="2"/>
       <c r="CN174" s="2"/>
     </row>
-    <row r="175" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -20066,7 +20181,7 @@
       <c r="CM175" s="2"/>
       <c r="CN175" s="2"/>
     </row>
-    <row r="176" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -20158,7 +20273,7 @@
       <c r="CM176" s="2"/>
       <c r="CN176" s="2"/>
     </row>
-    <row r="177" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -20250,7 +20365,7 @@
       <c r="CM177" s="2"/>
       <c r="CN177" s="2"/>
     </row>
-    <row r="178" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -20342,7 +20457,7 @@
       <c r="CM178" s="2"/>
       <c r="CN178" s="2"/>
     </row>
-    <row r="179" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -20434,7 +20549,7 @@
       <c r="CM179" s="2"/>
       <c r="CN179" s="2"/>
     </row>
-    <row r="180" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -20526,7 +20641,7 @@
       <c r="CM180" s="2"/>
       <c r="CN180" s="2"/>
     </row>
-    <row r="181" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -20618,7 +20733,7 @@
       <c r="CM181" s="2"/>
       <c r="CN181" s="2"/>
     </row>
-    <row r="182" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -20710,7 +20825,7 @@
       <c r="CM182" s="2"/>
       <c r="CN182" s="2"/>
     </row>
-    <row r="183" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -20802,7 +20917,7 @@
       <c r="CM183" s="2"/>
       <c r="CN183" s="2"/>
     </row>
-    <row r="184" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -20894,7 +21009,7 @@
       <c r="CM184" s="2"/>
       <c r="CN184" s="2"/>
     </row>
-    <row r="185" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -20986,7 +21101,7 @@
       <c r="CM185" s="2"/>
       <c r="CN185" s="2"/>
     </row>
-    <row r="186" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -21078,7 +21193,7 @@
       <c r="CM186" s="2"/>
       <c r="CN186" s="2"/>
     </row>
-    <row r="187" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -21170,7 +21285,7 @@
       <c r="CM187" s="2"/>
       <c r="CN187" s="2"/>
     </row>
-    <row r="188" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -21262,7 +21377,7 @@
       <c r="CM188" s="2"/>
       <c r="CN188" s="2"/>
     </row>
-    <row r="189" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -21354,7 +21469,7 @@
       <c r="CM189" s="2"/>
       <c r="CN189" s="2"/>
     </row>
-    <row r="190" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -21446,7 +21561,7 @@
       <c r="CM190" s="2"/>
       <c r="CN190" s="2"/>
     </row>
-    <row r="191" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -21538,7 +21653,7 @@
       <c r="CM191" s="2"/>
       <c r="CN191" s="2"/>
     </row>
-    <row r="192" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -21630,7 +21745,7 @@
       <c r="CM192" s="2"/>
       <c r="CN192" s="2"/>
     </row>
-    <row r="193" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -21722,7 +21837,7 @@
       <c r="CM193" s="2"/>
       <c r="CN193" s="2"/>
     </row>
-    <row r="194" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -21814,7 +21929,7 @@
       <c r="CM194" s="2"/>
       <c r="CN194" s="2"/>
     </row>
-    <row r="195" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -21906,7 +22021,7 @@
       <c r="CM195" s="2"/>
       <c r="CN195" s="2"/>
     </row>
-    <row r="196" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -21998,7 +22113,7 @@
       <c r="CM196" s="2"/>
       <c r="CN196" s="2"/>
     </row>
-    <row r="197" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -22090,7 +22205,7 @@
       <c r="CM197" s="2"/>
       <c r="CN197" s="2"/>
     </row>
-    <row r="198" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -22182,7 +22297,7 @@
       <c r="CM198" s="2"/>
       <c r="CN198" s="2"/>
     </row>
-    <row r="199" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -22274,7 +22389,7 @@
       <c r="CM199" s="2"/>
       <c r="CN199" s="2"/>
     </row>
-    <row r="200" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -22366,7 +22481,7 @@
       <c r="CM200" s="2"/>
       <c r="CN200" s="2"/>
     </row>
-    <row r="201" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -22458,7 +22573,7 @@
       <c r="CM201" s="2"/>
       <c r="CN201" s="2"/>
     </row>
-    <row r="202" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -22550,7 +22665,7 @@
       <c r="CM202" s="2"/>
       <c r="CN202" s="2"/>
     </row>
-    <row r="203" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -22642,7 +22757,7 @@
       <c r="CM203" s="2"/>
       <c r="CN203" s="2"/>
     </row>
-    <row r="204" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -22734,7 +22849,7 @@
       <c r="CM204" s="2"/>
       <c r="CN204" s="2"/>
     </row>
-    <row r="205" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -22826,7 +22941,7 @@
       <c r="CM205" s="2"/>
       <c r="CN205" s="2"/>
     </row>
-    <row r="206" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -22918,7 +23033,7 @@
       <c r="CM206" s="2"/>
       <c r="CN206" s="2"/>
     </row>
-    <row r="207" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -23010,7 +23125,7 @@
       <c r="CM207" s="2"/>
       <c r="CN207" s="2"/>
     </row>
-    <row r="208" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -23102,7 +23217,7 @@
       <c r="CM208" s="2"/>
       <c r="CN208" s="2"/>
     </row>
-    <row r="209" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -23194,7 +23309,7 @@
       <c r="CM209" s="2"/>
       <c r="CN209" s="2"/>
     </row>
-    <row r="210" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -23286,7 +23401,7 @@
       <c r="CM210" s="2"/>
       <c r="CN210" s="2"/>
     </row>
-    <row r="211" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -23378,7 +23493,7 @@
       <c r="CM211" s="2"/>
       <c r="CN211" s="2"/>
     </row>
-    <row r="212" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -23470,7 +23585,7 @@
       <c r="CM212" s="2"/>
       <c r="CN212" s="2"/>
     </row>
-    <row r="213" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -23562,7 +23677,7 @@
       <c r="CM213" s="2"/>
       <c r="CN213" s="2"/>
     </row>
-    <row r="214" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -23654,7 +23769,7 @@
       <c r="CM214" s="2"/>
       <c r="CN214" s="2"/>
     </row>
-    <row r="215" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -23746,7 +23861,7 @@
       <c r="CM215" s="2"/>
       <c r="CN215" s="2"/>
     </row>
-    <row r="216" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -23838,7 +23953,7 @@
       <c r="CM216" s="2"/>
       <c r="CN216" s="2"/>
     </row>
-    <row r="217" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -23930,7 +24045,7 @@
       <c r="CM217" s="2"/>
       <c r="CN217" s="2"/>
     </row>
-    <row r="218" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -24022,7 +24137,7 @@
       <c r="CM218" s="2"/>
       <c r="CN218" s="2"/>
     </row>
-    <row r="219" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -24114,7 +24229,7 @@
       <c r="CM219" s="2"/>
       <c r="CN219" s="2"/>
     </row>
-    <row r="220" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -24206,7 +24321,7 @@
       <c r="CM220" s="2"/>
       <c r="CN220" s="2"/>
     </row>
-    <row r="221" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -24298,7 +24413,7 @@
       <c r="CM221" s="2"/>
       <c r="CN221" s="2"/>
     </row>
-    <row r="222" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -24390,7 +24505,7 @@
       <c r="CM222" s="2"/>
       <c r="CN222" s="2"/>
     </row>
-    <row r="223" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -24482,7 +24597,7 @@
       <c r="CM223" s="2"/>
       <c r="CN223" s="2"/>
     </row>
-    <row r="224" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -24574,7 +24689,7 @@
       <c r="CM224" s="2"/>
       <c r="CN224" s="2"/>
     </row>
-    <row r="225" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -24666,7 +24781,7 @@
       <c r="CM225" s="2"/>
       <c r="CN225" s="2"/>
     </row>
-    <row r="226" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -24758,7 +24873,7 @@
       <c r="CM226" s="2"/>
       <c r="CN226" s="2"/>
     </row>
-    <row r="227" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -24850,7 +24965,7 @@
       <c r="CM227" s="2"/>
       <c r="CN227" s="2"/>
     </row>
-    <row r="228" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -24942,7 +25057,7 @@
       <c r="CM228" s="2"/>
       <c r="CN228" s="2"/>
     </row>
-    <row r="229" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -25034,7 +25149,7 @@
       <c r="CM229" s="2"/>
       <c r="CN229" s="2"/>
     </row>
-    <row r="230" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -25126,7 +25241,7 @@
       <c r="CM230" s="2"/>
       <c r="CN230" s="2"/>
     </row>
-    <row r="231" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -25218,7 +25333,7 @@
       <c r="CM231" s="2"/>
       <c r="CN231" s="2"/>
     </row>
-    <row r="232" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -25310,7 +25425,7 @@
       <c r="CM232" s="2"/>
       <c r="CN232" s="2"/>
     </row>
-    <row r="233" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -25402,7 +25517,7 @@
       <c r="CM233" s="2"/>
       <c r="CN233" s="2"/>
     </row>
-    <row r="234" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -25494,7 +25609,7 @@
       <c r="CM234" s="2"/>
       <c r="CN234" s="2"/>
     </row>
-    <row r="235" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -25586,7 +25701,7 @@
       <c r="CM235" s="2"/>
       <c r="CN235" s="2"/>
     </row>
-    <row r="236" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -25678,7 +25793,7 @@
       <c r="CM236" s="2"/>
       <c r="CN236" s="2"/>
     </row>
-    <row r="237" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -25770,7 +25885,7 @@
       <c r="CM237" s="2"/>
       <c r="CN237" s="2"/>
     </row>
-    <row r="238" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -25862,7 +25977,7 @@
       <c r="CM238" s="2"/>
       <c r="CN238" s="2"/>
     </row>
-    <row r="239" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -25954,7 +26069,7 @@
       <c r="CM239" s="2"/>
       <c r="CN239" s="2"/>
     </row>
-    <row r="240" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -26046,7 +26161,7 @@
       <c r="CM240" s="2"/>
       <c r="CN240" s="2"/>
     </row>
-    <row r="241" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -26138,7 +26253,7 @@
       <c r="CM241" s="2"/>
       <c r="CN241" s="2"/>
     </row>
-    <row r="242" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -26230,7 +26345,7 @@
       <c r="CM242" s="2"/>
       <c r="CN242" s="2"/>
     </row>
-    <row r="243" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -26322,7 +26437,7 @@
       <c r="CM243" s="2"/>
       <c r="CN243" s="2"/>
     </row>
-    <row r="244" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -26414,7 +26529,7 @@
       <c r="CM244" s="2"/>
       <c r="CN244" s="2"/>
     </row>
-    <row r="245" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -26506,7 +26621,7 @@
       <c r="CM245" s="2"/>
       <c r="CN245" s="2"/>
     </row>
-    <row r="246" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -26598,7 +26713,7 @@
       <c r="CM246" s="2"/>
       <c r="CN246" s="2"/>
     </row>
-    <row r="247" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -26690,7 +26805,7 @@
       <c r="CM247" s="2"/>
       <c r="CN247" s="2"/>
     </row>
-    <row r="248" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -26782,7 +26897,7 @@
       <c r="CM248" s="2"/>
       <c r="CN248" s="2"/>
     </row>
-    <row r="249" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -26874,7 +26989,7 @@
       <c r="CM249" s="2"/>
       <c r="CN249" s="2"/>
     </row>
-    <row r="250" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -26966,7 +27081,7 @@
       <c r="CM250" s="2"/>
       <c r="CN250" s="2"/>
     </row>
-    <row r="251" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -27058,7 +27173,7 @@
       <c r="CM251" s="2"/>
       <c r="CN251" s="2"/>
     </row>
-    <row r="252" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -27150,7 +27265,7 @@
       <c r="CM252" s="2"/>
       <c r="CN252" s="2"/>
     </row>
-    <row r="253" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -27242,7 +27357,7 @@
       <c r="CM253" s="2"/>
       <c r="CN253" s="2"/>
     </row>
-    <row r="254" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -27334,7 +27449,7 @@
       <c r="CM254" s="2"/>
       <c r="CN254" s="2"/>
     </row>
-    <row r="255" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -27426,7 +27541,7 @@
       <c r="CM255" s="2"/>
       <c r="CN255" s="2"/>
     </row>
-    <row r="256" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -27518,7 +27633,7 @@
       <c r="CM256" s="2"/>
       <c r="CN256" s="2"/>
     </row>
-    <row r="257" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -27610,7 +27725,7 @@
       <c r="CM257" s="2"/>
       <c r="CN257" s="2"/>
     </row>
-    <row r="258" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -27702,7 +27817,7 @@
       <c r="CM258" s="2"/>
       <c r="CN258" s="2"/>
     </row>
-    <row r="259" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -27794,7 +27909,7 @@
       <c r="CM259" s="2"/>
       <c r="CN259" s="2"/>
     </row>
-    <row r="260" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -27886,7 +28001,7 @@
       <c r="CM260" s="2"/>
       <c r="CN260" s="2"/>
     </row>
-    <row r="261" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -27978,7 +28093,7 @@
       <c r="CM261" s="2"/>
       <c r="CN261" s="2"/>
     </row>
-    <row r="262" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -28070,7 +28185,7 @@
       <c r="CM262" s="2"/>
       <c r="CN262" s="2"/>
     </row>
-    <row r="263" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -28162,7 +28277,7 @@
       <c r="CM263" s="2"/>
       <c r="CN263" s="2"/>
     </row>
-    <row r="264" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -28254,7 +28369,7 @@
       <c r="CM264" s="2"/>
       <c r="CN264" s="2"/>
     </row>
-    <row r="265" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -28346,7 +28461,7 @@
       <c r="CM265" s="2"/>
       <c r="CN265" s="2"/>
     </row>
-    <row r="266" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -28438,7 +28553,7 @@
       <c r="CM266" s="2"/>
       <c r="CN266" s="2"/>
     </row>
-    <row r="267" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -28530,7 +28645,7 @@
       <c r="CM267" s="2"/>
       <c r="CN267" s="2"/>
     </row>
-    <row r="268" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -28622,7 +28737,7 @@
       <c r="CM268" s="2"/>
       <c r="CN268" s="2"/>
     </row>
-    <row r="269" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -28714,7 +28829,7 @@
       <c r="CM269" s="2"/>
       <c r="CN269" s="2"/>
     </row>
-    <row r="270" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -28806,7 +28921,7 @@
       <c r="CM270" s="2"/>
       <c r="CN270" s="2"/>
     </row>
-    <row r="271" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -28898,7 +29013,7 @@
       <c r="CM271" s="2"/>
       <c r="CN271" s="2"/>
     </row>
-    <row r="272" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -28990,7 +29105,7 @@
       <c r="CM272" s="2"/>
       <c r="CN272" s="2"/>
     </row>
-    <row r="273" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -29082,7 +29197,7 @@
       <c r="CM273" s="2"/>
       <c r="CN273" s="2"/>
     </row>
-    <row r="274" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -29174,7 +29289,7 @@
       <c r="CM274" s="2"/>
       <c r="CN274" s="2"/>
     </row>
-    <row r="275" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -29266,7 +29381,7 @@
       <c r="CM275" s="2"/>
       <c r="CN275" s="2"/>
     </row>
-    <row r="276" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -29358,7 +29473,7 @@
       <c r="CM276" s="2"/>
       <c r="CN276" s="2"/>
     </row>
-    <row r="277" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -29450,7 +29565,7 @@
       <c r="CM277" s="2"/>
       <c r="CN277" s="2"/>
     </row>
-    <row r="278" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -29542,7 +29657,7 @@
       <c r="CM278" s="2"/>
       <c r="CN278" s="2"/>
     </row>
-    <row r="279" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -29634,7 +29749,7 @@
       <c r="CM279" s="2"/>
       <c r="CN279" s="2"/>
     </row>
-    <row r="280" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -29726,7 +29841,7 @@
       <c r="CM280" s="2"/>
       <c r="CN280" s="2"/>
     </row>
-    <row r="281" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -29818,7 +29933,7 @@
       <c r="CM281" s="2"/>
       <c r="CN281" s="2"/>
     </row>
-    <row r="282" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -29910,7 +30025,7 @@
       <c r="CM282" s="2"/>
       <c r="CN282" s="2"/>
     </row>
-    <row r="283" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -30002,7 +30117,7 @@
       <c r="CM283" s="2"/>
       <c r="CN283" s="2"/>
     </row>
-    <row r="284" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -30094,7 +30209,7 @@
       <c r="CM284" s="2"/>
       <c r="CN284" s="2"/>
     </row>
-    <row r="285" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -30186,7 +30301,7 @@
       <c r="CM285" s="2"/>
       <c r="CN285" s="2"/>
     </row>
-    <row r="286" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -30278,7 +30393,7 @@
       <c r="CM286" s="2"/>
       <c r="CN286" s="2"/>
     </row>
-    <row r="287" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -30370,7 +30485,7 @@
       <c r="CM287" s="2"/>
       <c r="CN287" s="2"/>
     </row>
-    <row r="288" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -30462,7 +30577,7 @@
       <c r="CM288" s="2"/>
       <c r="CN288" s="2"/>
     </row>
-    <row r="289" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -30554,7 +30669,7 @@
       <c r="CM289" s="2"/>
       <c r="CN289" s="2"/>
     </row>
-    <row r="290" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -30646,7 +30761,7 @@
       <c r="CM290" s="2"/>
       <c r="CN290" s="2"/>
     </row>
-    <row r="291" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -30738,7 +30853,7 @@
       <c r="CM291" s="2"/>
       <c r="CN291" s="2"/>
     </row>
-    <row r="292" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -30830,7 +30945,7 @@
       <c r="CM292" s="2"/>
       <c r="CN292" s="2"/>
     </row>
-    <row r="293" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -30922,7 +31037,7 @@
       <c r="CM293" s="2"/>
       <c r="CN293" s="2"/>
     </row>
-    <row r="294" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -31014,7 +31129,7 @@
       <c r="CM294" s="2"/>
       <c r="CN294" s="2"/>
     </row>
-    <row r="295" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -31106,7 +31221,7 @@
       <c r="CM295" s="2"/>
       <c r="CN295" s="2"/>
     </row>
-    <row r="296" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -31198,7 +31313,7 @@
       <c r="CM296" s="2"/>
       <c r="CN296" s="2"/>
     </row>
-    <row r="297" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -31290,7 +31405,7 @@
       <c r="CM297" s="2"/>
       <c r="CN297" s="2"/>
     </row>
-    <row r="298" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -31382,7 +31497,7 @@
       <c r="CM298" s="2"/>
       <c r="CN298" s="2"/>
     </row>
-    <row r="299" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -31474,7 +31589,7 @@
       <c r="CM299" s="2"/>
       <c r="CN299" s="2"/>
     </row>
-    <row r="300" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -31566,7 +31681,7 @@
       <c r="CM300" s="2"/>
       <c r="CN300" s="2"/>
     </row>
-    <row r="301" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -31658,7 +31773,7 @@
       <c r="CM301" s="2"/>
       <c r="CN301" s="2"/>
     </row>
-    <row r="302" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -31750,7 +31865,7 @@
       <c r="CM302" s="2"/>
       <c r="CN302" s="2"/>
     </row>
-    <row r="303" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -31842,7 +31957,7 @@
       <c r="CM303" s="2"/>
       <c r="CN303" s="2"/>
     </row>
-    <row r="304" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -31934,7 +32049,7 @@
       <c r="CM304" s="2"/>
       <c r="CN304" s="2"/>
     </row>
-    <row r="305" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -32026,7 +32141,7 @@
       <c r="CM305" s="2"/>
       <c r="CN305" s="2"/>
     </row>
-    <row r="306" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -32118,7 +32233,7 @@
       <c r="CM306" s="2"/>
       <c r="CN306" s="2"/>
     </row>
-    <row r="307" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -32210,7 +32325,7 @@
       <c r="CM307" s="2"/>
       <c r="CN307" s="2"/>
     </row>
-    <row r="308" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -32302,7 +32417,7 @@
       <c r="CM308" s="2"/>
       <c r="CN308" s="2"/>
     </row>
-    <row r="309" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -32394,7 +32509,7 @@
       <c r="CM309" s="2"/>
       <c r="CN309" s="2"/>
     </row>
-    <row r="310" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -32486,7 +32601,7 @@
       <c r="CM310" s="2"/>
       <c r="CN310" s="2"/>
     </row>
-    <row r="311" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -32578,7 +32693,7 @@
       <c r="CM311" s="2"/>
       <c r="CN311" s="2"/>
     </row>
-    <row r="312" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -32670,7 +32785,7 @@
       <c r="CM312" s="2"/>
       <c r="CN312" s="2"/>
     </row>
-    <row r="313" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -32762,7 +32877,7 @@
       <c r="CM313" s="2"/>
       <c r="CN313" s="2"/>
     </row>
-    <row r="314" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -32854,7 +32969,7 @@
       <c r="CM314" s="2"/>
       <c r="CN314" s="2"/>
     </row>
-    <row r="315" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -32946,7 +33061,7 @@
       <c r="CM315" s="2"/>
       <c r="CN315" s="2"/>
     </row>
-    <row r="316" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -33038,7 +33153,7 @@
       <c r="CM316" s="2"/>
       <c r="CN316" s="2"/>
     </row>
-    <row r="317" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -33130,7 +33245,7 @@
       <c r="CM317" s="2"/>
       <c r="CN317" s="2"/>
     </row>
-    <row r="318" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -33222,7 +33337,7 @@
       <c r="CM318" s="2"/>
       <c r="CN318" s="2"/>
     </row>
-    <row r="319" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -33314,7 +33429,7 @@
       <c r="CM319" s="2"/>
       <c r="CN319" s="2"/>
     </row>
-    <row r="320" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -33406,7 +33521,7 @@
       <c r="CM320" s="2"/>
       <c r="CN320" s="2"/>
     </row>
-    <row r="321" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -33498,7 +33613,7 @@
       <c r="CM321" s="2"/>
       <c r="CN321" s="2"/>
     </row>
-    <row r="322" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -33590,7 +33705,7 @@
       <c r="CM322" s="2"/>
       <c r="CN322" s="2"/>
     </row>
-    <row r="323" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -33682,7 +33797,7 @@
       <c r="CM323" s="2"/>
       <c r="CN323" s="2"/>
     </row>
-    <row r="324" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -33774,7 +33889,7 @@
       <c r="CM324" s="2"/>
       <c r="CN324" s="2"/>
     </row>
-    <row r="325" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -33866,7 +33981,7 @@
       <c r="CM325" s="2"/>
       <c r="CN325" s="2"/>
     </row>
-    <row r="326" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -33958,7 +34073,7 @@
       <c r="CM326" s="2"/>
       <c r="CN326" s="2"/>
     </row>
-    <row r="327" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -34050,7 +34165,7 @@
       <c r="CM327" s="2"/>
       <c r="CN327" s="2"/>
     </row>
-    <row r="328" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -34142,7 +34257,7 @@
       <c r="CM328" s="2"/>
       <c r="CN328" s="2"/>
     </row>
-    <row r="329" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -34234,7 +34349,7 @@
       <c r="CM329" s="2"/>
       <c r="CN329" s="2"/>
     </row>
-    <row r="330" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -34326,7 +34441,7 @@
       <c r="CM330" s="2"/>
       <c r="CN330" s="2"/>
     </row>
-    <row r="331" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -34418,7 +34533,7 @@
       <c r="CM331" s="2"/>
       <c r="CN331" s="2"/>
     </row>
-    <row r="332" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -34510,7 +34625,7 @@
       <c r="CM332" s="2"/>
       <c r="CN332" s="2"/>
     </row>
-    <row r="333" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -34602,7 +34717,7 @@
       <c r="CM333" s="2"/>
       <c r="CN333" s="2"/>
     </row>
-    <row r="334" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -34694,7 +34809,7 @@
       <c r="CM334" s="2"/>
       <c r="CN334" s="2"/>
     </row>
-    <row r="335" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -34786,7 +34901,7 @@
       <c r="CM335" s="2"/>
       <c r="CN335" s="2"/>
     </row>
-    <row r="336" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -34878,7 +34993,7 @@
       <c r="CM336" s="2"/>
       <c r="CN336" s="2"/>
     </row>
-    <row r="337" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -34970,7 +35085,7 @@
       <c r="CM337" s="2"/>
       <c r="CN337" s="2"/>
     </row>
-    <row r="338" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -35062,7 +35177,7 @@
       <c r="CM338" s="2"/>
       <c r="CN338" s="2"/>
     </row>
-    <row r="339" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -35154,7 +35269,7 @@
       <c r="CM339" s="2"/>
       <c r="CN339" s="2"/>
     </row>
-    <row r="340" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -35246,7 +35361,7 @@
       <c r="CM340" s="2"/>
       <c r="CN340" s="2"/>
     </row>
-    <row r="341" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -35338,7 +35453,7 @@
       <c r="CM341" s="2"/>
       <c r="CN341" s="2"/>
     </row>
-    <row r="342" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -35430,7 +35545,7 @@
       <c r="CM342" s="2"/>
       <c r="CN342" s="2"/>
     </row>
-    <row r="343" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -35522,7 +35637,7 @@
       <c r="CM343" s="2"/>
       <c r="CN343" s="2"/>
     </row>
-    <row r="344" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -35614,7 +35729,7 @@
       <c r="CM344" s="2"/>
       <c r="CN344" s="2"/>
     </row>
-    <row r="345" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -35706,7 +35821,7 @@
       <c r="CM345" s="2"/>
       <c r="CN345" s="2"/>
     </row>
-    <row r="346" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -35798,7 +35913,7 @@
       <c r="CM346" s="2"/>
       <c r="CN346" s="2"/>
     </row>
-    <row r="347" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -35890,7 +36005,7 @@
       <c r="CM347" s="2"/>
       <c r="CN347" s="2"/>
     </row>
-    <row r="348" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -35982,7 +36097,7 @@
       <c r="CM348" s="2"/>
       <c r="CN348" s="2"/>
     </row>
-    <row r="349" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -36074,7 +36189,7 @@
       <c r="CM349" s="2"/>
       <c r="CN349" s="2"/>
     </row>
-    <row r="350" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -36166,7 +36281,7 @@
       <c r="CM350" s="2"/>
       <c r="CN350" s="2"/>
     </row>
-    <row r="351" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -36258,7 +36373,7 @@
       <c r="CM351" s="2"/>
       <c r="CN351" s="2"/>
     </row>
-    <row r="352" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -36350,7 +36465,7 @@
       <c r="CM352" s="2"/>
       <c r="CN352" s="2"/>
     </row>
-    <row r="353" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -36442,7 +36557,7 @@
       <c r="CM353" s="2"/>
       <c r="CN353" s="2"/>
     </row>
-    <row r="354" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -36534,7 +36649,7 @@
       <c r="CM354" s="2"/>
       <c r="CN354" s="2"/>
     </row>
-    <row r="355" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -36626,7 +36741,7 @@
       <c r="CM355" s="2"/>
       <c r="CN355" s="2"/>
     </row>
-    <row r="356" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -36718,7 +36833,7 @@
       <c r="CM356" s="2"/>
       <c r="CN356" s="2"/>
     </row>
-    <row r="357" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -36810,7 +36925,7 @@
       <c r="CM357" s="2"/>
       <c r="CN357" s="2"/>
     </row>
-    <row r="358" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -36902,7 +37017,7 @@
       <c r="CM358" s="2"/>
       <c r="CN358" s="2"/>
     </row>
-    <row r="359" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -36994,7 +37109,7 @@
       <c r="CM359" s="2"/>
       <c r="CN359" s="2"/>
     </row>
-    <row r="360" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -37086,7 +37201,7 @@
       <c r="CM360" s="2"/>
       <c r="CN360" s="2"/>
     </row>
-    <row r="361" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -37178,7 +37293,7 @@
       <c r="CM361" s="2"/>
       <c r="CN361" s="2"/>
     </row>
-    <row r="362" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -37270,7 +37385,7 @@
       <c r="CM362" s="2"/>
       <c r="CN362" s="2"/>
     </row>
-    <row r="363" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -37362,7 +37477,7 @@
       <c r="CM363" s="2"/>
       <c r="CN363" s="2"/>
     </row>
-    <row r="364" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -37454,7 +37569,7 @@
       <c r="CM364" s="2"/>
       <c r="CN364" s="2"/>
     </row>
-    <row r="365" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -37546,7 +37661,7 @@
       <c r="CM365" s="2"/>
       <c r="CN365" s="2"/>
     </row>
-    <row r="366" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -37638,7 +37753,7 @@
       <c r="CM366" s="2"/>
       <c r="CN366" s="2"/>
     </row>
-    <row r="367" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -37730,7 +37845,7 @@
       <c r="CM367" s="2"/>
       <c r="CN367" s="2"/>
     </row>
-    <row r="368" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -37822,7 +37937,7 @@
       <c r="CM368" s="2"/>
       <c r="CN368" s="2"/>
     </row>
-    <row r="369" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -37914,7 +38029,7 @@
       <c r="CM369" s="2"/>
       <c r="CN369" s="2"/>
     </row>
-    <row r="370" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -38006,7 +38121,7 @@
       <c r="CM370" s="2"/>
       <c r="CN370" s="2"/>
     </row>
-    <row r="371" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -38098,7 +38213,7 @@
       <c r="CM371" s="2"/>
       <c r="CN371" s="2"/>
     </row>
-    <row r="372" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -38190,7 +38305,7 @@
       <c r="CM372" s="2"/>
       <c r="CN372" s="2"/>
     </row>
-    <row r="373" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -38282,7 +38397,7 @@
       <c r="CM373" s="2"/>
       <c r="CN373" s="2"/>
     </row>
-    <row r="374" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -38374,7 +38489,7 @@
       <c r="CM374" s="2"/>
       <c r="CN374" s="2"/>
     </row>
-    <row r="375" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -38466,7 +38581,7 @@
       <c r="CM375" s="2"/>
       <c r="CN375" s="2"/>
     </row>
-    <row r="376" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -38558,7 +38673,7 @@
       <c r="CM376" s="2"/>
       <c r="CN376" s="2"/>
     </row>
-    <row r="377" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -38650,7 +38765,7 @@
       <c r="CM377" s="2"/>
       <c r="CN377" s="2"/>
     </row>
-    <row r="378" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -38742,7 +38857,7 @@
       <c r="CM378" s="2"/>
       <c r="CN378" s="2"/>
     </row>
-    <row r="379" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -38834,7 +38949,7 @@
       <c r="CM379" s="2"/>
       <c r="CN379" s="2"/>
     </row>
-    <row r="380" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -38926,7 +39041,7 @@
       <c r="CM380" s="2"/>
       <c r="CN380" s="2"/>
     </row>
-    <row r="381" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -39018,7 +39133,7 @@
       <c r="CM381" s="2"/>
       <c r="CN381" s="2"/>
     </row>
-    <row r="382" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -39110,7 +39225,7 @@
       <c r="CM382" s="2"/>
       <c r="CN382" s="2"/>
     </row>
-    <row r="383" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -39202,7 +39317,7 @@
       <c r="CM383" s="2"/>
       <c r="CN383" s="2"/>
     </row>
-    <row r="384" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -39294,7 +39409,7 @@
       <c r="CM384" s="2"/>
       <c r="CN384" s="2"/>
     </row>
-    <row r="385" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -39386,7 +39501,7 @@
       <c r="CM385" s="2"/>
       <c r="CN385" s="2"/>
     </row>
-    <row r="386" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -39478,7 +39593,7 @@
       <c r="CM386" s="2"/>
       <c r="CN386" s="2"/>
     </row>
-    <row r="387" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -39570,7 +39685,7 @@
       <c r="CM387" s="2"/>
       <c r="CN387" s="2"/>
     </row>
-    <row r="388" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -39662,7 +39777,7 @@
       <c r="CM388" s="2"/>
       <c r="CN388" s="2"/>
     </row>
-    <row r="389" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -39754,7 +39869,7 @@
       <c r="CM389" s="2"/>
       <c r="CN389" s="2"/>
     </row>
-    <row r="390" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -39846,7 +39961,7 @@
       <c r="CM390" s="2"/>
       <c r="CN390" s="2"/>
     </row>
-    <row r="391" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -39938,7 +40053,7 @@
       <c r="CM391" s="2"/>
       <c r="CN391" s="2"/>
     </row>
-    <row r="392" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -40030,7 +40145,7 @@
       <c r="CM392" s="2"/>
       <c r="CN392" s="2"/>
     </row>
-    <row r="393" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -40122,7 +40237,7 @@
       <c r="CM393" s="2"/>
       <c r="CN393" s="2"/>
     </row>
-    <row r="394" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -40214,7 +40329,7 @@
       <c r="CM394" s="2"/>
       <c r="CN394" s="2"/>
     </row>
-    <row r="395" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -40306,7 +40421,7 @@
       <c r="CM395" s="2"/>
       <c r="CN395" s="2"/>
     </row>
-    <row r="396" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -40398,7 +40513,7 @@
       <c r="CM396" s="2"/>
       <c r="CN396" s="2"/>
     </row>
-    <row r="397" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -40490,7 +40605,7 @@
       <c r="CM397" s="2"/>
       <c r="CN397" s="2"/>
     </row>
-    <row r="398" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -40582,7 +40697,7 @@
       <c r="CM398" s="2"/>
       <c r="CN398" s="2"/>
     </row>
-    <row r="399" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -40674,7 +40789,7 @@
       <c r="CM399" s="2"/>
       <c r="CN399" s="2"/>
     </row>
-    <row r="400" spans="3:92" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:92" x14ac:dyDescent="0.35">
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -40767,7 +40882,8 @@
       <c r="CN400" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="E46:H46"/>
@@ -40783,42 +40899,42 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="F2:I19">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>OR($N2="glmp",$N2="skmp")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I19">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$K2="PT1H"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35 Y35">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>$V$35=$Y$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V41 Y41">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$V$41=$Y$41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V47 Y47">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>$V$47=$Y$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V53 Y53">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$V$53=$Y$53</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V59 Y59">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>$V$59=$Y$59</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V65 Y65">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$V$65=$Y$65</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40848,6 +40964,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010083C51B3A6863BB4086AAB9D84DF721A3" ma:contentTypeVersion="9" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="9d92303bd8f83ad3ed572bd327ba273d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="17d0a144-7218-432a-80c1-1473a2ac0f84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e272e23039cec0e41a69c8e3deb1ff81" ns3:_="">
     <xsd:import namespace="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
@@ -41023,24 +41156,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEE2584E-1495-47FC-B560-4437F91C3A10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41056,28 +41196,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>